--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="31" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="954" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="44" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="954" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -321,7 +321,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3212" uniqueCount="1273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3214" uniqueCount="1275">
   <si>
     <t>Instructions</t>
   </si>
@@ -3285,6 +3285,12 @@
   </si>
   <si>
     <t>ZAR</t>
+  </si>
+  <si>
+    <t>ShowPartitions</t>
+  </si>
+  <si>
+    <t>Show Sample Partitions</t>
   </si>
   <si>
     <t>ShowPricing</t>
@@ -4912,7 +4918,7 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4982,7 +4988,7 @@
   </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -5172,7 +5178,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5281,7 +5287,7 @@
   </sheetPr>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="Q22" activeCellId="0" pane="topLeft" sqref="Q22"/>
     </sheetView>
   </sheetViews>
@@ -5717,7 +5723,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H4" activeCellId="0" pane="topLeft" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -5993,7 +5999,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6065,7 +6071,7 @@
   </sheetPr>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6189,7 +6195,7 @@
   </sheetPr>
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6329,7 +6335,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6559,7 +6565,7 @@
   </sheetPr>
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6837,7 +6843,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6957,7 +6963,7 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7155,7 +7161,7 @@
   </sheetPr>
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8393,7 +8399,7 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8539,7 +8545,7 @@
   </sheetPr>
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8678,7 +8684,7 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9668,7 +9674,7 @@
   </sheetPr>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9895,7 +9901,7 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9997,7 +10003,7 @@
   </sheetPr>
   <dimension ref="1:6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10099,7 +10105,7 @@
   </sheetPr>
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10236,7 +10242,7 @@
   </sheetPr>
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -10813,7 +10819,7 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12452,7 +12458,7 @@
   </sheetPr>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12854,7 +12860,7 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -12925,7 +12931,7 @@
   </sheetPr>
   <dimension ref="1:15"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A10" activeCellId="0" pane="topLeft" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -13133,7 +13139,7 @@
   </sheetPr>
   <dimension ref="1:103"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="F19" activeCellId="0" pane="topLeft" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -14610,7 +14616,7 @@
   </sheetPr>
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14745,7 +14751,7 @@
   </sheetPr>
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14937,7 +14943,7 @@
   </sheetPr>
   <dimension ref="A1:F291"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -20222,7 +20228,7 @@
   </sheetPr>
   <dimension ref="1:291"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21000,7 +21006,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -21177,7 +21183,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -21245,7 +21251,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -21378,7 +21384,7 @@
   </sheetPr>
   <dimension ref="A1:Y89"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -22452,7 +22458,7 @@
   </sheetPr>
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C10" activeCellId="0" pane="topLeft" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -22782,7 +22788,7 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22856,7 +22862,7 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -22933,7 +22939,7 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -23012,7 +23018,7 @@
   </sheetPr>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23406,10 +23412,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D13" activeCellId="0" pane="topLeft" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -23491,7 +23497,7 @@
         <v>989</v>
       </c>
       <c r="C7" s="136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
@@ -23501,30 +23507,30 @@
       <c r="B8" s="111" t="s">
         <v>991</v>
       </c>
-      <c r="C8" s="135" t="n">
-        <v>15</v>
+      <c r="C8" s="136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
       <c r="A9" s="6" t="s">
-        <v>787</v>
+        <v>992</v>
       </c>
       <c r="B9" s="111" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C9" s="135" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
       <c r="A10" s="6" t="s">
-        <v>993</v>
+        <v>787</v>
       </c>
       <c r="B10" s="111" t="s">
         <v>994</v>
       </c>
       <c r="C10" s="135" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
@@ -23546,7 +23552,7 @@
         <v>998</v>
       </c>
       <c r="C12" s="135" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
@@ -23556,7 +23562,9 @@
       <c r="B13" s="111" t="s">
         <v>1000</v>
       </c>
-      <c r="C13" s="135"/>
+      <c r="C13" s="135" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
       <c r="A14" s="6" t="s">
@@ -23565,9 +23573,7 @@
       <c r="B14" s="111" t="s">
         <v>1002</v>
       </c>
-      <c r="C14" s="136" t="n">
-        <v>0</v>
-      </c>
+      <c r="C14" s="135"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
       <c r="A15" s="6" t="s">
@@ -23577,41 +23583,40 @@
         <v>1004</v>
       </c>
       <c r="C15" s="136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
       <c r="A16" s="6" t="s">
         <v>1005</v>
       </c>
       <c r="B16" s="111" t="s">
         <v>1006</v>
       </c>
-      <c r="C16" s="137" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
+      <c r="C16" s="136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="17">
       <c r="A17" s="6" t="s">
         <v>1007</v>
       </c>
       <c r="B17" s="111" t="s">
         <v>1008</v>
       </c>
-      <c r="C17" s="138" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D17" s="139"/>
+      <c r="C17" s="137" t="s">
+        <v>745</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="18">
       <c r="A18" s="6" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B18" s="111" t="s">
         <v>1010</v>
       </c>
-      <c r="B18" s="111" t="s">
+      <c r="C18" s="138" t="s">
         <v>1011</v>
-      </c>
-      <c r="C18" s="137" t="s">
-        <v>272</v>
       </c>
       <c r="D18" s="139"/>
     </row>
@@ -23625,6 +23630,7 @@
       <c r="C19" s="137" t="s">
         <v>272</v>
       </c>
+      <c r="D19" s="139"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="20">
       <c r="A20" s="6" t="s">
@@ -23633,8 +23639,8 @@
       <c r="B20" s="111" t="s">
         <v>1015</v>
       </c>
-      <c r="C20" s="138" t="n">
-        <v>30</v>
+      <c r="C20" s="137" t="s">
+        <v>272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
@@ -23645,10 +23651,10 @@
         <v>1017</v>
       </c>
       <c r="C21" s="138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="22">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="6" t="s">
         <v>1018</v>
       </c>
@@ -23659,60 +23665,60 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="A23" s="6" t="s">
         <v>1020</v>
       </c>
       <c r="B23" s="111" t="s">
         <v>1021</v>
       </c>
-      <c r="C23" s="137" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D23" s="140"/>
+      <c r="C23" s="138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="24">
       <c r="A24" s="6" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B24" s="111" t="s">
         <v>1023</v>
       </c>
-      <c r="B24" s="111" t="s">
+      <c r="C24" s="137" t="s">
         <v>1024</v>
       </c>
-      <c r="C24" s="137" t="s">
+      <c r="D24" s="140"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
+      <c r="A25" s="6" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="25">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="111" t="s">
         <v>1026</v>
       </c>
-      <c r="B25" s="111" t="s">
+      <c r="C25" s="137" t="s">
         <v>1027</v>
       </c>
-      <c r="C25" s="136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="26">
       <c r="A26" s="6" t="s">
         <v>1028</v>
       </c>
       <c r="B26" s="111" t="s">
         <v>1029</v>
       </c>
-      <c r="C26" s="135" t="s">
-        <v>1030</v>
+      <c r="C26" s="136" t="n">
+        <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="A27" s="6" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B27" s="111" t="s">
         <v>1031</v>
       </c>
-      <c r="B27" s="111" t="s">
+      <c r="C27" s="135" t="s">
         <v>1032</v>
-      </c>
-      <c r="C27" s="135" t="n">
-        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
@@ -23722,8 +23728,8 @@
       <c r="B28" s="111" t="s">
         <v>1034</v>
       </c>
-      <c r="C28" s="136" t="n">
-        <v>0</v>
+      <c r="C28" s="135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
@@ -23733,23 +23739,34 @@
       <c r="B29" s="111" t="s">
         <v>1036</v>
       </c>
-      <c r="C29" s="135"/>
+      <c r="C29" s="136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
+      <c r="A30" s="6" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B30" s="111" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C30" s="135"/>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C20" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7 C14:C15 C25 C28" type="list">
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7:C8 C15:C16 C26 C29" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
       <formula1>0</formula1>
       <formula2>23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
       <formula1>0</formula1>
       <formula2>59</formula2>
     </dataValidation>
@@ -23765,71 +23782,71 @@
       <formula1>Constants!$B$22:$B$200</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="The discount percentage entered here, is applied to the prices for clients flagged as 'members', normally co-operative members or associates deserving of this discount" promptTitle="Member discount %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C8" type="decimal">
+    <dataValidation allowBlank="false" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="The discount percentage entered here, is applied to the prices for clients flagged as 'members', normally co-operative members or associates deserving of this discount" promptTitle="Member discount %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9" type="decimal">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="Enter percentage value eg. 14.0.  This percentage is applied system-wide but can be overwrittem on individual items" promptTitle="Value added tax %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C9" type="decimal">
+    <dataValidation allowBlank="true" error="Not sure why, must be equal or greater than 0" errorTitle="Invalid entry" operator="between" prompt="Enter percentage value eg. 14.0.  This percentage is applied system-wide but can be overwrittem on individual items" promptTitle="Value added tax %" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10" type="decimal">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Using too few data points does not make statistical sense.  Set an acceptable minimum number of results before QC statistics will be calculated and plotted" promptTitle="Minimum number of results for QC stats calculations" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C10" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Using too few data points does not make statistical sense.  Set an acceptable minimum number of results before QC statistics will be calculated and plotted" promptTitle="Minimum number of results for QC stats calculations" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C11" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Set the maximum number of analysis requests per results email. Too many columns per email are difficult to read for some clients who prefer fewer results per email" promptTitle="Maximum columns per results email" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C11" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Set the maximum number of analysis requests per results email. Too many columns per email are difficult to read for some clients who prefer fewer results per email" promptTitle="Maximum columns per results email" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C12" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Too many AR columns per fax will see the font size minimised and could render faxes illegible. 4 ARs maximum per page is recommended" promptTitle="Maximum columns per results fax" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C12" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Too many AR columns per fax will see the font size minimised and could render faxes illegible. 4 ARs maximum per page is recommended" promptTitle="Maximum columns per results fax" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" prompt="The email to SMS gateway address. Either a complete email address, or just the domain, e.g. '@2way.co.za', the contact's mobile phone number will be prepended to" promptTitle="SMS Gateway Email Address" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C13" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="The email to SMS gateway address. Either a complete email address, or just the domain, e.g. '@2way.co.za', the contact's mobile phone number will be prepended to" promptTitle="SMS Gateway Email Address" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C16" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17" type="list">
       <formula1>'Analysis Services'!$A$4:$A$140</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17" type="list">
+    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
       <formula1>Constants!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D17" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
       <formula1>'analysis services'</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18:C19" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
       <formula1>Constants!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
       <formula1>Constants!$B$2:$B$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
       <formula1>Constants!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D23" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D24" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
       <formula1>Constants!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C26" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C29" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C30" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23854,7 +23871,7 @@
   </sheetPr>
   <dimension ref="A1:L200"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -23878,28 +23895,28 @@
         <v>122</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
       <c r="F1" s="68" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="G1" s="143" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="H1" s="77" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="I1" s="77" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="J1" s="77" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="K1" s="77" t="s">
         <v>798</v>
@@ -23908,34 +23925,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="2">
       <c r="A2" s="33" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>180</v>
       </c>
       <c r="C2" s="111" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="D2" s="111" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="E2" s="141" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="F2" s="111" t="s">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="G2" s="111" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="111" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="I2" s="111" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="J2" s="111" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="K2" s="111" t="s">
         <v>813</v>
@@ -23943,34 +23960,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
       <c r="A3" s="33" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="B3" s="33" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="111" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="D3" s="111" t="s">
         <v>272</v>
       </c>
       <c r="E3" s="141" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="F3" s="111" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="G3" s="111" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="I3" s="111" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="J3" s="111" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="K3" s="111" t="s">
         <v>820</v>
@@ -23978,19 +23995,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="4">
       <c r="A4" s="33" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="111" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="D4" s="111" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="F4" s="111" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="G4" s="141"/>
       <c r="H4" s="111" t="s">
@@ -24008,10 +24025,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
       <c r="A6" s="33" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="G6" s="141"/>
     </row>
@@ -24026,10 +24043,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="33" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="G8" s="141"/>
     </row>
@@ -24082,39 +24099,39 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="69.8" outlineLevel="0" r="21" s="69">
       <c r="A21" s="68" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="B21" s="77" t="s">
         <v>986</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="D21" s="68" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="E21" s="146" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="G21" s="68" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="H21" s="68" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="I21" s="68" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="147" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="B22" s="111" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="C22" s="111" t="s">
         <v>931</v>
@@ -24123,10 +24140,10 @@
         <v>938</v>
       </c>
       <c r="E22" s="141" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="F22" s="111" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="G22" s="111" t="s">
         <v>707</v>
@@ -24140,19 +24157,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="111" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="C23" s="111" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="D23" s="111" t="s">
         <v>978</v>
       </c>
       <c r="E23" s="141" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="F23" s="111" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="G23" s="111" t="s">
         <v>713</v>
@@ -24161,21 +24178,21 @@
         <v>713</v>
       </c>
       <c r="I23" s="111" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="24">
       <c r="B24" s="111" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D24" s="111" t="s">
         <v>979</v>
       </c>
       <c r="F24" s="111" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G24" s="111" t="s">
         <v>710</v>
@@ -24184,911 +24201,911 @@
         <v>710</v>
       </c>
       <c r="I24" s="111" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="B25" s="111" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="D25" s="111" t="s">
         <v>980</v>
       </c>
       <c r="H25" s="111" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="I25" s="111" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="B26" s="111" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
       <c r="H26" s="111" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="B27" s="111" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="B28" s="111" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="B29" s="111" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="C29" s="111" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="B30" s="111" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="B31" s="111" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="C31" s="111" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="32">
       <c r="B32" s="111" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="33">
       <c r="B33" s="111" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="34">
       <c r="B34" s="111" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="35">
       <c r="B35" s="111" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="36">
       <c r="B36" s="111" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="37">
       <c r="B37" s="111" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="38">
       <c r="B38" s="111" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="39">
       <c r="B39" s="111" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="40">
       <c r="B40" s="111" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="41">
       <c r="B41" s="111" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="42">
       <c r="B42" s="111" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="43">
       <c r="B43" s="111" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="44">
       <c r="B44" s="111" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="45">
       <c r="B45" s="111" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="46">
       <c r="B46" s="111" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="47">
       <c r="B47" s="111" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="48">
       <c r="B48" s="111" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="49">
       <c r="B49" s="111" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="50">
       <c r="B50" s="111" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="51">
       <c r="B51" s="111" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="52">
       <c r="B52" s="111" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="53">
       <c r="B53" s="111" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="54">
       <c r="B54" s="111" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="55">
       <c r="B55" s="111" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="56">
       <c r="B56" s="111" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="57">
       <c r="B57" s="111" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="58">
       <c r="B58" s="111" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="59">
       <c r="B59" s="111" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="60">
       <c r="B60" s="111" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="61">
       <c r="B61" s="111" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="62">
       <c r="B62" s="111" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="63">
       <c r="B63" s="111" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="64">
       <c r="B64" s="111" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="65">
       <c r="B65" s="111" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="66">
       <c r="B66" s="111" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="67">
       <c r="B67" s="111" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="68">
       <c r="B68" s="111" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="69">
       <c r="B69" s="111" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="70">
       <c r="B70" s="111" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="71">
       <c r="B71" s="111" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="72">
       <c r="B72" s="111" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="73">
       <c r="B73" s="111" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="74">
       <c r="B74" s="111" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="75">
       <c r="B75" s="111" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="76">
       <c r="B76" s="111" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="77">
       <c r="B77" s="111" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="78">
       <c r="B78" s="111" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="79">
       <c r="B79" s="111" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="80">
       <c r="B80" s="111" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="81">
       <c r="B81" s="111" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="82">
       <c r="B82" s="111" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="83">
       <c r="B83" s="111" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="84">
       <c r="B84" s="111" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="85">
       <c r="B85" s="111" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="86">
       <c r="B86" s="111" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="87">
       <c r="B87" s="111" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="88">
       <c r="B88" s="111" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="89">
       <c r="B89" s="111" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="90">
       <c r="B90" s="111" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="91">
       <c r="B91" s="111" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="92">
       <c r="B92" s="111" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="93">
       <c r="B93" s="111" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="94">
       <c r="B94" s="111" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="95">
       <c r="B95" s="111" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="96">
       <c r="B96" s="111" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="97">
       <c r="B97" s="111" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="98">
       <c r="B98" s="111" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="99">
       <c r="B99" s="111" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="100">
       <c r="B100" s="111" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="101">
       <c r="B101" s="111" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
       <c r="B102" s="111" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="103">
       <c r="B103" s="111" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="104">
       <c r="B104" s="111" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="105">
       <c r="B105" s="111" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="106">
       <c r="B106" s="111" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="107">
       <c r="B107" s="111" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="108">
       <c r="B108" s="111" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="109">
       <c r="B109" s="111" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="110">
       <c r="B110" s="111" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="111">
       <c r="B111" s="111" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="112">
       <c r="B112" s="111" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="113">
       <c r="B113" s="111" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="114">
       <c r="B114" s="111" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="115">
       <c r="B115" s="111" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="116">
       <c r="B116" s="111" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="117">
       <c r="B117" s="111" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="118">
       <c r="B118" s="111" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="119">
       <c r="B119" s="111" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="120">
       <c r="B120" s="111" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="121">
       <c r="B121" s="111" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="122">
       <c r="B122" s="111" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="123">
       <c r="B123" s="111" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="124">
       <c r="B124" s="111" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="125">
       <c r="B125" s="111" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="126">
       <c r="B126" s="111" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="127">
       <c r="B127" s="111" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="128">
       <c r="B128" s="111" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="129">
       <c r="B129" s="111" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="130">
       <c r="B130" s="111" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="131">
       <c r="B131" s="111" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="132">
       <c r="B132" s="111" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="133">
       <c r="B133" s="111" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="134">
       <c r="B134" s="111" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="135">
       <c r="B135" s="111" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="136">
       <c r="B136" s="111" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="137">
       <c r="B137" s="111" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="138">
       <c r="B138" s="111" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="139">
       <c r="B139" s="111" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="140">
       <c r="B140" s="111" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="141">
       <c r="B141" s="111" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="142">
       <c r="B142" s="111" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="143">
       <c r="B143" s="111" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="144">
       <c r="B144" s="111" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="145">
       <c r="B145" s="111" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="146">
       <c r="B146" s="111" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="147">
       <c r="B147" s="111" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="148">
       <c r="B148" s="111" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="149">
       <c r="B149" s="111" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="150">
       <c r="B150" s="111" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="151">
       <c r="B151" s="111" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="152">
       <c r="B152" s="111" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="153">
       <c r="B153" s="111" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="154">
       <c r="B154" s="111" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="155">
       <c r="B155" s="111" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="156">
       <c r="B156" s="111" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="157">
       <c r="B157" s="111" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="158">
       <c r="B158" s="111" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="159">
       <c r="B159" s="111" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="160">
       <c r="B160" s="111" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="161">
       <c r="B161" s="111" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="162">
       <c r="B162" s="111" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="163">
       <c r="B163" s="111" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="164">
       <c r="B164" s="111" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="165">
       <c r="B165" s="111" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="166">
       <c r="B166" s="111" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="167">
       <c r="B167" s="111" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="168">
       <c r="B168" s="111" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="169">
       <c r="B169" s="111" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="170">
       <c r="B170" s="111" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="171">
       <c r="B171" s="111" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="172">
       <c r="B172" s="111" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="173">
       <c r="B173" s="111" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="174">
       <c r="B174" s="111" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="175">
       <c r="B175" s="111" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="176">
       <c r="B176" s="111" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="177">
       <c r="B177" s="111" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="178">
       <c r="B178" s="111" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="179">
       <c r="B179" s="111" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="180">
       <c r="B180" s="111" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="181">
       <c r="B181" s="111" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="182">
       <c r="B182" s="111" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="183">
       <c r="B183" s="111" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="184">
       <c r="B184" s="111" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="185">
       <c r="B185" s="111" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="186">
       <c r="B186" s="111" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="187">
       <c r="B187" s="111" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="188">
       <c r="B188" s="111" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="189">
       <c r="B189" s="111" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="190">
       <c r="B190" s="111" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="191">
       <c r="B191" s="111" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="192">
       <c r="B192" s="111" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="193">
       <c r="B193" s="111" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="194">
       <c r="B194" s="111" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="195">
       <c r="B195" s="111" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="196">
       <c r="B196" s="111" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="197">
       <c r="B197" s="111" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="198">
@@ -25098,12 +25115,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="199">
       <c r="B199" s="111" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="200">
       <c r="B200" s="111" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
   </sheetData>
@@ -25124,7 +25141,7 @@
   </sheetPr>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25310,7 +25327,7 @@
   </sheetPr>
   <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -25766,7 +25783,7 @@
   </sheetPr>
   <dimension ref="1:13"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -26610,7 +26627,7 @@
   </sheetPr>
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -26703,7 +26720,7 @@
   </sheetPr>
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="23" defaultGridColor="false" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="28" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="953" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="34" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="953" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2943" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1277">
   <si>
     <t>Instructions</t>
   </si>
@@ -3047,6 +3047,9 @@
     <t>Analyses</t>
   </si>
   <si>
+    <t>service</t>
+  </si>
+  <si>
     <t>min</t>
   </si>
   <si>
@@ -3174,9 +3177,6 @@
   </si>
   <si>
     <t>ReferenceDefinition_title</t>
-  </si>
-  <si>
-    <t>service</t>
   </si>
   <si>
     <t>result</t>
@@ -4910,7 +4910,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -4979,7 +4979,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5169,7 +5169,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5278,7 +5278,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5714,7 +5714,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H4" activeCellId="1" pane="topLeft" sqref="V:X H4"/>
+      <selection activeCell="H4" activeCellId="0" pane="topLeft" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -5991,7 +5991,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6063,7 +6063,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6187,7 +6187,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6327,7 +6327,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6557,7 +6557,7 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6835,7 +6835,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -6955,7 +6955,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -7153,7 +7153,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -8395,7 +8395,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -8541,7 +8541,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -8680,7 +8680,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -9670,7 +9670,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -9897,7 +9897,7 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -9999,7 +9999,7 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -10101,7 +10101,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -10238,7 +10238,7 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -10814,8 +10814,8 @@
   </sheetPr>
   <dimension ref="1:27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="I1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="X1" activeCellId="0" pane="topLeft" sqref="V:X"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="I1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="X1" activeCellId="0" pane="topLeft" sqref="X1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -10843,7 +10843,7 @@
     <col collapsed="false" hidden="false" max="1025" min="25" style="28" width="7.3921568627451"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="17">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="34.9" outlineLevel="0" r="1" s="17">
       <c r="A1" s="17" t="s">
         <v>202</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="W4" s="132"/>
       <c r="X4" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="28" t="s">
         <v>815</v>
       </c>
@@ -11265,7 +11265,7 @@
       <c r="W7" s="132"/>
       <c r="X7" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="28" t="s">
         <v>823</v>
       </c>
@@ -11387,7 +11387,7 @@
       <c r="W9" s="132"/>
       <c r="X9" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="28" t="s">
         <v>828</v>
       </c>
@@ -11636,7 +11636,7 @@
       <c r="W13" s="132"/>
       <c r="X13" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
       <c r="A14" s="28" t="s">
         <v>838</v>
       </c>
@@ -11941,7 +11941,7 @@
       <c r="W18" s="132"/>
       <c r="X18" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="19">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="19">
       <c r="A19" s="28" t="s">
         <v>848</v>
       </c>
@@ -12068,7 +12068,7 @@
       <c r="W20" s="132"/>
       <c r="X20" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="21">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="21">
       <c r="A21" s="28" t="s">
         <v>852</v>
       </c>
@@ -12130,7 +12130,7 @@
       <c r="W21" s="132"/>
       <c r="X21" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="22">
       <c r="A22" s="28" t="s">
         <v>855</v>
       </c>
@@ -12192,7 +12192,7 @@
       <c r="W22" s="132"/>
       <c r="X22" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="23">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="23">
       <c r="A23" s="28" t="s">
         <v>857</v>
       </c>
@@ -12316,7 +12316,7 @@
       <c r="W24" s="132"/>
       <c r="X24" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="25">
       <c r="A25" s="28" t="s">
         <v>860</v>
       </c>
@@ -12378,7 +12378,7 @@
       <c r="W25" s="132"/>
       <c r="X25" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="26">
       <c r="A26" s="28" t="s">
         <v>862</v>
       </c>
@@ -12440,7 +12440,7 @@
       <c r="W26" s="132"/>
       <c r="X26" s="132"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="27">
       <c r="A27" s="28" t="s">
         <v>864</v>
       </c>
@@ -12559,10 +12559,6 @@
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R27" type="list">
-      <formula1>'Analysis Service Uncertainties'!$A$4:$A$43</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
     <dataValidation allowBlank="false" error="Select 1 or 0 from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Does this analysis require a separate sample partition?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="V4:V27" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
@@ -12573,6 +12569,10 @@
     </dataValidation>
     <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select a Preservation from the selection list. Maintain the list of valid options on the 'Preservations' sheet." promptTitle="Select a valid Preservation" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="X4:X27" type="list">
       <formula1>Preservations!$A$4:$A$250</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Select a valid instrument from the selection list" errorTitle="Invalid Instrument" operator="equal" prompt="Select an instrument from the selection list. Maintain the list of valid options on the 'Instruments' sheet" promptTitle="Select a valid Instrument" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="R5:R27" type="list">
+      <formula1>'Analysis Service Uncertainties'!$A$4:$A$43</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -12594,7 +12594,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B2" activeCellId="1" pane="topLeft" sqref="V:X B2"/>
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -12996,7 +12996,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -13067,7 +13067,7 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -13275,7 +13275,7 @@
   <dimension ref="1:103"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -14752,7 +14752,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -14887,7 +14887,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -15078,8 +15078,8 @@
   </sheetPr>
   <dimension ref="1:203"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C6" activeCellId="1" pane="topLeft" sqref="V:X C6"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -15090,29 +15090,29 @@
     <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.75294117647059"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="23.55" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
         <v>252</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="C1" s="6" t="n">
-        <v>9</v>
+      <c r="C1" s="6" t="s">
+        <v>910</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="39">
       <c r="A2" s="9" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="C2" s="9"/>
     </row>
@@ -15124,16 +15124,16 @@
         <v>493</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
@@ -18758,7 +18758,7 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -18789,7 +18789,7 @@
         <v>490</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>671</v>
@@ -18802,7 +18802,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="39">
       <c r="A2" s="9" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C2" s="9"/>
       <c r="AMI2" s="53"/>
@@ -18810,7 +18810,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>257</v>
@@ -18825,20 +18825,20 @@
         <v>492</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>671</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="AMI3" s="3"/>
       <c r="AMJ3" s="3"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B4" s="78"/>
       <c r="D4" s="78" t="s">
@@ -18856,7 +18856,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B5" s="78"/>
       <c r="D5" s="78" t="s">
@@ -18920,7 +18920,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -18932,129 +18932,129 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="39">
       <c r="A2" s="9" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="78" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B4" s="78" t="s">
         <v>818</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="78" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>830</v>
       </c>
       <c r="C5" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
       <c r="A6" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B6" s="138" t="s">
         <v>818</v>
       </c>
       <c r="C6" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
       <c r="A7" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B7" s="138" t="s">
         <v>826</v>
       </c>
       <c r="C7" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B8" s="138" t="s">
         <v>828</v>
       </c>
       <c r="C8" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
       <c r="A9" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B9" s="138" t="s">
         <v>830</v>
       </c>
       <c r="C9" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
       <c r="A10" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B10" s="138" t="s">
         <v>832</v>
       </c>
       <c r="C10" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
       <c r="A11" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B11" s="138" t="s">
         <v>842</v>
       </c>
       <c r="C11" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
       <c r="A12" s="78" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B12" s="138" t="s">
         <v>848</v>
       </c>
       <c r="C12" s="78" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
@@ -19097,7 +19097,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -19111,36 +19111,36 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="39">
       <c r="A2" s="9" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
   </sheetData>
@@ -19165,7 +19165,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -19187,47 +19187,47 @@
         <v>422</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="39">
       <c r="A2" s="9" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C2" s="9"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="4">
       <c r="A4" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C4" s="75" t="n">
         <v>0</v>
@@ -19244,10 +19244,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="7" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="C5" s="75" t="n">
         <v>0</v>
@@ -19298,7 +19298,7 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20372,7 +20372,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20387,19 +20387,19 @@
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
       <c r="A1" s="6" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>953</v>
+        <v>910</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>954</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="39">
@@ -20410,24 +20410,24 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="8">
       <c r="A3" s="8" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>956</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="4">
       <c r="A4" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B4" s="138" t="s">
         <v>818</v>
@@ -20445,7 +20445,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
       <c r="A5" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B5" s="138" t="s">
         <v>826</v>
@@ -20463,7 +20463,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="6">
       <c r="A6" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B6" s="138" t="s">
         <v>828</v>
@@ -20481,7 +20481,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="7">
       <c r="A7" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B7" s="138" t="s">
         <v>830</v>
@@ -20499,7 +20499,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="8">
       <c r="A8" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B8" s="138" t="s">
         <v>832</v>
@@ -20517,7 +20517,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="9">
       <c r="A9" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B9" s="138" t="s">
         <v>842</v>
@@ -20535,7 +20535,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="10">
       <c r="A10" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B10" s="138" t="s">
         <v>848</v>
@@ -20553,7 +20553,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="11">
       <c r="A11" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B11" s="138" t="s">
         <v>818</v>
@@ -20570,7 +20570,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="12">
       <c r="A12" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B12" s="138" t="s">
         <v>826</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="13">
       <c r="A13" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B13" s="138" t="s">
         <v>828</v>
@@ -20604,7 +20604,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="14">
       <c r="A14" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B14" s="138" t="s">
         <v>830</v>
@@ -20621,7 +20621,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="15">
       <c r="A15" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B15" s="138" t="s">
         <v>832</v>
@@ -20638,7 +20638,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="16">
       <c r="A16" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B16" s="138" t="s">
         <v>842</v>
@@ -20655,7 +20655,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="17">
       <c r="A17" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B17" s="138" t="s">
         <v>848</v>
@@ -20702,7 +20702,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20776,7 +20776,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20853,7 +20853,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20867,7 +20867,7 @@
         <v>967</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>953</v>
+        <v>910</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17.9" outlineLevel="0" r="2" s="39">
@@ -20881,7 +20881,7 @@
         <v>969</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="4">
@@ -20932,7 +20932,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -20998,10 +20998,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E4" s="78"/>
       <c r="F4" s="78"/>
@@ -21018,7 +21018,7 @@
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F5" s="78"/>
     </row>
@@ -21260,7 +21260,7 @@
       </c>
       <c r="D22" s="78"/>
       <c r="E22" s="78" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F22" s="78"/>
     </row>
@@ -21272,10 +21272,10 @@
         <v>20</v>
       </c>
       <c r="C23" s="78" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D23" s="78" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E23" s="78"/>
       <c r="F23" s="78"/>
@@ -21328,7 +21328,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="1" pane="topLeft" sqref="V:X C9"/>
+      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -21785,7 +21785,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -22047,10 +22047,10 @@
         <v>1078</v>
       </c>
       <c r="C22" s="119" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D22" s="119" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E22" s="148" t="s">
         <v>1079</v>
@@ -23055,7 +23055,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -23241,7 +23241,7 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -23698,7 +23698,7 @@
   <dimension ref="1:13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -24542,7 +24542,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="V:X A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -24635,7 +24635,7 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="V:X A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="34" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="953" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="934" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2944" uniqueCount="1276">
   <si>
     <t>Instructions</t>
   </si>
@@ -368,31 +368,31 @@
     <t>Analysis Request</t>
   </si>
   <si>
-    <t>AR-</t>
+    <t>AR</t>
   </si>
   <si>
     <t>Batch</t>
   </si>
   <si>
-    <t>B-</t>
+    <t>B</t>
   </si>
   <si>
     <t>Sample</t>
   </si>
   <si>
-    <t>S-</t>
+    <t>S</t>
   </si>
   <si>
     <t>Worksheet</t>
   </si>
   <si>
-    <t>WS-</t>
+    <t>WS</t>
   </si>
   <si>
     <t>Invoice</t>
   </si>
   <si>
-    <t>I-</t>
+    <t>I</t>
   </si>
   <si>
     <t>ARImport</t>
@@ -401,7 +401,7 @@
     <t>AR Import</t>
   </si>
   <si>
-    <t>AI-</t>
+    <t>AI</t>
   </si>
   <si>
     <t>ReferenceSample</t>
@@ -410,7 +410,7 @@
     <t>Reference Sample</t>
   </si>
   <si>
-    <t>QC-</t>
+    <t>QC</t>
   </si>
   <si>
     <t>ReferenceAnalysis</t>
@@ -419,7 +419,7 @@
     <t>Reference Analysis</t>
   </si>
   <si>
-    <t>SA-</t>
+    <t>SA</t>
   </si>
   <si>
     <t>DuplicateAnalysis</t>
@@ -428,7 +428,7 @@
     <t>Duplicate Analysis</t>
   </si>
   <si>
-    <t>D-</t>
+    <t>D</t>
   </si>
   <si>
     <t>Field</t>
@@ -3395,84 +3395,87 @@
     <t>Auto label printing workflow step</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>AutoLabelSize</t>
+  </si>
+  <si>
+    <t>Auto label printing size</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>YearInPrefix</t>
+  </si>
+  <si>
+    <t>Must the year be included in sample prefixes?</t>
+  </si>
+  <si>
+    <t>SampleIDPadding</t>
+  </si>
+  <si>
+    <t>Sample id padding</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ARIDPadding</t>
+  </si>
+  <si>
+    <t>Ar id padding</t>
+  </si>
+  <si>
+    <t>ExternalIDServer</t>
+  </si>
+  <si>
+    <t>External id server?</t>
+  </si>
+  <si>
+    <t>IDServerURL</t>
+  </si>
+  <si>
+    <t>Id server url</t>
+  </si>
+  <si>
+    <t>AR Import options</t>
+  </si>
+  <si>
+    <t>Results Attachment option</t>
+  </si>
+  <si>
+    <t>Auto label print size</t>
+  </si>
+  <si>
+    <t>Auto Label Printing</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>Publication Preferences</t>
+  </si>
+  <si>
+    <t>North South</t>
+  </si>
+  <si>
+    <t>East West</t>
+  </si>
+  <si>
+    <t>Analyst</t>
+  </si>
+  <si>
+    <t>Not Permitted</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>receive</t>
   </si>
   <si>
-    <t>AutoLabelSize</t>
-  </si>
-  <si>
-    <t>Auto label printing size</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>YearInPrefix</t>
-  </si>
-  <si>
-    <t>Must the year be included in sample prefixes?</t>
-  </si>
-  <si>
-    <t>SampleIDPadding</t>
-  </si>
-  <si>
-    <t>Sample id padding</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>ARIDPadding</t>
-  </si>
-  <si>
-    <t>Ar id padding</t>
-  </si>
-  <si>
-    <t>ExternalIDServer</t>
-  </si>
-  <si>
-    <t>External id server?</t>
-  </si>
-  <si>
-    <t>IDServerURL</t>
-  </si>
-  <si>
-    <t>Id server url</t>
-  </si>
-  <si>
-    <t>AR Import options</t>
-  </si>
-  <si>
-    <t>Results Attachment option</t>
-  </si>
-  <si>
-    <t>Auto label print size</t>
-  </si>
-  <si>
-    <t>Auto Label Printing</t>
-  </si>
-  <si>
-    <t>Boolean</t>
-  </si>
-  <si>
-    <t>Publication Preferences</t>
-  </si>
-  <si>
-    <t>North South</t>
-  </si>
-  <si>
-    <t>East West</t>
-  </si>
-  <si>
-    <t>Analyst</t>
-  </si>
-  <si>
-    <t>Not Permitted</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
     <t>email</t>
   </si>
   <si>
@@ -3494,9 +3497,6 @@
     <t>pdf</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>W</t>
   </si>
   <si>
@@ -3507,9 +3507,6 @@
   </si>
   <si>
     <t>Required</t>
-  </si>
-  <si>
-    <t>none</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -6954,8 +6951,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -15078,7 +15075,7 @@
   </sheetPr>
   <dimension ref="1:203"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -21328,7 +21325,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
+      <selection activeCell="D30" activeCellId="0" pane="topLeft" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <cols>
@@ -21620,7 +21617,7 @@
         <v>1031</v>
       </c>
       <c r="C26" s="143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
@@ -21853,19 +21850,19 @@
         <v>1051</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>1026</v>
+        <v>1052</v>
       </c>
       <c r="G2" s="119" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="119" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="I2" s="119" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="J2" s="119" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="K2" s="119" t="s">
         <v>813</v>
@@ -21873,13 +21870,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="3">
       <c r="A3" s="34" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>169</v>
       </c>
       <c r="C3" s="119" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="D3" s="119" t="s">
         <v>272</v>
@@ -21888,16 +21885,16 @@
         <v>1029</v>
       </c>
       <c r="F3" s="119" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G3" s="119" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="119" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="I3" s="119" t="s">
-        <v>1059</v>
+        <v>21</v>
       </c>
       <c r="J3" s="119" t="s">
         <v>1060</v>
@@ -21920,7 +21917,7 @@
         <v>1063</v>
       </c>
       <c r="F4" s="119" t="s">
-        <v>1064</v>
+        <v>1026</v>
       </c>
       <c r="G4" s="148"/>
       <c r="H4" s="119" t="s">
@@ -21938,10 +21935,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
       <c r="A6" s="34" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B6" s="34" t="s">
         <v>1065</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>1066</v>
       </c>
       <c r="G6" s="148"/>
     </row>
@@ -21956,10 +21953,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
       <c r="A8" s="34" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B8" s="34" t="s">
         <v>1067</v>
-      </c>
-      <c r="B8" s="34" t="s">
-        <v>1068</v>
       </c>
       <c r="G8" s="148"/>
     </row>
@@ -22012,39 +22009,39 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="69.8" outlineLevel="0" r="21" s="72">
       <c r="A21" s="71" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B21" s="80" t="s">
         <v>988</v>
       </c>
       <c r="C21" s="71" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D21" s="71" t="s">
         <v>1070</v>
       </c>
-      <c r="D21" s="71" t="s">
+      <c r="E21" s="153" t="s">
         <v>1071</v>
       </c>
-      <c r="E21" s="153" t="s">
+      <c r="F21" s="71" t="s">
         <v>1072</v>
       </c>
-      <c r="F21" s="71" t="s">
+      <c r="G21" s="71" t="s">
         <v>1073</v>
       </c>
-      <c r="G21" s="71" t="s">
+      <c r="H21" s="71" t="s">
         <v>1074</v>
       </c>
-      <c r="H21" s="71" t="s">
+      <c r="I21" s="71" t="s">
         <v>1075</v>
-      </c>
-      <c r="I21" s="71" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="22">
       <c r="A22" s="154" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B22" s="119" t="s">
         <v>1077</v>
-      </c>
-      <c r="B22" s="119" t="s">
-        <v>1078</v>
       </c>
       <c r="C22" s="119" t="s">
         <v>933</v>
@@ -22053,10 +22050,10 @@
         <v>940</v>
       </c>
       <c r="E22" s="148" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F22" s="119" t="s">
         <v>1079</v>
-      </c>
-      <c r="F22" s="119" t="s">
-        <v>1080</v>
       </c>
       <c r="G22" s="119" t="s">
         <v>707</v>
@@ -22070,19 +22067,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="119" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C23" s="119" t="s">
         <v>1081</v>
-      </c>
-      <c r="C23" s="119" t="s">
-        <v>1082</v>
       </c>
       <c r="D23" s="119" t="s">
         <v>980</v>
       </c>
       <c r="E23" s="148" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F23" s="119" t="s">
         <v>1083</v>
-      </c>
-      <c r="F23" s="119" t="s">
-        <v>1084</v>
       </c>
       <c r="G23" s="119" t="s">
         <v>713</v>
@@ -22091,21 +22088,21 @@
         <v>713</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="24.5" outlineLevel="0" r="24">
       <c r="B24" s="119" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C24" s="119" t="s">
         <v>1086</v>
-      </c>
-      <c r="C24" s="119" t="s">
-        <v>1087</v>
       </c>
       <c r="D24" s="119" t="s">
         <v>981</v>
       </c>
       <c r="F24" s="119" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="G24" s="119" t="s">
         <v>710</v>
@@ -22114,911 +22111,911 @@
         <v>710</v>
       </c>
       <c r="I24" s="119" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="25">
       <c r="B25" s="119" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C25" s="119" t="s">
         <v>1090</v>
-      </c>
-      <c r="C25" s="119" t="s">
-        <v>1091</v>
       </c>
       <c r="D25" s="119" t="s">
         <v>982</v>
       </c>
       <c r="H25" s="119" t="s">
+        <v>1091</v>
+      </c>
+      <c r="I25" s="119" t="s">
         <v>1092</v>
-      </c>
-      <c r="I25" s="119" t="s">
-        <v>1093</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="26">
       <c r="B26" s="119" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C26" s="119" t="s">
         <v>1094</v>
       </c>
-      <c r="C26" s="119" t="s">
+      <c r="H26" s="119" t="s">
         <v>1095</v>
-      </c>
-      <c r="H26" s="119" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="27">
       <c r="B27" s="119" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C27" s="119" t="s">
         <v>1097</v>
-      </c>
-      <c r="C27" s="119" t="s">
-        <v>1098</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="28">
       <c r="B28" s="119" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C28" s="119" t="s">
         <v>1099</v>
-      </c>
-      <c r="C28" s="119" t="s">
-        <v>1100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="29">
       <c r="B29" s="119" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C29" s="119" t="s">
         <v>1101</v>
-      </c>
-      <c r="C29" s="119" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="30">
       <c r="B30" s="119" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C30" s="119" t="s">
         <v>1103</v>
-      </c>
-      <c r="C30" s="119" t="s">
-        <v>1104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="31">
       <c r="B31" s="119" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C31" s="119" t="s">
         <v>1105</v>
-      </c>
-      <c r="C31" s="119" t="s">
-        <v>1106</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="32">
       <c r="B32" s="119" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C32" s="119" t="s">
         <v>1107</v>
-      </c>
-      <c r="C32" s="119" t="s">
-        <v>1108</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="33">
       <c r="B33" s="119" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C33" s="119" t="s">
         <v>1109</v>
-      </c>
-      <c r="C33" s="119" t="s">
-        <v>1110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="34">
       <c r="B34" s="119" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="35">
       <c r="B35" s="119" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="36">
       <c r="B36" s="119" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="37">
       <c r="B37" s="119" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="38">
       <c r="B38" s="119" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="39">
       <c r="B39" s="119" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="40">
       <c r="B40" s="119" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="41">
       <c r="B41" s="119" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="42">
       <c r="B42" s="119" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="43">
       <c r="B43" s="119" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="44">
       <c r="B44" s="119" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="45">
       <c r="B45" s="119" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="46">
       <c r="B46" s="119" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="47">
       <c r="B47" s="119" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="48">
       <c r="B48" s="119" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="49">
       <c r="B49" s="119" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="50">
       <c r="B50" s="119" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="51">
       <c r="B51" s="119" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="52">
       <c r="B52" s="119" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="53">
       <c r="B53" s="119" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="54">
       <c r="B54" s="119" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="55">
       <c r="B55" s="119" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="56">
       <c r="B56" s="119" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="57">
       <c r="B57" s="119" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="58">
       <c r="B58" s="119" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="59">
       <c r="B59" s="119" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="60">
       <c r="B60" s="119" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="61">
       <c r="B61" s="119" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="62">
       <c r="B62" s="119" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="63">
       <c r="B63" s="119" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="64">
       <c r="B64" s="119" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="65">
       <c r="B65" s="119" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="66">
       <c r="B66" s="119" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="67">
       <c r="B67" s="119" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="68">
       <c r="B68" s="119" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="69">
       <c r="B69" s="119" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="70">
       <c r="B70" s="119" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="71">
       <c r="B71" s="119" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="72">
       <c r="B72" s="119" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="73">
       <c r="B73" s="119" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="74">
       <c r="B74" s="119" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="75">
       <c r="B75" s="119" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="76">
       <c r="B76" s="119" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="77">
       <c r="B77" s="119" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="78">
       <c r="B78" s="119" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="79">
       <c r="B79" s="119" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="80">
       <c r="B80" s="119" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="81">
       <c r="B81" s="119" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="82">
       <c r="B82" s="119" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="83">
       <c r="B83" s="119" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="84">
       <c r="B84" s="119" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="85">
       <c r="B85" s="119" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="86">
       <c r="B86" s="119" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="87">
       <c r="B87" s="119" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="88">
       <c r="B88" s="119" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="89">
       <c r="B89" s="119" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="90">
       <c r="B90" s="119" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="91">
       <c r="B91" s="119" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="92">
       <c r="B92" s="119" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="93">
       <c r="B93" s="119" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="94">
       <c r="B94" s="119" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="95">
       <c r="B95" s="119" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="96">
       <c r="B96" s="119" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="97">
       <c r="B97" s="119" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="98">
       <c r="B98" s="119" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="99">
       <c r="B99" s="119" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="100">
       <c r="B100" s="119" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="101">
       <c r="B101" s="119" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="102">
       <c r="B102" s="119" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="103">
       <c r="B103" s="119" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="104">
       <c r="B104" s="119" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="105">
       <c r="B105" s="119" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="106">
       <c r="B106" s="119" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="107">
       <c r="B107" s="119" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="108">
       <c r="B108" s="119" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="109">
       <c r="B109" s="119" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="110">
       <c r="B110" s="119" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="111">
       <c r="B111" s="119" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="112">
       <c r="B112" s="119" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="113">
       <c r="B113" s="119" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="114">
       <c r="B114" s="119" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="115">
       <c r="B115" s="119" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="116">
       <c r="B116" s="119" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="117">
       <c r="B117" s="119" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="118">
       <c r="B118" s="119" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="119">
       <c r="B119" s="119" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="120">
       <c r="B120" s="119" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="121">
       <c r="B121" s="119" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="122">
       <c r="B122" s="119" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="123">
       <c r="B123" s="119" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="124">
       <c r="B124" s="119" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="125">
       <c r="B125" s="119" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="126">
       <c r="B126" s="119" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="127">
       <c r="B127" s="119" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="128">
       <c r="B128" s="119" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="129">
       <c r="B129" s="119" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="130">
       <c r="B130" s="119" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="131">
       <c r="B131" s="119" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="132">
       <c r="B132" s="119" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="133">
       <c r="B133" s="119" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="134">
       <c r="B134" s="119" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="135">
       <c r="B135" s="119" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="136">
       <c r="B136" s="119" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="137">
       <c r="B137" s="119" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="138">
       <c r="B138" s="119" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="139">
       <c r="B139" s="119" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="140">
       <c r="B140" s="119" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="141">
       <c r="B141" s="119" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="142">
       <c r="B142" s="119" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="143">
       <c r="B143" s="119" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="144">
       <c r="B144" s="119" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="145">
       <c r="B145" s="119" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="146">
       <c r="B146" s="119" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="147">
       <c r="B147" s="119" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="148">
       <c r="B148" s="119" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="149">
       <c r="B149" s="119" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="150">
       <c r="B150" s="119" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="151">
       <c r="B151" s="119" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="152">
       <c r="B152" s="119" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="153">
       <c r="B153" s="119" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="154">
       <c r="B154" s="119" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="155">
       <c r="B155" s="119" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="156">
       <c r="B156" s="119" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="157">
       <c r="B157" s="119" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="158">
       <c r="B158" s="119" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="159">
       <c r="B159" s="119" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="160">
       <c r="B160" s="119" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="161">
       <c r="B161" s="119" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="162">
       <c r="B162" s="119" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="163">
       <c r="B163" s="119" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="164">
       <c r="B164" s="119" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="165">
       <c r="B165" s="119" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="166">
       <c r="B166" s="119" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="167">
       <c r="B167" s="119" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="168">
       <c r="B168" s="119" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="169">
       <c r="B169" s="119" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="170">
       <c r="B170" s="119" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="171">
       <c r="B171" s="119" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="172">
       <c r="B172" s="119" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="173">
       <c r="B173" s="119" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="174">
       <c r="B174" s="119" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="175">
       <c r="B175" s="119" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="176">
       <c r="B176" s="119" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="177">
       <c r="B177" s="119" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="178">
       <c r="B178" s="119" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="179">
       <c r="B179" s="119" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="180">
       <c r="B180" s="119" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="181">
       <c r="B181" s="119" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="182">
       <c r="B182" s="119" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="183">
       <c r="B183" s="119" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="184">
       <c r="B184" s="119" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="185">
       <c r="B185" s="119" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="186">
       <c r="B186" s="119" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="187">
       <c r="B187" s="119" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="188">
       <c r="B188" s="119" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="189">
       <c r="B189" s="119" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="190">
       <c r="B190" s="119" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="191">
       <c r="B191" s="119" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="192">
       <c r="B192" s="119" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="193">
       <c r="B193" s="119" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="194">
       <c r="B194" s="119" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="195">
       <c r="B195" s="119" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="196">
       <c r="B196" s="119" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="197">
       <c r="B197" s="119" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="198">
@@ -23028,12 +23025,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="199">
       <c r="B199" s="119" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="200">
       <c r="B200" s="119" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
   </sheetData>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="46" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="934" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="47" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="934" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -55,6 +55,7 @@
     <sheet name="Setup" sheetId="45" state="visible" r:id="rId46"/>
     <sheet name="Constants" sheetId="46" state="visible" r:id="rId47"/>
     <sheet name="Invoice Batches" sheetId="47" state="visible" r:id="rId48"/>
+    <sheet name="Lab Products" sheetId="48" state="visible" r:id="rId49"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
@@ -196,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2954" uniqueCount="1284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2973" uniqueCount="1296">
   <si>
     <t>Instructions</t>
   </si>
@@ -4048,6 +4049,42 @@
   </si>
   <si>
     <t>September 2012</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>vat</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>Lab Products</t>
+  </si>
+  <si>
+    <t>Appelsuur</t>
+  </si>
+  <si>
+    <t>Byvoegings by Wyn</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Asetaldehied</t>
+  </si>
+  <si>
+    <t>Balling standaard</t>
+  </si>
+  <si>
+    <t>18deg</t>
+  </si>
+  <si>
+    <t>Ballingmeter</t>
+  </si>
+  <si>
+    <t>-5 - +5deg</t>
   </si>
 </sst>
 </file>
@@ -4338,7 +4375,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="153">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
@@ -4757,6 +4794,9 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="168" xfId="0"/>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -4841,9 +4881,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="93.2627450980392"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="118.98431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="93.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="1" width="119.474509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="4">
@@ -4911,13 +4951,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="19.5960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.1647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.49019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="15.8627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="10.678431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="19.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.2588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.51764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="15.9254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="10.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -5101,9 +5141,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="18.9450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.8980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="19.0235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -5210,16 +5250,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.8941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="25.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.49019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="4.50196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="8.40392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="6.5843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="7.27058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="13.7764705882353"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="27" width="6.5843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="7" width="5.62352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="12.9490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="25.2274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="6.51764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="4.51764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="6.61176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="7.29803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="13.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="27" width="6.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="7" width="5.64313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="16">
@@ -5646,14 +5686,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="7" width="12.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="24.1725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="16.1137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="7" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="7.3921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="9.83921568627451"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="7" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="7" width="5.50588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="7" width="12.5647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="24.2745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="16.1764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="7" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="9.88235294117647"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="7" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="7" width="5.52941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -5922,11 +5962,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="18.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="20.9529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.5019607843137"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="27" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="7" width="4.94901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="18.3372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="21.0392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.5686274509804"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="27" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="7" width="4.96862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="16">
@@ -5994,10 +6034,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="15.0509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="54.5333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="24.1725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="27" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="15.1176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="54.7647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="24.2745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="27" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="16">
@@ -6118,9 +6158,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.1372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="16.356862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.2392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="16.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -6258,11 +6298,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.2549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="7" width="9.34901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="14.9529411764706"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="7" width="9.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="7" width="16.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.321568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="7" width="9.38823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="15.0156862745098"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="7" width="9.38823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="7" width="16.321568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -6488,9 +6528,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.2509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="7" width="7.84313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.3450980392157"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="7" width="7.87450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -6766,10 +6806,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.45882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -6887,10 +6927,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="6" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.14509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="4.59607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="7" width="6.55294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="15.3294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="6.17254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="4.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="7" width="6.5843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -7084,18 +7124,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="19.5960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="83" width="23.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="83" width="16.8313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="16.6941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="12.3607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="84" width="22.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="84" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="84" width="11.1137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="85" width="12.0980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="11.043137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="83" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="83" width="19.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="83" width="23.2196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="83" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="83" width="16.756862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="12.4117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="84" width="22.5019607843137"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="84" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="84" width="11.156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="85" width="12.1490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="83" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="83" width="11.0941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="83" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="86">
@@ -8322,15 +8362,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.121568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.878431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.356862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.28627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.48627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -8468,15 +8508,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.356862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.25098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.878431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.356862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.0666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.28627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.1647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.4196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.1803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.48627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -8607,14 +8647,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.1254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2039215686275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.2274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.48627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -9597,18 +9637,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.7686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.7490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.89019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9333333333333"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.9725490196078"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.15686274509804"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="100" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.8235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.0392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.17647058823529"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="100" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.48627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -9824,17 +9864,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9960784313726"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.89019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.9803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.1882352941176"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.9921568627451"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.5725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.1058823529412"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.45882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -9926,10 +9966,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="28.1450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="31.6862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="20.4509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="28.2588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="31.8156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="20.5372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -10028,10 +10068,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="106" width="16.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="106" width="45.443137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="106" width="46"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="106" width="6.15294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="106" width="16.8509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="106" width="45.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="106" width="46.1882352941177"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="106" width="6.18039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="107">
@@ -10165,10 +10205,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="7" width="24.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="6.97647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="7" width="24.3254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="7.0078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="3.24313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -10742,28 +10782,28 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="20.2705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="28.3254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="8.06666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="5.09803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="17.0745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="9.98039215686275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="114" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="7.15686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="5.90980392156863"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="7.4156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="27" width="3.54901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="3.82352941176471"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="27" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="27" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="27" width="13.0862745098039"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="27" width="9.38039215686275"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="27" width="12.9921568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="114" width="11.1019607843137"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="27" width="8.92156862745098"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="27" width="8.09411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="27" width="10.3764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="27" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="20.356862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="28.4392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="8.09411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="5.12156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="114" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="7.1843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="5.93725490196078"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="7.45098039215686"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="27" width="3.56470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="3.83529411764706"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="27" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="27" width="3.24313725490196"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="27" width="13.1372549019608"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="27" width="9.42352941176471"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="27" width="13.043137254902"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="114" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="27" width="8.96470588235294"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="27" width="8.12549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="27" width="10.4196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="27" width="7.45882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="34.9" outlineLevel="0" r="1" s="16">
@@ -12522,9 +12562,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="6" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="32.0549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="17.0313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="6.5843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="6" width="32.1882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="17.1019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="6.61176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -12923,12 +12963,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.2980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="8.36862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="13.8627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="3.22745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="27.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="8.40392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="13.9176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="3.24313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -12994,12 +13034,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="11.2745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="125" width="8.25490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="13.8666666666667"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="27" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="7" width="4.94901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="125" width="8.29019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="13.9254901960784"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="27" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="7" width="4.96862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="16">
@@ -13202,12 +13242,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="35"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="9.13725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.45098039215686"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="27" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="1023" min="998" style="7" width="4.94901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="4.94901960784314"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="35.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="27" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.48627450980392"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="27" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1023" min="998" style="7" width="4.96862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="4.96862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="16">
@@ -14679,13 +14719,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="16.4588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="14.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="26.3450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.6078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.3176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="5.32156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="40" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="16.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="14.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="26.4549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.6509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.3607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="5.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="40" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="43">
@@ -14814,10 +14854,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="21.6549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="26.8627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="40" width="28.4196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="40" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="21.7490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="26.9764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="40" width="28.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="40" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="43">
@@ -15006,11 +15046,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="5.37254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.4627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="7" width="9.78823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="11.0156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="19.5411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="7" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="23.55" outlineLevel="0" r="1" s="6">
@@ -18650,7 +18690,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E203" type="decimal">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Value must be between 0 and 100" errorTitle="Invalid entry" operator="between" prompt="Value must be between 0 and 100" promptTitle="Enter a percentage" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F203" type="decimal">
@@ -18683,14 +18723,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.5176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.0666666666667"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="14.0392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="12.8862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="24.6156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="15.3294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="7" width="12.9450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -18845,10 +18885,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.2078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.3607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="15.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="13.2588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="15.4235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -19022,12 +19062,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="14.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.0392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.9411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="17.9647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="14.4980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="12.0901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="13.5607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="18.0352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -19090,11 +19130,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="18.1725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.8549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="10.0313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="7" width="11.043137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="18.2509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.9450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="7" width="10.0745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="7" width="11.0941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -19223,21 +19263,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="4.36078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="6.93333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="9.83921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="16.721568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="14.8078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="9.49411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="12.4039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="8.89019607843137"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="27" width="14.8078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="11.6392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="10.0980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="27" width="29.1921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="27" width="14.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="4.38039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="6.96470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="9.88235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="27" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="27" width="9.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="12.4549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="27" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="27" width="8.92941176470588"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="27" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="11.6901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="27" width="29.3137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="27" width="14.8705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="1" s="16">
@@ -20297,13 +20337,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="30.1333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="5.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="18.2274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="30.2627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="5.85882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="7" width="18.3019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -20627,9 +20667,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="20.1137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.1764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="20.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="38.3372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -20701,10 +20741,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.0901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="20.2235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="16.156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="20.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -20778,9 +20818,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="16.878431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="16.9529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -20857,12 +20897,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.1647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.2901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.6039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="10.4196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="22.2588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="15.3529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="10.6470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="7" width="10.4627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="7" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -21254,12 +21294,12 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="6" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="26.3529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="112" width="6.59607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="23.5843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="20.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="7" width="5.78039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="7" width="4.94901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="26.4588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="112" width="6.62745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="23.678431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="7" width="20.2705882352941"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="7" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="7" width="4.96862745098039"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -21710,15 +21750,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="111" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="111" width="8.66274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="111" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="140" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="111" width="8.39607843137255"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="111" width="7.82352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="111" width="6.59607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="111" width="9.90980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="111" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="111" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="111" width="8.69803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="111" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="140" width="7.01960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="111" width="8.43137254901961"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="111" width="7.85098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="111" width="6.62745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="111" width="9.95294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="111" width="8.13333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="68">
@@ -22975,75 +23015,207 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="C2" activeCellId="0" pane="topLeft" sqref="C2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="147" width="27.2509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="18.3372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="18.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="40" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="147" width="27.3647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="18.3058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="40" width="9.22352941176471"/>
+  </cols>
+  <sheetData>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="1">
+      <c r="A1" s="147" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="2" s="149">
+      <c r="A2" s="148" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="25.35" outlineLevel="0" r="3" s="53">
+      <c r="A3" s="150" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="53" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="4">
+      <c r="A4" s="147" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B4" s="151" t="n">
+        <v>41091</v>
+      </c>
+      <c r="C4" s="151" t="n">
+        <v>41121</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="147" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B5" s="151" t="n">
+        <v>41122</v>
+      </c>
+      <c r="C5" s="151" t="n">
+        <v>41152</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="147" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B6" s="151" t="n">
+        <v>41153</v>
+      </c>
+      <c r="C6" s="151" t="n">
+        <v>41182</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="F8" activeCellId="0" pane="topLeft" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="19.5843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="27.9725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="40" width="9.18039215686274"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="40" t="s">
         <v>202</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>1276</v>
+        <v>203</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="2" s="149">
-      <c r="A2" s="148" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="25.35" outlineLevel="0" r="3" s="53">
-      <c r="A3" s="150" t="s">
+        <v>1284</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>755</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="38.05" outlineLevel="0" r="2" s="152">
+      <c r="A2" s="152" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="23.85" outlineLevel="0" r="3" s="53">
+      <c r="A3" s="53" t="s">
         <v>206</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>1279</v>
-      </c>
-      <c r="C3" s="53" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="147" t="s">
-        <v>1281</v>
-      </c>
-      <c r="B4" s="151" t="n">
-        <v>41091</v>
-      </c>
-      <c r="C4" s="151" t="n">
-        <v>41121</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
-      <c r="A5" s="147" t="s">
-        <v>1282</v>
-      </c>
-      <c r="B5" s="151" t="n">
-        <v>41122</v>
-      </c>
-      <c r="C5" s="151" t="n">
-        <v>41152</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="147" t="s">
-        <v>1283</v>
-      </c>
-      <c r="B6" s="151" t="n">
-        <v>41153</v>
-      </c>
-      <c r="C6" s="151" t="n">
-        <v>41182</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="4">
+      <c r="A4" s="40" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B4" s="40" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C4" s="40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E4" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F4" s="40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="5">
+      <c r="A5" s="40" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C5" s="40" t="n">
+        <v>500</v>
+      </c>
+      <c r="D5" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="E5" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" s="40" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="6">
+      <c r="A6" s="40" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C6" s="40" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="E6" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F6" s="40" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.65" outlineLevel="0" r="7">
+      <c r="A7" s="40" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B7" s="40" t="s">
+        <v>1295</v>
+      </c>
+      <c r="E7" s="40" t="n">
+        <v>14</v>
+      </c>
+      <c r="F7" s="40" t="n">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -23069,11 +23241,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.8313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.556862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.5176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="11.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="22.356862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="7" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="7" width="11.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">
@@ -23255,29 +23427,29 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="15.6823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.40392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="41" width="7.97254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="12.1254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="19.5686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="8.88627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="40" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="40" width="8.49019607843137"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="40" width="8.49019607843137"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="40" width="7.29411764705882"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="40" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="40" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="40" width="7.82352941176471"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="40" width="8.61960784313725"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="40" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="40" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="42" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="40" width="7.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="15.7490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="41" width="8.00392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="40" width="12.1764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="19.6470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="8.92156862745098"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="40" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="40" width="8.52549019607843"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="40" width="8.52549019607843"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="40" width="7.32941176470588"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="40" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="40" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="40" width="7.85098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="40" width="8.65490196078431"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="40" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="40" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="42" width="11.0627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="40" width="7.45882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="43">
@@ -23711,20 +23883,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="6.76078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="8.55294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.4078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="27" width="10.0549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="11.2745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="10.2901960784314"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="27" width="8.36862745098039"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="16.2549019607843"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="12.1254901960784"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="27" width="12.4549019607843"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="27" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="27" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="27" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="27" width="11.0156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="27" width="6.7921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="27" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="27" width="9.45098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="27" width="10.0980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="27" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="27" width="10.3333333333333"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="27" width="8.40392156862745"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="27" width="16.321568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="27" width="12.1764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="27" width="12.5058823529412"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="27" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="27" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="27" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="16">
@@ -24555,9 +24727,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="18.721568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="17.956862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="18.7960784313725"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="6">
@@ -24648,10 +24820,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="18.5725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.356862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="13.6666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="7" width="18.6509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="7" width="14.4117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="7" width="13.7254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="7" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="6">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="742" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="32" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="742" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -85,14 +85,14 @@
               <xdr:from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>24</xdr:rowOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>32</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>10</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>14</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>15</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -220,15 +220,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>26</xdr:colOff>
+                <xdr:colOff>25</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>41</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>3</xdr:rowOff>
+                <xdr:colOff>39</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>8</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -267,13 +267,13 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>18</xdr:rowOff>
+                <xdr:rowOff>6</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>3</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
                 <xdr:row>7</xdr:row>
-                <xdr:rowOff>7</xdr:rowOff>
+                <xdr:rowOff>4</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -4918,11 +4918,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.56470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="60.556862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.043137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="8.41176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="7.23529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="3.57647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="60.8078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="11.0941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="2" width="8.44705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="7.26274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="6">
@@ -5012,10 +5012,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="23.4196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="18.1137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="10" width="17.2392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="23.521568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="18.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="10" width="17.3098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -5348,13 +5348,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="24.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="27.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="8.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="20"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="11.1372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="13.4666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="24.8117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="28.0745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="20.0862745098039"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="11.1882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="13.5254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -5538,9 +5538,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="14.9372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.8941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="15"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.9921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -5647,16 +5647,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="16.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="31.6862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="8.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="5.67058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.6"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="9.17254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="17.3764705882353"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="40" width="8.30196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="7.09019607843137"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="16.3294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="31.8156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="5.69411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="10.643137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="8.34117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="9.2156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="17.4470588235294"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="40" width="8.34117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="7.12156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="29">
@@ -6083,14 +6083,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="10" width="15.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="30.4823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="20.3294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="21.5254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="9.32941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="12.4039215686275"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="10" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="10" width="6.94901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="10" width="15.8470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="30.6039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="20.4156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="21.6117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="9.36470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="12.4549019607843"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="10" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="10" width="6.97647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -6359,11 +6359,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="23.0392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="26.4235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="19.5490196078431"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="40" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="10" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="23.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="26.5333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="19.6352941176471"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="40" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="10" width="6.26666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="29">
@@ -6431,10 +6431,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="18.9803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="68.7764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="30.4823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="40" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="19.0588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="69.0627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="30.6039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="40" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="29">
@@ -6555,9 +6555,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="30.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="20.6313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="30.5607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="20.7176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -6695,11 +6695,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="20.5098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="10" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="18.8509803921569"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="10" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="10" width="20.5098039215686"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="20.5960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="10" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="18.9294117647059"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="10" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="10" width="20.5960784313725"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -6925,9 +6925,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="28.0588235294118"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="10" width="9.89019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="28.1725490196078"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="10" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -7198,18 +7198,18 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="D23" activeCellId="0" pane="topLeft" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="9" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="33.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="8.32549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="29.7450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="25.4627450980392"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="10" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="33.3725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="8.36078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="29.8666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="25.5647058823529"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="10" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="10" width="6.26666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -7638,10 +7638,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.5882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.9490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.36470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="26.6980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.0941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -7758,18 +7758,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="96" width="24.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="96" width="29.1725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="96" width="21.2274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="96" width="21.0549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="96" width="15.5960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="97" width="28.2745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="97" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="97" width="14.0196078431373"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="98" width="15.2588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="96" width="9.4"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="96" width="13.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="96" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="96" width="24.8117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="96" width="29.2941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="96" width="21.3137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="96" width="21.1450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="96" width="15.6627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="97" width="28.3882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="97" width="13.7176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="97" width="14.0745098039216"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="98" width="15.3254901960784"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="96" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="96" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="96" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.4" outlineLevel="0" r="1" s="99">
@@ -8996,15 +8996,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.4039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.43529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="99">
@@ -9142,15 +9142,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.321568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2823529411765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.6313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.4039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.6078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.3686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="20.7176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="35.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="9.43529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="99">
@@ -9281,14 +9281,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.4235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.4"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.0941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.6862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5137254901961"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.9921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="31.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="9.43529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -10271,18 +10271,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.556862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.3803921568627"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.4"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.4901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.8823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.50588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="113" width="9.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.4745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.521568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="18.9607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.53333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="113" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.43529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="99">
@@ -10498,17 +10498,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1058823529412"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.0470588235294"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="9.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.36470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7960784313725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.521568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.8980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.3843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1607843137255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.1921568627451"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="9.4"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="99">
@@ -10600,10 +10600,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="35.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="39.9647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="10" width="25.7921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="35.6392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="40.1294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="10" width="25.9019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -10702,27 +10702,27 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="25.5803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="35.7254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="6.43921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="21.5254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="12.6"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="119" width="12.3686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="9.02745098039216"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="9.34901960784314"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="40" width="4.47450980392157"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="4.82745098039216"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="7.83921568627451"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="40" width="4.06666666666667"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="40" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="40" width="11.8313725490196"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="40" width="16.3843137254902"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="119" width="13.9960784313726"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="40" width="11.2509803921569"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="40" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="23" style="40" width="9.36470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="25.6862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="35.8745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="6.46274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="21.6117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="12.6509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="119" width="12.4196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="9.06274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="29" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="9.38823529411765"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="40" width="4.49019607843137"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="4.84705882352941"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="7.87450980392157"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="40" width="4.07843137254902"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="40" width="16.5725490196078"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="40" width="11.8823529411765"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="40" width="16.4509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="119" width="14.0549019607843"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="40" width="11.2941176470588"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="40" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="23" style="40" width="9.4"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="29">
@@ -12341,12 +12341,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="34.4274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.8196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.556862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="17.4823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="4.06666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="34.5725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="10.8627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="10.6039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="17.5529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="4.07843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -12413,10 +12413,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="9" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="19.2549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="7.74509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="5.7921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="10" width="8.26666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="19.3333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="7.78039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="5.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="10" width="8.30196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -12610,12 +12610,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="12.9019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="14.2117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="130" width="10.4117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="17.4901960784314"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="40" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="10" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="12.956862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="14.2705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="130" width="10.4549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="17.5607843137255"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="40" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="10" width="6.26666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="29">
@@ -12818,12 +12818,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="44.1450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="11.5254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.9176470588235"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="40" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1023" min="998" style="10" width="6.23921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="44.3294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="40" width="11.5725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.9686274509804"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="40" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="1023" min="998" style="10" width="6.26666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="6.26666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="29">
@@ -14295,10 +14295,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="132" width="21.1686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="132" width="57.3176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="132" width="58.0196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="132" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="132" width="21.2549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="132" width="57.5529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="132" width="58.2627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="132" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="14.15" outlineLevel="0" r="1" s="133">
@@ -14425,17 +14425,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A17" activeCellId="0" pane="topLeft" sqref="A17"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="C34" activeCellId="0" pane="topLeft" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="10" width="30.5490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="8.8"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="4.06666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="10" width="30.678431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="8.84313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="4.07843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -14497,11 +14497,14 @@
       <c r="D4" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>929</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="5">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="5">
       <c r="A5" s="88" t="s">
         <v>553</v>
       </c>
@@ -14514,9 +14517,11 @@
       <c r="D5" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="137"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6">
+      <c r="E5" s="137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="88" t="s">
         <v>848</v>
       </c>
@@ -14529,11 +14534,14 @@
       <c r="D6" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45" t="s">
         <v>934</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="88" t="s">
         <v>848</v>
       </c>
@@ -14546,12 +14554,14 @@
       <c r="D7" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F7" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="88" t="s">
         <v>848</v>
       </c>
@@ -14564,12 +14574,14 @@
       <c r="D8" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F8" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
       <c r="A9" s="88" t="s">
         <v>910</v>
       </c>
@@ -14582,12 +14594,14 @@
       <c r="D9" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F9" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="10">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
       <c r="A10" s="88" t="s">
         <v>910</v>
       </c>
@@ -14600,12 +14614,14 @@
       <c r="D10" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="137" t="s">
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F10" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="11">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
       <c r="A11" s="88" t="s">
         <v>910</v>
       </c>
@@ -14618,12 +14634,14 @@
       <c r="D11" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F11" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="12">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="12">
       <c r="A12" s="88" t="s">
         <v>913</v>
       </c>
@@ -14636,12 +14654,14 @@
       <c r="D12" s="11" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F12" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="13">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
       <c r="A13" s="88" t="s">
         <v>913</v>
       </c>
@@ -14651,15 +14671,18 @@
       <c r="C13" s="45" t="s">
         <v>936</v>
       </c>
-      <c r="D13" s="45" t="n">
+      <c r="D13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F13" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="14">
+      <c r="G13" s="45"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
       <c r="A14" s="88" t="s">
         <v>913</v>
       </c>
@@ -14669,15 +14692,18 @@
       <c r="C14" s="45" t="s">
         <v>938</v>
       </c>
-      <c r="D14" s="45" t="n">
+      <c r="D14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F14" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="15">
+      <c r="G14" s="45"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="15">
       <c r="A15" s="88" t="s">
         <v>916</v>
       </c>
@@ -14687,15 +14713,18 @@
       <c r="C15" s="45" t="s">
         <v>940</v>
       </c>
-      <c r="D15" s="45" t="n">
+      <c r="D15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E15" s="45" t="s">
+      <c r="E15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F15" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="16">
+      <c r="G15" s="45"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="16">
       <c r="A16" s="88" t="s">
         <v>916</v>
       </c>
@@ -14705,15 +14734,18 @@
       <c r="C16" s="45" t="s">
         <v>936</v>
       </c>
-      <c r="D16" s="45" t="n">
+      <c r="D16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F16" s="45"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="17">
+      <c r="G16" s="45"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="17">
       <c r="A17" s="88" t="s">
         <v>916</v>
       </c>
@@ -14723,13 +14755,16 @@
       <c r="C17" s="45" t="s">
         <v>938</v>
       </c>
-      <c r="D17" s="45" t="n">
+      <c r="D17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="45" t="s">
         <v>934</v>
       </c>
-      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="18">
       <c r="A18" s="88"/>
@@ -15009,13 +15044,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="20.7607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="17.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="33.2313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="14.643137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="13.0156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="53" width="6.71372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="53" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="20.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="17.9686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="53" width="33.3647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="53" width="14.7058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="13.0705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="53" width="6.74117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="53" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="56">
@@ -15144,10 +15179,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="27.3137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="33.8745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="53" width="35.8313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="53" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="27.4274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="34.0117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="53" width="35.9764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="53" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="56">
@@ -15336,11 +15371,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="6.77647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="13.8313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="24.5450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="4" style="10" width="12.3411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="6.80392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="24.6470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="10" width="12.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -18976,7 +19011,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E4:E203" type="decimal">
-      <formula1>#REF!</formula1>
+      <formula1>#ref!</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Value must be between 0 and 100" errorTitle="Invalid entry" operator="between" prompt="Value must be between 0 and 100" promptTitle="Enter a percentage" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F203" type="decimal">
@@ -19013,14 +19048,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="30.9294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="13.2823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.2235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="19.2666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="17.7137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="16.2549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="31.0588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.2901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="19.3450980392157"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="17.7843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="10" width="16.321568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -19175,10 +19210,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="19.4745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="16.6588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="19.3686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="19.556862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="16.7294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="19.4470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -19352,12 +19387,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="18.2078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="15.1803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="17.0235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="22.6509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="18.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="15.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="15.121568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="17.0941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="22.7450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -19421,9 +19456,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="9" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="40.4235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="21.4901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="8.30196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="9" width="40.5960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="21.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="8.34117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -19822,11 +19857,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="22.9176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="28.8274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="10" width="12.6509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="13.9333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="23.0117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="28.9490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="10" width="12.7058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -19955,13 +19990,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="21.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="7.35686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="7.28627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="22.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="21.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="7.3843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="7.31372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="10" width="23.0745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -20285,9 +20320,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="25.3686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="48.1529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="25.4705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="48.3529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -20359,10 +20394,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="20.3019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="25.5058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="18.3843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="20.3882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="25.6156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="18.4588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -20436,9 +20471,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="22.1647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="21.2980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="22.2588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="21.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -20515,12 +20550,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="27.9607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="19.2745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.3725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="13.1372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="28.0745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="19.3529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="10" width="13.1960784313725"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="10" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -20911,15 +20946,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="10.921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="16" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="143" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="16" width="9.85882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="8.32549019607843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="16" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="16" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="16" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="16" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="143" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="16" width="10.6352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="16" width="9.89411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="16" width="8.36078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="16" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="16" width="10.2705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="81">
@@ -22181,21 +22216,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="5.50588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.74117647058823"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.4039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="21.0901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="18.6745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="11.9843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="13.2823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="12.843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="11.2156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="40" width="18.6745098039216"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="14.678431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="12.7372549019608"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="40" width="36.8235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="40" width="18.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="5.52941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="12.4549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="21.1764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="40" width="18.7529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="40" width="12.0313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="40" width="12.8941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="40" width="11.2588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="40" width="18.7529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="14.7450980392157"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="12.7921568627451"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="40" width="36.9725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="40" width="18.7529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="29">
@@ -23255,11 +23290,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="14.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="28.0823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="18.356862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="14.9882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="28.1960784313725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="10" width="18.4274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">
@@ -23441,29 +23476,29 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="19.7764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="10.6"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="54" width="10.0549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="13.5529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="15.2941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="53" width="24.6823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="53" width="14.3921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="53" width="11.2078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="53" width="12.2196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="53" width="10.7058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="53" width="14.3921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="53" width="12.8705882352941"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="53" width="9.70980392156863"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="53" width="10.7058823529412"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="53" width="9.1921568627451"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="53" width="12.8705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="53" width="13.0588235294118"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="53" width="9.85882352941177"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="53" width="10.8705882352941"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="53" width="9.36470588235294"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="53" width="13.0588235294118"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="55" width="13.8980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="53" width="9.36470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="53" width="19.8549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="53" width="10.643137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="54" width="10.0980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="53" width="13.6117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="53" width="15.3607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="53" width="24.7882352941176"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="53" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="53" width="11.2509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="53" width="12.2705882352941"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="53" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="53" width="14.4509803921569"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="53" width="12.921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="53" width="9.74509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="53" width="10.7490196078431"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="53" width="9.22745098039216"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="53" width="12.921568627451"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="53" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="53" width="9.89411764705882"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="53" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="53" width="9.4"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="53" width="13.1137254901961"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="55" width="13.9529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="53" width="9.4"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="56">
@@ -23897,20 +23932,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="13.8313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.52549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="10.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="40" width="12.678431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="14.2117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="12.9803921568627"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="40" width="10.556862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="20.5098039215686"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="15.2941176470588"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="15.7058823529412"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="40" width="9.4"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="40" width="11.1372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="40" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="40" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="40" width="8.56078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="40" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="40" width="11.9176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="40" width="12.7372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="40" width="14.2705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="40" width="13.0352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="40" width="10.6039215686275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="40" width="20.5960784313725"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="40" width="15.3607843137255"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="40" width="15.7686274509804"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="40" width="9.43529411764706"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="40" width="11.1882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="40" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="29">
@@ -24741,9 +24776,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="22.5607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.6117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.28627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="22.6509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="23.7058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="10" width="7.31372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="9">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -864,10 +864,10 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>priority_norm.png</t>
-  </si>
-  <si>
-    <t>priority_norm_big.png</t>
+    <t>priority_normal.png</t>
+  </si>
+  <si>
+    <t>priority_normal_big.png</t>
   </si>
   <si>
     <t>High</t>
@@ -5263,7 +5263,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="2" s="3">
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -21731,7 +21731,7 @@
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5060728744939"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6113360323887"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2672064777328"/>
-    <col collapsed="false" hidden="false" max="12" min="11" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7408906882591"/>
     <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1821862348178"/>
     <col collapsed="false" hidden="false" max="16" min="15" style="0" width="29.4372469635628"/>
@@ -26931,16 +26931,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="G7" activeCellId="0" pane="topLeft" sqref="G7"/>
+      <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.5748987854251"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.93927125506073"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1052631578947"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.66396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3117408906883"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5546558704453"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5101214574899"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.1417004048583"/>
   </cols>
   <sheetData>
@@ -27064,7 +27065,7 @@
         <v>231</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
       <c r="A7" s="38" t="s">
         <v>232</v>
       </c>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -182,7 +182,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3551" uniqueCount="1396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1396">
   <si>
     <t>Instructions</t>
   </si>
@@ -4918,10 +4918,6 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -4984,6 +4980,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
+      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
@@ -5821,66 +5821,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:14"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D14" activeCellId="0" pane="topLeft" sqref="D14"/>
+      <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.06882591093117"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.48582995951417"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="6.69230769230769"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8097165991903"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.86234817813765"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.37651821862348"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.2753036437247"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.89878542510122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.41295546558704"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="23.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.06882591093117"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.48582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8097165991903"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.86234817813765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.37651821862348"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.2753036437247"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.89878542510122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.41295546558704"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7368421052632"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1" s="5">
-      <c r="A1" s="5" t="s">
-        <v>275</v>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.3" outlineLevel="0" r="1" s="5">
+      <c r="A1" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="B1" s="65" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="C1" s="65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D1" s="65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E1" s="65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F1" s="65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G1" s="65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H1" s="65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I1" s="65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J1" s="65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K1" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="L1" s="65" t="s">
         <v>393</v>
       </c>
+      <c r="L1" s="65"/>
       <c r="M1" s="65"/>
       <c r="N1" s="65"/>
       <c r="O1" s="65"/>
@@ -5890,7 +5887,7 @@
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="2" s="6">
@@ -5917,46 +5914,44 @@
       <c r="S2" s="65"/>
       <c r="T2" s="65"/>
       <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
+      <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3" s="5">
-      <c r="A3" s="5" t="s">
-        <v>275</v>
+      <c r="A3" s="65" t="s">
+        <v>135</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>135</v>
+        <v>384</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D3" s="65" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F3" s="65" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H3" s="65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I3" s="65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J3" s="65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K3" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="L3" s="65" t="s">
         <v>393</v>
       </c>
+      <c r="L3" s="65"/>
       <c r="M3" s="65"/>
       <c r="N3" s="65"/>
       <c r="O3" s="65"/>
@@ -5966,84 +5961,45 @@
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
       <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
+      <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
-      <c r="A4" s="66" t="s">
-        <v>247</v>
+      <c r="A4" s="65" t="s">
+        <v>395</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G4" s="65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H4" s="65" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I4" s="65" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J4" s="65" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K4" s="65" t="s">
-        <v>404</v>
-      </c>
-      <c r="L4" s="65" t="s">
         <v>405</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
-      <c r="A5" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
-      <c r="A6" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
-      <c r="A7" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
-      <c r="A8" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
-      <c r="A9" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="10">
-      <c r="A10" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="11">
-      <c r="A11" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="12">
-      <c r="A12" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="13">
-      <c r="A13" s="66"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="14">
-      <c r="A14" s="66"/>
-    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="false" error="Select a valid entry from the drop-down  list of all clients listed on the Clients sheet" errorTitle="Invalid entry" operator="equal" prompt="Select a Client if it is a specific client's private sampling point not available to others. Leave blank if it is a general sampling point that can be used by all clients.  The options on the drop-down list of all clients are maintained on the Clients sheet." promptTitle="Select a valid Client if required" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A14" type="list">
-      <formula1>Clients!$A$4:$A$181</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
@@ -6100,27 +6056,27 @@
       <c r="A2" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="66" t="s">
         <v>411</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="68">
-      <c r="A3" s="68" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="67">
+      <c r="A3" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>406</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>412</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6131,126 +6087,126 @@
       <c r="B4" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="69" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="71" t="n">
+      <c r="E4" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F4" s="70"/>
+      <c r="F4" s="69"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="71" t="s">
         <v>417</v>
       </c>
-      <c r="B5" s="72" t="s">
+      <c r="B5" s="71" t="s">
         <v>418</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="D5" s="73" t="s">
+      <c r="D5" s="72" t="s">
         <v>358</v>
       </c>
-      <c r="E5" s="71" t="n">
+      <c r="E5" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F5" s="70"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6" s="71">
-      <c r="A6" s="72" t="s">
+      <c r="F5" s="69"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="6" s="70">
+      <c r="A6" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="71" t="s">
         <v>420</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="68" t="s">
         <v>419</v>
       </c>
-      <c r="D6" s="74" t="s">
+      <c r="D6" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="E6" s="71" t="n">
+      <c r="E6" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F6" s="75"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7" s="71">
-      <c r="A7" s="72" t="s">
+      <c r="F6" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="7" s="70">
+      <c r="A7" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="72" t="s">
+      <c r="B7" s="71" t="s">
         <v>421</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="68" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="74" t="s">
+      <c r="D7" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="E7" s="71" t="n">
+      <c r="E7" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F7" s="75"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8" s="71">
-      <c r="A8" s="72" t="s">
+      <c r="F7" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="8" s="70">
+      <c r="A8" s="71" t="s">
         <v>423</v>
       </c>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="71" t="s">
         <v>424</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="D8" s="74" t="s">
+      <c r="D8" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="E8" s="71" t="n">
+      <c r="E8" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F8" s="75"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9" s="71">
-      <c r="A9" s="72" t="s">
+      <c r="F8" s="74"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.2" outlineLevel="0" r="9" s="70">
+      <c r="A9" s="71" t="s">
         <v>425</v>
       </c>
-      <c r="B9" s="72" t="s">
+      <c r="B9" s="71" t="s">
         <v>426</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="68" t="s">
         <v>416</v>
       </c>
-      <c r="D9" s="74" t="s">
+      <c r="D9" s="73" t="s">
         <v>358</v>
       </c>
-      <c r="E9" s="71" t="n">
+      <c r="E9" s="70" t="n">
         <v>1</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="74" t="s">
         <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="70" t="s">
         <v>427</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="70" t="s">
         <v>369</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="70" t="s">
         <v>428</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="73" t="s">
         <v>368</v>
       </c>
-      <c r="E10" s="71" t="n">
+      <c r="E10" s="70" t="n">
         <v>0</v>
       </c>
-      <c r="F10" s="70"/>
+      <c r="F10" s="69"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -6446,31 +6402,31 @@
         <v>444</v>
       </c>
       <c r="C2" s="7"/>
-      <c r="F2" s="76"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.55" outlineLevel="0" r="3" s="77">
-      <c r="A3" s="77" t="s">
+      <c r="F2" s="75"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="36.55" outlineLevel="0" r="3" s="76">
+      <c r="A3" s="76" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="76" t="s">
         <v>445</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="76" t="s">
         <v>441</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="76" t="s">
         <v>446</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>447</v>
       </c>
-      <c r="H3" s="77" t="s">
+      <c r="H3" s="76" t="s">
         <v>448</v>
       </c>
     </row>
@@ -6481,22 +6437,22 @@
       <c r="B4" s="63" t="s">
         <v>450</v>
       </c>
-      <c r="C4" s="79" t="n">
+      <c r="C4" s="78" t="n">
         <v>10</v>
       </c>
       <c r="D4" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="68" t="s">
         <v>430</v>
       </c>
       <c r="F4" s="63" t="s">
         <v>451</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="79" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6507,22 +6463,22 @@
       <c r="B5" s="63" t="s">
         <v>454</v>
       </c>
-      <c r="C5" s="79" t="n">
+      <c r="C5" s="78" t="n">
         <v>10</v>
       </c>
       <c r="D5" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F5" s="63" t="s">
         <v>455</v>
       </c>
-      <c r="G5" s="80" t="s">
+      <c r="G5" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H5" s="80" t="s">
+      <c r="H5" s="79" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6533,22 +6489,22 @@
       <c r="B6" s="63" t="s">
         <v>457</v>
       </c>
-      <c r="C6" s="81" t="n">
+      <c r="C6" s="80" t="n">
         <v>10</v>
       </c>
       <c r="D6" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E6" s="69" t="s">
+      <c r="E6" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F6" s="63" t="s">
         <v>458</v>
       </c>
-      <c r="G6" s="80" t="s">
+      <c r="G6" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H6" s="69" t="s">
+      <c r="H6" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6559,22 +6515,22 @@
       <c r="B7" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="C7" s="81" t="n">
+      <c r="C7" s="80" t="n">
         <v>10</v>
       </c>
       <c r="D7" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>461</v>
       </c>
-      <c r="G7" s="80" t="s">
+      <c r="G7" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H7" s="69" t="s">
+      <c r="H7" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6585,22 +6541,22 @@
       <c r="B8" s="61" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="82" t="n">
+      <c r="C8" s="81" t="n">
         <v>10</v>
       </c>
       <c r="D8" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="79" t="s">
         <v>432</v>
       </c>
       <c r="F8" s="61" t="s">
         <v>463</v>
       </c>
-      <c r="G8" s="80" t="s">
+      <c r="G8" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H8" s="80" t="s">
+      <c r="H8" s="79" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6611,22 +6567,22 @@
       <c r="B9" s="32" t="s">
         <v>464</v>
       </c>
-      <c r="C9" s="81" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="66" t="n">
+      <c r="C9" s="80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="68" t="s">
         <v>438</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>465</v>
       </c>
-      <c r="G9" s="69" t="s">
+      <c r="G9" s="68" t="s">
         <v>466</v>
       </c>
-      <c r="H9" s="69" t="s">
+      <c r="H9" s="68" t="s">
         <v>358</v>
       </c>
     </row>
@@ -6637,22 +6593,22 @@
       <c r="B10" s="63" t="s">
         <v>468</v>
       </c>
-      <c r="C10" s="82" t="n">
+      <c r="C10" s="81" t="n">
         <v>10</v>
       </c>
       <c r="D10" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="68" t="s">
         <v>433</v>
       </c>
       <c r="F10" s="63" t="s">
         <v>469</v>
       </c>
-      <c r="G10" s="80" t="s">
+      <c r="G10" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H10" s="80" t="s">
+      <c r="H10" s="79" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6663,22 +6619,22 @@
       <c r="B11" s="61" t="s">
         <v>471</v>
       </c>
-      <c r="C11" s="82" t="n">
+      <c r="C11" s="81" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E11" s="80" t="s">
+      <c r="E11" s="79" t="s">
         <v>430</v>
       </c>
       <c r="F11" s="61" t="s">
         <v>472</v>
       </c>
-      <c r="G11" s="69" t="s">
+      <c r="G11" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="H11" s="69" t="s">
+      <c r="H11" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6689,22 +6645,22 @@
       <c r="B12" s="61" t="s">
         <v>474</v>
       </c>
-      <c r="C12" s="82" t="n">
+      <c r="C12" s="81" t="n">
         <v>10</v>
       </c>
       <c r="D12" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E12" s="80" t="s">
+      <c r="E12" s="79" t="s">
         <v>433</v>
       </c>
       <c r="F12" s="61" t="s">
         <v>475</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="G12" s="79" t="s">
         <v>452</v>
       </c>
-      <c r="H12" s="69" t="s">
+      <c r="H12" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6715,22 +6671,22 @@
       <c r="B13" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="C13" s="81" t="n">
+      <c r="C13" s="80" t="n">
         <v>10</v>
       </c>
       <c r="D13" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>477</v>
       </c>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6741,22 +6697,22 @@
       <c r="B14" s="32" t="s">
         <v>479</v>
       </c>
-      <c r="C14" s="81" t="n">
+      <c r="C14" s="80" t="n">
         <v>10</v>
       </c>
       <c r="D14" s="20" t="n">
         <v>0</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F14" s="30" t="s">
         <v>480</v>
       </c>
-      <c r="G14" s="69" t="s">
+      <c r="G14" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="H14" s="69" t="s">
+      <c r="H14" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6767,22 +6723,22 @@
       <c r="B15" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="C15" s="81" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" s="66" t="n">
+      <c r="C15" s="80" t="n">
+        <v>10</v>
+      </c>
+      <c r="D15" s="82" t="n">
         <v>1</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="68" t="s">
         <v>435</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>482</v>
       </c>
-      <c r="G15" s="69" t="s">
+      <c r="G15" s="68" t="s">
         <v>452</v>
       </c>
-      <c r="H15" s="69" t="s">
+      <c r="H15" s="68" t="s">
         <v>362</v>
       </c>
     </row>
@@ -6909,7 +6865,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
-      <c r="A4" s="66"/>
+      <c r="A4" s="82"/>
       <c r="B4" s="65" t="s">
         <v>491</v>
       </c>
@@ -6919,7 +6875,7 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="66" t="n">
+      <c r="G4" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H4" s="83" t="s">
@@ -6927,7 +6883,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
-      <c r="A5" s="66"/>
+      <c r="A5" s="82"/>
       <c r="B5" s="65" t="s">
         <v>493</v>
       </c>
@@ -6937,13 +6893,13 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="66" t="n">
+      <c r="G5" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
-      <c r="A6" s="66"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="65" t="s">
         <v>495</v>
       </c>
@@ -6953,13 +6909,13 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="66" t="n">
+      <c r="G6" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
-      <c r="A7" s="66"/>
+      <c r="A7" s="82"/>
       <c r="B7" s="65" t="s">
         <v>497</v>
       </c>
@@ -6968,13 +6924,13 @@
       </c>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="66" t="n">
+      <c r="G7" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H7" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
-      <c r="A8" s="66"/>
+      <c r="A8" s="82"/>
       <c r="B8" s="29" t="s">
         <v>499</v>
       </c>
@@ -6984,13 +6940,13 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="66" t="n">
+      <c r="G8" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
-      <c r="A9" s="66"/>
+      <c r="A9" s="82"/>
       <c r="B9" s="29" t="s">
         <v>500</v>
       </c>
@@ -7000,46 +6956,46 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="66" t="n">
+      <c r="G9" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H9" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
-      <c r="A10" s="66"/>
+      <c r="A10" s="82"/>
       <c r="B10" s="65" t="s">
         <v>501</v>
       </c>
       <c r="C10" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G10" s="66" t="n">
+      <c r="G10" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="66"/>
+      <c r="A11" s="82"/>
       <c r="B11" s="65" t="s">
         <v>502</v>
       </c>
       <c r="C11" s="65" t="s">
         <v>498</v>
       </c>
-      <c r="G11" s="66" t="n">
+      <c r="G11" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H11" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="12">
-      <c r="A12" s="66"/>
+      <c r="A12" s="82"/>
       <c r="B12" s="65" t="s">
         <v>503</v>
       </c>
       <c r="C12" s="65" t="s">
         <v>504</v>
       </c>
-      <c r="G12" s="66" t="n">
+      <c r="G12" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H12" s="83" t="s">
@@ -7047,27 +7003,27 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
-      <c r="A13" s="66"/>
+      <c r="A13" s="82"/>
       <c r="B13" s="65" t="s">
         <v>505</v>
       </c>
       <c r="C13" s="65" t="s">
         <v>506</v>
       </c>
-      <c r="G13" s="66" t="n">
+      <c r="G13" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H13" s="83"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
-      <c r="A14" s="66"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="65" t="s">
         <v>507</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>508</v>
       </c>
-      <c r="G14" s="66" t="n">
+      <c r="G14" s="82" t="n">
         <v>0</v>
       </c>
       <c r="H14" s="83"/>
@@ -12448,77 +12404,77 @@
       <c r="AMI2" s="48"/>
       <c r="AMJ2" s="48"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="3" s="68">
-      <c r="A3" s="68" t="s">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="35.05" outlineLevel="0" r="3" s="67">
+      <c r="A3" s="67" t="s">
         <v>206</v>
       </c>
-      <c r="B3" s="68" t="s">
+      <c r="B3" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="67" t="s">
         <v>793</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="67" t="s">
         <v>831</v>
       </c>
-      <c r="E3" s="68" t="s">
+      <c r="E3" s="67" t="s">
         <v>832</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="67" t="s">
         <v>833</v>
       </c>
-      <c r="G3" s="77" t="s">
+      <c r="G3" s="76" t="s">
         <v>834</v>
       </c>
-      <c r="H3" s="68" t="s">
+      <c r="H3" s="67" t="s">
         <v>835</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="67" t="s">
         <v>797</v>
       </c>
-      <c r="J3" s="68" t="s">
+      <c r="J3" s="67" t="s">
         <v>816</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="67" t="s">
         <v>836</v>
       </c>
-      <c r="L3" s="68" t="s">
+      <c r="L3" s="67" t="s">
         <v>837</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="67" t="s">
         <v>838</v>
       </c>
-      <c r="N3" s="68" t="s">
+      <c r="N3" s="67" t="s">
         <v>820</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="67" t="s">
         <v>839</v>
       </c>
-      <c r="P3" s="68" t="s">
+      <c r="P3" s="67" t="s">
         <v>840</v>
       </c>
-      <c r="Q3" s="68" t="s">
+      <c r="Q3" s="67" t="s">
         <v>823</v>
       </c>
-      <c r="R3" s="68" t="s">
+      <c r="R3" s="67" t="s">
         <v>700</v>
       </c>
-      <c r="S3" s="68" t="s">
+      <c r="S3" s="67" t="s">
         <v>841</v>
       </c>
-      <c r="T3" s="77" t="s">
+      <c r="T3" s="76" t="s">
         <v>842</v>
       </c>
-      <c r="U3" s="68" t="s">
+      <c r="U3" s="67" t="s">
         <v>826</v>
       </c>
-      <c r="V3" s="68" t="s">
+      <c r="V3" s="67" t="s">
         <v>827</v>
       </c>
-      <c r="W3" s="68" t="s">
+      <c r="W3" s="67" t="s">
         <v>843</v>
       </c>
-      <c r="X3" s="68" t="s">
+      <c r="X3" s="67" t="s">
         <v>844</v>
       </c>
       <c r="AMH3" s="3"/>
@@ -12580,10 +12536,10 @@
       <c r="T4" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U4" s="80" t="n">
+      <c r="U4" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V4" s="80" t="n">
+      <c r="V4" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W4" s="120"/>
@@ -12642,10 +12598,10 @@
       <c r="T5" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U5" s="80" t="n">
+      <c r="U5" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V5" s="80" t="n">
+      <c r="V5" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="120"/>
@@ -12703,10 +12659,10 @@
       <c r="T6" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U6" s="80" t="n">
+      <c r="U6" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V6" s="80" t="n">
+      <c r="V6" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="120"/>
@@ -12764,10 +12720,10 @@
       <c r="T7" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U7" s="80" t="n">
+      <c r="U7" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V7" s="80" t="n">
+      <c r="V7" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="120"/>
@@ -12825,10 +12781,10 @@
       <c r="T8" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U8" s="80" t="n">
+      <c r="U8" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V8" s="80" t="n">
+      <c r="V8" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W8" s="120"/>
@@ -12886,10 +12842,10 @@
       <c r="T9" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U9" s="80" t="n">
+      <c r="U9" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V9" s="80" t="n">
+      <c r="V9" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W9" s="120"/>
@@ -12947,10 +12903,10 @@
       <c r="T10" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U10" s="80" t="n">
+      <c r="U10" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V10" s="80" t="n">
+      <c r="V10" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W10" s="120"/>
@@ -13008,10 +12964,10 @@
       <c r="T11" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U11" s="80" t="n">
+      <c r="U11" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V11" s="80" t="n">
+      <c r="V11" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W11" s="120"/>
@@ -13069,10 +13025,10 @@
       <c r="T12" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U12" s="80" t="n">
+      <c r="U12" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V12" s="80" t="n">
+      <c r="V12" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W12" s="120"/>
@@ -13135,10 +13091,10 @@
       <c r="T13" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U13" s="80" t="n">
+      <c r="U13" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V13" s="80" t="n">
+      <c r="V13" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W13" s="120"/>
@@ -13196,10 +13152,10 @@
       <c r="T14" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U14" s="80" t="n">
+      <c r="U14" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V14" s="80" t="n">
+      <c r="V14" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W14" s="120"/>
@@ -13255,10 +13211,10 @@
       <c r="T15" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U15" s="80" t="n">
+      <c r="U15" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V15" s="80" t="n">
+      <c r="V15" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W15" s="120"/>
@@ -13316,10 +13272,10 @@
       <c r="T16" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U16" s="80" t="n">
+      <c r="U16" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V16" s="80" t="n">
+      <c r="V16" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="120"/>
@@ -13377,10 +13333,10 @@
       <c r="T17" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U17" s="80" t="n">
+      <c r="U17" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="80" t="n">
+      <c r="V17" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W17" s="120"/>
@@ -13440,10 +13396,10 @@
       <c r="T18" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U18" s="80" t="n">
+      <c r="U18" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V18" s="80" t="n">
+      <c r="V18" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W18" s="120"/>
@@ -13501,10 +13457,10 @@
       <c r="T19" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U19" s="80" t="n">
+      <c r="U19" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V19" s="80" t="n">
+      <c r="V19" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W19" s="120"/>
@@ -13567,10 +13523,10 @@
       <c r="T20" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U20" s="80" t="n">
+      <c r="U20" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V20" s="80" t="n">
+      <c r="V20" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W20" s="120"/>
@@ -13629,10 +13585,10 @@
       <c r="T21" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U21" s="80" t="n">
+      <c r="U21" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V21" s="80" t="n">
+      <c r="V21" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W21" s="120"/>
@@ -13691,10 +13647,10 @@
       <c r="T22" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U22" s="80" t="n">
+      <c r="U22" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V22" s="80" t="n">
+      <c r="V22" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W22" s="120"/>
@@ -13753,10 +13709,10 @@
       <c r="T23" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U23" s="80" t="n">
+      <c r="U23" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V23" s="80" t="n">
+      <c r="V23" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W23" s="120"/>
@@ -13815,10 +13771,10 @@
       <c r="T24" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U24" s="80" t="n">
+      <c r="U24" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V24" s="80" t="n">
+      <c r="V24" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W24" s="120"/>
@@ -13877,10 +13833,10 @@
       <c r="T25" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U25" s="80" t="n">
+      <c r="U25" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V25" s="80" t="n">
+      <c r="V25" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="120"/>
@@ -13939,10 +13895,10 @@
       <c r="T26" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U26" s="80" t="n">
+      <c r="U26" s="79" t="n">
         <v>0</v>
       </c>
-      <c r="V26" s="80" t="n">
+      <c r="V26" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W26" s="120"/>
@@ -14001,10 +13957,10 @@
       <c r="T27" s="121" t="n">
         <v>10</v>
       </c>
-      <c r="U27" s="80" t="n">
+      <c r="U27" s="79" t="n">
         <v>1</v>
       </c>
-      <c r="V27" s="80" t="n">
+      <c r="V27" s="79" t="n">
         <v>0</v>
       </c>
       <c r="W27" s="120"/>
@@ -14219,134 +14175,134 @@
       <c r="AMJ3" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>887</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C4" s="81" t="n">
+      <c r="C4" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>887</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C5" s="81" t="n">
+      <c r="C5" s="80" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>887</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C6" s="81" t="n">
+      <c r="C6" s="80" t="n">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>890</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C7" s="81" t="n">
+      <c r="C7" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>890</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C8" s="81" t="n">
+      <c r="C8" s="80" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>890</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C9" s="81" t="n">
+      <c r="C9" s="80" t="n">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>892</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C10" s="81" t="n">
+      <c r="C10" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>892</v>
       </c>
       <c r="B11" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C11" s="81" t="n">
+      <c r="C11" s="80" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="12">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>892</v>
       </c>
       <c r="B12" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C12" s="81" t="n">
+      <c r="C12" s="80" t="n">
         <v>2</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>893</v>
       </c>
       <c r="B13" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C13" s="81" t="n">
+      <c r="C13" s="80" t="n">
         <v>0</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>893</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>910</v>
       </c>
-      <c r="C14" s="81" t="n">
+      <c r="C14" s="80" t="n">
         <v>1</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="15">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>893</v>
       </c>
       <c r="B15" s="32" t="s">
         <v>911</v>
       </c>
-      <c r="C15" s="81" t="n">
+      <c r="C15" s="80" t="n">
         <v>2</v>
       </c>
     </row>
@@ -14413,27 +14369,27 @@
       <c r="A2" s="7" t="s">
         <v>915</v>
       </c>
-      <c r="B2" s="76"/>
+      <c r="B2" s="75"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="76"/>
+      <c r="D2" s="75"/>
       <c r="AMJ2" s="48"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="31.3" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="B3" s="78" t="s">
+      <c r="B3" s="77" t="s">
         <v>917</v>
       </c>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="77" t="s">
         <v>918</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="77" t="s">
         <v>919</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="68" t="s">
         <v>845</v>
       </c>
       <c r="B4" s="19" t="n">
@@ -14447,7 +14403,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="68" t="s">
         <v>845</v>
       </c>
       <c r="B5" s="19" t="n">
@@ -14461,7 +14417,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="68" t="s">
         <v>845</v>
       </c>
       <c r="B6" s="19" t="n">
@@ -14475,7 +14431,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="7">
-      <c r="A7" s="69" t="s">
+      <c r="A7" s="68" t="s">
         <v>845</v>
       </c>
       <c r="B7" s="19" t="n">
@@ -14489,7 +14445,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="8">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="68" t="s">
         <v>845</v>
       </c>
       <c r="B8" s="19" t="s">
@@ -14503,7 +14459,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="9">
-      <c r="A9" s="69" t="s">
+      <c r="A9" s="68" t="s">
         <v>850</v>
       </c>
       <c r="B9" s="19" t="n">
@@ -14517,7 +14473,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="10">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="68" t="s">
         <v>850</v>
       </c>
       <c r="B10" s="19" t="n">
@@ -14531,7 +14487,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="A11" s="69" t="s">
+      <c r="A11" s="68" t="s">
         <v>850</v>
       </c>
       <c r="B11" s="19" t="n">
@@ -14545,7 +14501,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="12">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="68" t="s">
         <v>850</v>
       </c>
       <c r="B12" s="19" t="n">
@@ -14559,7 +14515,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="13">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="68" t="s">
         <v>850</v>
       </c>
       <c r="B13" s="19" t="s">
@@ -14573,7 +14529,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="14">
-      <c r="A14" s="69" t="s">
+      <c r="A14" s="68" t="s">
         <v>853</v>
       </c>
       <c r="B14" s="19" t="n">
@@ -14587,7 +14543,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="15">
-      <c r="A15" s="69" t="s">
+      <c r="A15" s="68" t="s">
         <v>853</v>
       </c>
       <c r="B15" s="19" t="n">
@@ -14601,7 +14557,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="16">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="68" t="s">
         <v>853</v>
       </c>
       <c r="B16" s="19" t="n">
@@ -14615,7 +14571,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="17">
-      <c r="A17" s="69" t="s">
+      <c r="A17" s="68" t="s">
         <v>853</v>
       </c>
       <c r="B17" s="19" t="n">
@@ -14629,7 +14585,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="18">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="68" t="s">
         <v>853</v>
       </c>
       <c r="B18" s="19" t="s">
@@ -14643,7 +14599,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="19">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="68" t="s">
         <v>857</v>
       </c>
       <c r="B19" s="19" t="n">
@@ -14657,7 +14613,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="20">
-      <c r="A20" s="69" t="s">
+      <c r="A20" s="68" t="s">
         <v>857</v>
       </c>
       <c r="B20" s="19" t="n">
@@ -14671,7 +14627,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="21">
-      <c r="A21" s="69" t="s">
+      <c r="A21" s="68" t="s">
         <v>857</v>
       </c>
       <c r="B21" s="19" t="n">
@@ -14685,7 +14641,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="22">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="68" t="s">
         <v>857</v>
       </c>
       <c r="B22" s="19" t="n">
@@ -14699,7 +14655,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="23">
-      <c r="A23" s="69" t="s">
+      <c r="A23" s="68" t="s">
         <v>857</v>
       </c>
       <c r="B23" s="19" t="s">
@@ -14713,7 +14669,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="24">
-      <c r="A24" s="69" t="s">
+      <c r="A24" s="68" t="s">
         <v>858</v>
       </c>
       <c r="B24" s="19" t="n">
@@ -14727,7 +14683,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="25">
-      <c r="A25" s="69" t="s">
+      <c r="A25" s="68" t="s">
         <v>858</v>
       </c>
       <c r="B25" s="19" t="n">
@@ -14741,7 +14697,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="26">
-      <c r="A26" s="69" t="s">
+      <c r="A26" s="68" t="s">
         <v>858</v>
       </c>
       <c r="B26" s="19" t="n">
@@ -14755,7 +14711,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="27">
-      <c r="A27" s="69" t="s">
+      <c r="A27" s="68" t="s">
         <v>858</v>
       </c>
       <c r="B27" s="19" t="n">
@@ -14769,7 +14725,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="28">
-      <c r="A28" s="69" t="s">
+      <c r="A28" s="68" t="s">
         <v>858</v>
       </c>
       <c r="B28" s="19" t="s">
@@ -14783,7 +14739,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="29">
-      <c r="A29" s="69" t="s">
+      <c r="A29" s="68" t="s">
         <v>861</v>
       </c>
       <c r="B29" s="19" t="n">
@@ -14797,7 +14753,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="30">
-      <c r="A30" s="69" t="s">
+      <c r="A30" s="68" t="s">
         <v>861</v>
       </c>
       <c r="B30" s="19" t="n">
@@ -14811,7 +14767,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="31">
-      <c r="A31" s="69" t="s">
+      <c r="A31" s="68" t="s">
         <v>861</v>
       </c>
       <c r="B31" s="19" t="n">
@@ -14825,7 +14781,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="32">
-      <c r="A32" s="69" t="s">
+      <c r="A32" s="68" t="s">
         <v>861</v>
       </c>
       <c r="B32" s="19" t="n">
@@ -14839,7 +14795,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="33">
-      <c r="A33" s="69" t="s">
+      <c r="A33" s="68" t="s">
         <v>861</v>
       </c>
       <c r="B33" s="19" t="s">
@@ -14853,7 +14809,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="34">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="68" t="s">
         <v>863</v>
       </c>
       <c r="B34" s="19" t="n">
@@ -14867,7 +14823,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="35">
-      <c r="A35" s="69" t="s">
+      <c r="A35" s="68" t="s">
         <v>863</v>
       </c>
       <c r="B35" s="19" t="n">
@@ -14881,7 +14837,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="36">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="68" t="s">
         <v>863</v>
       </c>
       <c r="B36" s="19" t="n">
@@ -14895,7 +14851,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="37">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="68" t="s">
         <v>863</v>
       </c>
       <c r="B37" s="19" t="n">
@@ -14909,7 +14865,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="38">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="68" t="s">
         <v>863</v>
       </c>
       <c r="B38" s="19" t="s">
@@ -14923,7 +14879,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="39">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="68" t="s">
         <v>865</v>
       </c>
       <c r="B39" s="19" t="n">
@@ -14937,7 +14893,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="40">
-      <c r="A40" s="69" t="s">
+      <c r="A40" s="68" t="s">
         <v>865</v>
       </c>
       <c r="B40" s="19" t="n">
@@ -14951,7 +14907,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="41">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="68" t="s">
         <v>865</v>
       </c>
       <c r="B41" s="19" t="n">
@@ -14965,7 +14921,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="42">
-      <c r="A42" s="69" t="s">
+      <c r="A42" s="68" t="s">
         <v>865</v>
       </c>
       <c r="B42" s="19" t="n">
@@ -14979,7 +14935,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="43">
-      <c r="A43" s="69" t="s">
+      <c r="A43" s="68" t="s">
         <v>865</v>
       </c>
       <c r="B43" s="19" t="s">
@@ -14993,7 +14949,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="44">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="68" t="s">
         <v>867</v>
       </c>
       <c r="B44" s="19" t="n">
@@ -15007,7 +14963,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="45">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="68" t="s">
         <v>867</v>
       </c>
       <c r="B45" s="19" t="n">
@@ -15021,7 +14977,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="46">
-      <c r="A46" s="69" t="s">
+      <c r="A46" s="68" t="s">
         <v>867</v>
       </c>
       <c r="B46" s="19" t="n">
@@ -15035,7 +14991,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="47">
-      <c r="A47" s="69" t="s">
+      <c r="A47" s="68" t="s">
         <v>867</v>
       </c>
       <c r="B47" s="19" t="n">
@@ -15049,7 +15005,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="48">
-      <c r="A48" s="69" t="s">
+      <c r="A48" s="68" t="s">
         <v>867</v>
       </c>
       <c r="B48" s="19" t="s">
@@ -15063,7 +15019,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="49">
-      <c r="A49" s="69" t="s">
+      <c r="A49" s="68" t="s">
         <v>869</v>
       </c>
       <c r="B49" s="19" t="n">
@@ -15077,7 +15033,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="50">
-      <c r="A50" s="69" t="s">
+      <c r="A50" s="68" t="s">
         <v>869</v>
       </c>
       <c r="B50" s="19" t="n">
@@ -15091,7 +15047,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="51">
-      <c r="A51" s="69" t="s">
+      <c r="A51" s="68" t="s">
         <v>869</v>
       </c>
       <c r="B51" s="19" t="n">
@@ -15105,7 +15061,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="52">
-      <c r="A52" s="69" t="s">
+      <c r="A52" s="68" t="s">
         <v>869</v>
       </c>
       <c r="B52" s="19" t="n">
@@ -15119,7 +15075,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="53">
-      <c r="A53" s="69" t="s">
+      <c r="A53" s="68" t="s">
         <v>869</v>
       </c>
       <c r="B53" s="19" t="s">
@@ -15133,7 +15089,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="54">
-      <c r="A54" s="69" t="s">
+      <c r="A54" s="68" t="s">
         <v>873</v>
       </c>
       <c r="B54" s="19" t="n">
@@ -15147,7 +15103,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="55">
-      <c r="A55" s="69" t="s">
+      <c r="A55" s="68" t="s">
         <v>873</v>
       </c>
       <c r="B55" s="19" t="n">
@@ -15161,7 +15117,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="56">
-      <c r="A56" s="69" t="s">
+      <c r="A56" s="68" t="s">
         <v>873</v>
       </c>
       <c r="B56" s="19" t="n">
@@ -15175,7 +15131,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="57">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="68" t="s">
         <v>873</v>
       </c>
       <c r="B57" s="19" t="n">
@@ -15189,7 +15145,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="58">
-      <c r="A58" s="69" t="s">
+      <c r="A58" s="68" t="s">
         <v>873</v>
       </c>
       <c r="B58" s="19" t="s">
@@ -15203,7 +15159,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="59">
-      <c r="A59" s="69" t="s">
+      <c r="A59" s="68" t="s">
         <v>875</v>
       </c>
       <c r="B59" s="19" t="n">
@@ -15217,7 +15173,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="60">
-      <c r="A60" s="69" t="s">
+      <c r="A60" s="68" t="s">
         <v>875</v>
       </c>
       <c r="B60" s="19" t="n">
@@ -15231,7 +15187,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="61">
-      <c r="A61" s="69" t="s">
+      <c r="A61" s="68" t="s">
         <v>875</v>
       </c>
       <c r="B61" s="19" t="n">
@@ -15245,7 +15201,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="62">
-      <c r="A62" s="69" t="s">
+      <c r="A62" s="68" t="s">
         <v>875</v>
       </c>
       <c r="B62" s="19" t="n">
@@ -15259,7 +15215,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="63">
-      <c r="A63" s="69" t="s">
+      <c r="A63" s="68" t="s">
         <v>875</v>
       </c>
       <c r="B63" s="19" t="s">
@@ -15273,7 +15229,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="64">
-      <c r="A64" s="69" t="s">
+      <c r="A64" s="68" t="s">
         <v>877</v>
       </c>
       <c r="B64" s="19" t="n">
@@ -15287,7 +15243,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="65">
-      <c r="A65" s="69" t="s">
+      <c r="A65" s="68" t="s">
         <v>877</v>
       </c>
       <c r="B65" s="19" t="n">
@@ -15301,7 +15257,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="66">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="68" t="s">
         <v>877</v>
       </c>
       <c r="B66" s="19" t="n">
@@ -15315,7 +15271,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="67">
-      <c r="A67" s="69" t="s">
+      <c r="A67" s="68" t="s">
         <v>877</v>
       </c>
       <c r="B67" s="19" t="n">
@@ -15329,7 +15285,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="68">
-      <c r="A68" s="69" t="s">
+      <c r="A68" s="68" t="s">
         <v>877</v>
       </c>
       <c r="B68" s="19" t="s">
@@ -15343,7 +15299,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="69">
-      <c r="A69" s="69" t="s">
+      <c r="A69" s="68" t="s">
         <v>879</v>
       </c>
       <c r="B69" s="19" t="n">
@@ -15357,7 +15313,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="70">
-      <c r="A70" s="69" t="s">
+      <c r="A70" s="68" t="s">
         <v>879</v>
       </c>
       <c r="B70" s="19" t="n">
@@ -15371,7 +15327,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="71">
-      <c r="A71" s="69" t="s">
+      <c r="A71" s="68" t="s">
         <v>879</v>
       </c>
       <c r="B71" s="19" t="n">
@@ -15385,7 +15341,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="72">
-      <c r="A72" s="69" t="s">
+      <c r="A72" s="68" t="s">
         <v>879</v>
       </c>
       <c r="B72" s="19" t="n">
@@ -15399,7 +15355,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="73">
-      <c r="A73" s="69" t="s">
+      <c r="A73" s="68" t="s">
         <v>879</v>
       </c>
       <c r="B73" s="19" t="s">
@@ -15413,7 +15369,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="74">
-      <c r="A74" s="69" t="s">
+      <c r="A74" s="68" t="s">
         <v>881</v>
       </c>
       <c r="B74" s="19" t="n">
@@ -15427,7 +15383,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="75">
-      <c r="A75" s="69" t="s">
+      <c r="A75" s="68" t="s">
         <v>881</v>
       </c>
       <c r="B75" s="19" t="n">
@@ -15441,7 +15397,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="76">
-      <c r="A76" s="69" t="s">
+      <c r="A76" s="68" t="s">
         <v>881</v>
       </c>
       <c r="B76" s="19" t="n">
@@ -15455,7 +15411,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="77">
-      <c r="A77" s="69" t="s">
+      <c r="A77" s="68" t="s">
         <v>881</v>
       </c>
       <c r="B77" s="19" t="n">
@@ -15469,7 +15425,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="78">
-      <c r="A78" s="69" t="s">
+      <c r="A78" s="68" t="s">
         <v>881</v>
       </c>
       <c r="B78" s="19" t="s">
@@ -15483,7 +15439,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="79">
-      <c r="A79" s="69" t="s">
+      <c r="A79" s="68" t="s">
         <v>883</v>
       </c>
       <c r="B79" s="19" t="n">
@@ -15497,7 +15453,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="80">
-      <c r="A80" s="69" t="s">
+      <c r="A80" s="68" t="s">
         <v>883</v>
       </c>
       <c r="B80" s="19" t="n">
@@ -15511,7 +15467,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="81">
-      <c r="A81" s="69" t="s">
+      <c r="A81" s="68" t="s">
         <v>883</v>
       </c>
       <c r="B81" s="19" t="n">
@@ -15525,7 +15481,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="82">
-      <c r="A82" s="69" t="s">
+      <c r="A82" s="68" t="s">
         <v>883</v>
       </c>
       <c r="B82" s="19" t="n">
@@ -15539,7 +15495,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="83">
-      <c r="A83" s="69" t="s">
+      <c r="A83" s="68" t="s">
         <v>883</v>
       </c>
       <c r="B83" s="19" t="s">
@@ -15553,7 +15509,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="84">
-      <c r="A84" s="69" t="s">
+      <c r="A84" s="68" t="s">
         <v>780</v>
       </c>
       <c r="B84" s="19" t="n">
@@ -15567,7 +15523,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="85">
-      <c r="A85" s="69" t="s">
+      <c r="A85" s="68" t="s">
         <v>780</v>
       </c>
       <c r="B85" s="19" t="n">
@@ -15581,7 +15537,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="86">
-      <c r="A86" s="69" t="s">
+      <c r="A86" s="68" t="s">
         <v>780</v>
       </c>
       <c r="B86" s="19" t="n">
@@ -15595,7 +15551,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="87">
-      <c r="A87" s="69" t="s">
+      <c r="A87" s="68" t="s">
         <v>780</v>
       </c>
       <c r="B87" s="19" t="n">
@@ -15609,7 +15565,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="88">
-      <c r="A88" s="69" t="s">
+      <c r="A88" s="68" t="s">
         <v>780</v>
       </c>
       <c r="B88" s="19" t="s">
@@ -15623,7 +15579,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="89">
-      <c r="A89" s="69" t="s">
+      <c r="A89" s="68" t="s">
         <v>895</v>
       </c>
       <c r="B89" s="19" t="n">
@@ -15637,7 +15593,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="90">
-      <c r="A90" s="69" t="s">
+      <c r="A90" s="68" t="s">
         <v>895</v>
       </c>
       <c r="B90" s="19" t="n">
@@ -15651,7 +15607,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="91">
-      <c r="A91" s="69" t="s">
+      <c r="A91" s="68" t="s">
         <v>895</v>
       </c>
       <c r="B91" s="19" t="n">
@@ -15665,7 +15621,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="92">
-      <c r="A92" s="69" t="s">
+      <c r="A92" s="68" t="s">
         <v>895</v>
       </c>
       <c r="B92" s="19" t="n">
@@ -15679,7 +15635,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="93">
-      <c r="A93" s="69" t="s">
+      <c r="A93" s="68" t="s">
         <v>895</v>
       </c>
       <c r="B93" s="19" t="s">
@@ -15693,7 +15649,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="94">
-      <c r="A94" s="69" t="s">
+      <c r="A94" s="68" t="s">
         <v>897</v>
       </c>
       <c r="B94" s="19" t="n">
@@ -15707,7 +15663,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="95">
-      <c r="A95" s="69" t="s">
+      <c r="A95" s="68" t="s">
         <v>897</v>
       </c>
       <c r="B95" s="19" t="n">
@@ -15721,7 +15677,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="96">
-      <c r="A96" s="69" t="s">
+      <c r="A96" s="68" t="s">
         <v>897</v>
       </c>
       <c r="B96" s="19" t="n">
@@ -15735,7 +15691,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="97">
-      <c r="A97" s="69" t="s">
+      <c r="A97" s="68" t="s">
         <v>897</v>
       </c>
       <c r="B97" s="19" t="n">
@@ -15749,7 +15705,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="98">
-      <c r="A98" s="69" t="s">
+      <c r="A98" s="68" t="s">
         <v>897</v>
       </c>
       <c r="B98" s="19" t="s">
@@ -15763,7 +15719,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="99">
-      <c r="A99" s="69" t="s">
+      <c r="A99" s="68" t="s">
         <v>899</v>
       </c>
       <c r="B99" s="19" t="n">
@@ -15777,7 +15733,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="100">
-      <c r="A100" s="69" t="s">
+      <c r="A100" s="68" t="s">
         <v>899</v>
       </c>
       <c r="B100" s="19" t="n">
@@ -15791,7 +15747,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="101">
-      <c r="A101" s="69" t="s">
+      <c r="A101" s="68" t="s">
         <v>899</v>
       </c>
       <c r="B101" s="19" t="n">
@@ -15805,7 +15761,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="102">
-      <c r="A102" s="69" t="s">
+      <c r="A102" s="68" t="s">
         <v>899</v>
       </c>
       <c r="B102" s="19" t="n">
@@ -15819,7 +15775,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="103">
-      <c r="A103" s="69" t="s">
+      <c r="A103" s="68" t="s">
         <v>899</v>
       </c>
       <c r="B103" s="19" t="s">
@@ -21774,7 +21730,7 @@
       <c r="F4" s="83" t="s">
         <v>783</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="82" t="s">
         <v>503</v>
       </c>
     </row>
@@ -21792,7 +21748,7 @@
       <c r="F5" s="83" t="s">
         <v>930</v>
       </c>
-      <c r="H5" s="66" t="n">
+      <c r="H5" s="82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23230,10 +23186,10 @@
       <c r="B4" s="65" t="s">
         <v>991</v>
       </c>
-      <c r="C4" s="66" t="n">
+      <c r="C4" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="66" t="n">
+      <c r="D4" s="82" t="n">
         <v>1</v>
       </c>
       <c r="E4" s="95" t="n">
@@ -23250,10 +23206,10 @@
       <c r="B5" s="65" t="s">
         <v>993</v>
       </c>
-      <c r="C5" s="66" t="n">
+      <c r="C5" s="82" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="66" t="n">
+      <c r="D5" s="82" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="95" t="n">
@@ -23900,6 +23856,7 @@
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61133603238866"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.33603238866397"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.40485829959514"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.0364372469636"/>
@@ -24665,6 +24622,7 @@
     <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.61133603238866"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.33603238866397"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3967611336032"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9271255060729"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.40485829959514"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.0364372469636"/>
@@ -25973,46 +25931,47 @@
     <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.0404858299595"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.07692307692308"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50607287449393"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.68421052631579"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.0404858299595"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.20647773279352"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="76">
       <c r="A1" s="137" t="s">
         <v>123</v>
       </c>
       <c r="B1" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C1" s="78" t="s">
+      <c r="C1" s="77" t="s">
         <v>1162</v>
       </c>
-      <c r="D1" s="78" t="s">
+      <c r="D1" s="77" t="s">
         <v>1163</v>
       </c>
-      <c r="E1" s="78" t="s">
+      <c r="E1" s="77" t="s">
         <v>1164</v>
       </c>
-      <c r="F1" s="77" t="s">
+      <c r="F1" s="76" t="s">
         <v>1165</v>
       </c>
       <c r="G1" s="138" t="s">
         <v>1166</v>
       </c>
-      <c r="H1" s="78" t="s">
+      <c r="H1" s="77" t="s">
         <v>1167</v>
       </c>
-      <c r="I1" s="78" t="s">
+      <c r="I1" s="77" t="s">
         <v>1168</v>
       </c>
-      <c r="J1" s="78" t="s">
+      <c r="J1" s="77" t="s">
         <v>1169</v>
       </c>
-      <c r="K1" s="78" t="s">
+      <c r="K1" s="77" t="s">
         <v>831</v>
       </c>
-      <c r="L1" s="78"/>
+      <c r="L1" s="77"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="2">
       <c r="A2" s="30" t="s">
@@ -26189,31 +26148,31 @@
       <c r="L20" s="140"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="69.8" outlineLevel="0" r="21" s="143">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="76" t="s">
         <v>1188</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>1109</v>
       </c>
-      <c r="C21" s="77" t="s">
+      <c r="C21" s="76" t="s">
         <v>1189</v>
       </c>
-      <c r="D21" s="77" t="s">
+      <c r="D21" s="76" t="s">
         <v>1190</v>
       </c>
       <c r="E21" s="142" t="s">
         <v>1191</v>
       </c>
-      <c r="F21" s="77" t="s">
+      <c r="F21" s="76" t="s">
         <v>1192</v>
       </c>
-      <c r="G21" s="77" t="s">
+      <c r="G21" s="76" t="s">
         <v>1193</v>
       </c>
-      <c r="H21" s="77" t="s">
+      <c r="H21" s="76" t="s">
         <v>1194</v>
       </c>
-      <c r="I21" s="77" t="s">
+      <c r="I21" s="76" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -27431,6 +27390,7 @@
     <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.38461538461539"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3400809716599"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.4817813765182"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.53441295546559"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.7246963562753"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.51417004048583"/>
     <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.4817813765182"/>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="11" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="751" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="25" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="751" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -80,21 +80,42 @@
       <text>
         <r>
           <rPr>
+            <rFont val="Arial"/>
+            <charset val="1"/>
+            <family val="2"/>
             <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">The sample type abbreviation must be unique – it is used as prefix to sample records</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>-1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>2</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -103,23 +124,44 @@
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <color rgb="00000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">If more than one Sample Type can be sampled at a Sample Point, please add entries for the extra combinations in this sheet.
 Single Sample Types per Sample Point can be entered 'Sample Points' sheet.</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>-1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>16</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments34.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -128,23 +170,44 @@
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <color rgb="00000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">From the manual: 'Some Analyses requiring text input as results is best limited to a number of known possible outcomes to prevent typos and irrelevant input skewing reporting. 
 The known outcomes, e.g. 'Positive' or 'Negative',  can be pre-configured here and only these allowed when results are captured. These will be offered as options on a drop-down menu on the data capturing screens'</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>75</xdr:colOff>
+                <xdr:row>-1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>44</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -153,29 +216,71 @@
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <color rgb="00000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Only if a Client Contact is a LIMS user too, does he/she get given a (unique) user name and password</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>13</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>5</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>2</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
     <comment authorId="0" ref="N3">
       <text>
         <r>
           <rPr>
+            <rFont val="Calibri"/>
+            <charset val="1"/>
+            <family val="2"/>
+            <color rgb="00000000"/>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">Please copy from other contacts for the same Client on this sheet: Use contact Fullname (Firstname + “ “ + Lastname). If more than one needs to be cc'd, please separate with commas. Only contacts for the same client are valid.</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="true" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>14</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>6</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>9</xdr:row>
+                <xdr:rowOff>13</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
@@ -4387,203 +4492,203 @@
   </numFmts>
   <fonts count="28">
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="true"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="true"/>
       <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="14"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="000000FF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <sz val="13"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="Arla"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="true"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arla"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <color rgb="00000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="true"/>
+      <i val="true"/>
+      <color rgb="002323DC"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arla"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arla"/>
-      <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF2323DC"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -4595,20 +4700,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFE6E6E6"/>
+        <fgColor rgb="00E6E6FF"/>
+        <bgColor rgb="00E6E6E6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor rgb="FFE6E6FF"/>
+        <fgColor rgb="00E6E6E6"/>
+        <bgColor rgb="00E6E6FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -4654,49 +4759,32 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
   <cellXfs count="145">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
@@ -4704,7 +4792,6 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="11" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="12" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -4712,527 +4799,370 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="14" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="15" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="166" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="17" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="19" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="168" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="168" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="168" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="168" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="169" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="166" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="23" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="18" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="170" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="170" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="25" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="16" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="21" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="26" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="27" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="18" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="18" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="20" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="18" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="165" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="13" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="167" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="5" numFmtId="167" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="7" numFmtId="167" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="4" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="top" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -5245,62 +5175,62 @@
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFE6E6FF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFE6E6E6"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF2323DC"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00E6E6FF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00E6E6E6"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="002323DC"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -5317,11 +5247,10 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.4372469635628"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5388,11 +5317,10 @@
       <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5490,12 +5418,11 @@
       <selection activeCell="A11" activeCellId="0" pane="topLeft" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5344129554656"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.8380566801619"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="13.8980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5821,29 +5748,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="A1:U4"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="C11" activeCellId="0" pane="topLeft" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.06882591093117"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.48582995951417"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.8097165991903"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.86234817813765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.37651821862348"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.2753036437247"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.89878542510122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.41295546558704"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.7368421052632"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.10588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.50980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.9019607843137"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.4156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.31372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.92549019607843"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.44313725490196"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="23.8352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.18039215686274"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.3" outlineLevel="0" r="1" s="5">
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
       <c r="A1" s="65" t="s">
         <v>135</v>
       </c>
@@ -5887,37 +5813,33 @@
       <c r="S1" s="65"/>
       <c r="T1" s="65"/>
       <c r="U1" s="65"/>
-      <c r="AMI1" s="0"/>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="16.9" outlineLevel="0" r="2" s="6">
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="17" outlineLevel="0" r="2" s="6">
       <c r="A2" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="AMI2" s="0"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="3" s="5">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="3" s="5">
       <c r="A3" s="65" t="s">
         <v>135</v>
       </c>
@@ -5961,10 +5883,8 @@
       <c r="S3" s="65"/>
       <c r="T3" s="65"/>
       <c r="U3" s="65"/>
-      <c r="AMI3" s="0"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="65" t="s">
         <v>395</v>
       </c>
@@ -6021,15 +5941,14 @@
       <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8461538461538"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.4372469635628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.57894736842105"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0526315789474"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8947368421053"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.121568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.956862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6247,11 +6166,10 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6357,18 +6275,17 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.0526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.4372469635628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.57894736842105"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.56275303643725"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50607287449393"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.66801619433198"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.35627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.9473684210526"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.66801619433198"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.69230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.60392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.58039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.69803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.3843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.0039215686275"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.69803921568628"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.71372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.2" outlineLevel="0" r="1" s="14">
@@ -6794,16 +6711,15 @@
       <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.6599190283401"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.4736842105263"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3117408906883"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.2874493927125"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.48582995951417"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.96761133603239"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.57085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.7137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.5764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.3607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.51372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.0117647058824"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.5921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7071,13 +6987,12 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4939271255061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6963562753036"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.01214574898785"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7607843137255"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.03529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="14">
@@ -7144,12 +7059,11 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="55.2226720647773"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4736842105263"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="55.4509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="14">
@@ -7337,11 +7251,10 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4372469635628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7478,13 +7391,12 @@
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23481781376518"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.65587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.63967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.25882352941177"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.67450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.67058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7677,13 +7589,12 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4453441295547"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.47773279352227"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.1376518218623"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.47773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.4453441295547"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.51764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.2039215686275"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.51764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.5137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7908,11 +7819,10 @@
       <selection activeCell="A25" activeCellId="0" pane="topLeft" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5303643724696"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="7.93927125506073"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6235294117647"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="7.97254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8187,12 +8097,11 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.3400809716599"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.0526315789474"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8308,20 +8217,19 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8461538461538"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4008097165992"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.0445344129555"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9028340080972"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5101214574899"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.6882591093117"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.9554655870445"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2388663967611"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.246963562753"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.1176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.7803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.2862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.2980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.2313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="13.4" outlineLevel="0" r="1" s="85">
@@ -9429,17 +9337,16 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3157894736842"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.36032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.58039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="85">
@@ -9572,17 +9479,16 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1093117408907"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.5708502024292"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.36032388663968"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.5587044534413"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.1686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6274509803922"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.58039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="85">
@@ -9708,20 +9614,19 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="G22" activeCellId="0" pane="topLeft" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8097165991903"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.78947368421053"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3238866396761"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.4372469635628"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3882352941176"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.5411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.58039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -9785,13 +9690,13 @@
         <v>634</v>
       </c>
       <c r="C4" s="95" t="n">
-        <v>40910</v>
+        <v>41642</v>
       </c>
       <c r="D4" s="95" t="n">
-        <v>40911</v>
+        <v>41642</v>
       </c>
       <c r="E4" s="95" t="n">
-        <v>41985</v>
+        <v>42350</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>730</v>
@@ -9805,13 +9710,13 @@
         <v>638</v>
       </c>
       <c r="C5" s="95" t="n">
-        <v>40910</v>
+        <v>41643</v>
       </c>
       <c r="D5" s="95" t="n">
-        <v>40911</v>
+        <v>41643</v>
       </c>
       <c r="E5" s="95" t="n">
-        <v>41986</v>
+        <v>42351</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>730</v>
@@ -9825,13 +9730,13 @@
         <v>560</v>
       </c>
       <c r="C6" s="95" t="n">
-        <v>40910</v>
+        <v>41644</v>
       </c>
       <c r="D6" s="95" t="n">
-        <v>40911</v>
+        <v>41644</v>
       </c>
       <c r="E6" s="95" t="n">
-        <v>41987</v>
+        <v>42352</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>730</v>
@@ -9845,13 +9750,13 @@
         <v>683</v>
       </c>
       <c r="C7" s="95" t="n">
-        <v>40910</v>
+        <v>41645</v>
       </c>
       <c r="D7" s="95" t="n">
-        <v>40911</v>
+        <v>41645</v>
       </c>
       <c r="E7" s="95" t="n">
-        <v>41988</v>
+        <v>42353</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>730</v>
@@ -9865,13 +9770,13 @@
         <v>630</v>
       </c>
       <c r="C8" s="95" t="n">
-        <v>40910</v>
+        <v>41646</v>
       </c>
       <c r="D8" s="95" t="n">
-        <v>40911</v>
+        <v>41646</v>
       </c>
       <c r="E8" s="95" t="n">
-        <v>41989</v>
+        <v>42354</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>730</v>
@@ -9885,13 +9790,13 @@
         <v>642</v>
       </c>
       <c r="C9" s="95" t="n">
-        <v>40910</v>
+        <v>41647</v>
       </c>
       <c r="D9" s="95" t="n">
-        <v>40911</v>
+        <v>41647</v>
       </c>
       <c r="E9" s="95" t="n">
-        <v>41990</v>
+        <v>42355</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>730</v>
@@ -9905,13 +9810,13 @@
         <v>626</v>
       </c>
       <c r="C10" s="95" t="n">
-        <v>40910</v>
+        <v>41648</v>
       </c>
       <c r="D10" s="95" t="n">
-        <v>40911</v>
+        <v>41648</v>
       </c>
       <c r="E10" s="95" t="n">
-        <v>41991</v>
+        <v>42356</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>730</v>
@@ -9925,13 +9830,13 @@
         <v>626</v>
       </c>
       <c r="C11" s="95" t="n">
-        <v>41275</v>
+        <v>41649</v>
       </c>
       <c r="D11" s="95" t="n">
-        <v>41277</v>
+        <v>41649</v>
       </c>
       <c r="E11" s="95" t="n">
-        <v>41992</v>
+        <v>42357</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>730</v>
@@ -9945,13 +9850,13 @@
         <v>607</v>
       </c>
       <c r="C12" s="95" t="n">
-        <v>40910</v>
+        <v>41650</v>
       </c>
       <c r="D12" s="95" t="n">
-        <v>40911</v>
+        <v>41650</v>
       </c>
       <c r="E12" s="95" t="n">
-        <v>41993</v>
+        <v>42358</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>730</v>
@@ -9965,13 +9870,13 @@
         <v>675</v>
       </c>
       <c r="C13" s="95" t="n">
-        <v>40910</v>
+        <v>41651</v>
       </c>
       <c r="D13" s="95" t="n">
-        <v>40911</v>
+        <v>41651</v>
       </c>
       <c r="E13" s="95" t="n">
-        <v>41994</v>
+        <v>42359</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>730</v>
@@ -9985,13 +9890,13 @@
         <v>679</v>
       </c>
       <c r="C14" s="95" t="n">
-        <v>40910</v>
+        <v>41652</v>
       </c>
       <c r="D14" s="95" t="n">
-        <v>40911</v>
+        <v>41652</v>
       </c>
       <c r="E14" s="95" t="n">
-        <v>41995</v>
+        <v>42360</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>730</v>
@@ -10005,13 +9910,13 @@
         <v>686</v>
       </c>
       <c r="C15" s="95" t="n">
-        <v>40910</v>
+        <v>41653</v>
       </c>
       <c r="D15" s="95" t="n">
-        <v>40911</v>
+        <v>41653</v>
       </c>
       <c r="E15" s="95" t="n">
-        <v>41996</v>
+        <v>42361</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>730</v>
@@ -10025,13 +9930,13 @@
         <v>688</v>
       </c>
       <c r="C16" s="95" t="n">
-        <v>40910</v>
+        <v>41654</v>
       </c>
       <c r="D16" s="95" t="n">
-        <v>40911</v>
+        <v>41654</v>
       </c>
       <c r="E16" s="95" t="n">
-        <v>41997</v>
+        <v>42362</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>730</v>
@@ -10045,13 +9950,13 @@
         <v>648</v>
       </c>
       <c r="C17" s="95" t="n">
-        <v>40910</v>
+        <v>41655</v>
       </c>
       <c r="D17" s="95" t="n">
-        <v>40911</v>
+        <v>41655</v>
       </c>
       <c r="E17" s="95" t="n">
-        <v>41998</v>
+        <v>42363</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>730</v>
@@ -10065,13 +9970,13 @@
         <v>652</v>
       </c>
       <c r="C18" s="95" t="n">
-        <v>40910</v>
+        <v>41656</v>
       </c>
       <c r="D18" s="95" t="n">
-        <v>40911</v>
+        <v>41656</v>
       </c>
       <c r="E18" s="95" t="n">
-        <v>41999</v>
+        <v>42364</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>730</v>
@@ -10085,13 +9990,13 @@
         <v>556</v>
       </c>
       <c r="C19" s="95" t="n">
-        <v>40910</v>
+        <v>41657</v>
       </c>
       <c r="D19" s="95" t="n">
-        <v>40911</v>
+        <v>41657</v>
       </c>
       <c r="E19" s="95" t="n">
-        <v>42000</v>
+        <v>42365</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>730</v>
@@ -10105,13 +10010,13 @@
         <v>601</v>
       </c>
       <c r="C20" s="95" t="n">
-        <v>40910</v>
+        <v>41658</v>
       </c>
       <c r="D20" s="95" t="n">
-        <v>40911</v>
+        <v>41658</v>
       </c>
       <c r="E20" s="95" t="n">
-        <v>42001</v>
+        <v>42366</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>730</v>
@@ -10125,13 +10030,13 @@
         <v>645</v>
       </c>
       <c r="C21" s="95" t="n">
-        <v>40910</v>
+        <v>41659</v>
       </c>
       <c r="D21" s="95" t="n">
-        <v>40911</v>
+        <v>41659</v>
       </c>
       <c r="E21" s="95" t="n">
-        <v>42002</v>
+        <v>42367</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>730</v>
@@ -10145,13 +10050,13 @@
         <v>661</v>
       </c>
       <c r="C22" s="95" t="n">
-        <v>40910</v>
+        <v>41660</v>
       </c>
       <c r="D22" s="95" t="n">
-        <v>40911</v>
+        <v>41660</v>
       </c>
       <c r="E22" s="95" t="n">
-        <v>42003</v>
+        <v>42368</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>730</v>
@@ -10165,13 +10070,13 @@
         <v>664</v>
       </c>
       <c r="C23" s="95" t="n">
-        <v>40910</v>
+        <v>41661</v>
       </c>
       <c r="D23" s="95" t="n">
-        <v>40911</v>
+        <v>41661</v>
       </c>
       <c r="E23" s="95" t="n">
-        <v>42004</v>
+        <v>42369</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>730</v>
@@ -10185,13 +10090,13 @@
         <v>668</v>
       </c>
       <c r="C24" s="95" t="n">
-        <v>40910</v>
+        <v>41662</v>
       </c>
       <c r="D24" s="95" t="n">
-        <v>40911</v>
+        <v>41662</v>
       </c>
       <c r="E24" s="95" t="n">
-        <v>42005</v>
+        <v>42370</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>730</v>
@@ -10205,13 +10110,13 @@
         <v>671</v>
       </c>
       <c r="C25" s="95" t="n">
-        <v>40910</v>
+        <v>41663</v>
       </c>
       <c r="D25" s="95" t="n">
-        <v>40911</v>
+        <v>41663</v>
       </c>
       <c r="E25" s="95" t="n">
-        <v>42006</v>
+        <v>42371</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>730</v>
@@ -10699,19 +10604,18 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9311740890688"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7368421052632"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0404858299595"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1052631578947"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.17004048583"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.21862348178138"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.54655870445344"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1607843137255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.2313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.24313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.58039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="85">
@@ -10926,19 +10830,18 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4089068825911"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.4817813765182"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0202429149798"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.1133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.6882591093117"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1052631578947"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3198380566802"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.3279352226721"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1607843137255"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.443137254902"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="85">
@@ -11029,12 +10932,11 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0728744939271"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="20.7085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.2039215686274"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="20.7960784313725"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11132,12 +11034,11 @@
       <selection activeCell="B2" activeCellId="0" pane="topLeft" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.66801619433198"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.5764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.69803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11535,12 +11436,11 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.995951417004"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.24291497975709"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.1882352941177"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.7686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.26666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="14.15" outlineLevel="0" r="1" s="104">
@@ -11673,12 +11573,11 @@
       <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="24.5222672064777"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.06072874493927"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.27125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="24.6235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.09019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.28235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12281,30 +12180,29 @@
       <selection activeCell="C14" activeCellId="0" pane="topLeft" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6801619433198"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.16194331983806"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.16194331983806"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.2874493927125"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0971659919028"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.93522267206478"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.24291497975709"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="5.98380566801619"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.51417004048583"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="3.59109311740891"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.86234817813765"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.29959514170041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.27125506072874"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.2550607287449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.50607287449393"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.1619433198381"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.2348178137652"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.03238866396761"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.19028340080972"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="10.5060728744939"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.19607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.27058823529412"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.0078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.54509803921569"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="3.6078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.87843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.32549019607843"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.28235294117647"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.3098039215686"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.2156862745098"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.07058823529412"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.22352941176471"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="10.5490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="34.9" outlineLevel="0" r="1" s="14">
@@ -14061,14 +13959,13 @@
       <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68421052631579"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.46963562753036"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0404858299595"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.756862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.28235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14133,14 +14030,13 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3562753036437"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.36437246963563"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0404858299595"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.01214574898785"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.39607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.03529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="14">
@@ -14342,13 +14238,12 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4331983805668"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.26315789473684"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.56275303643725"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.01214574898785"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.30196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.03529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="24.5" outlineLevel="0" r="1" s="14">
@@ -15819,15 +15714,14 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.748987854251"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4493927125506"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.38461538461539"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.4274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7960784313726"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.4901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="39">
@@ -15955,12 +15849,11 @@
       <selection activeCell="D26" activeCellId="0" pane="topLeft" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9392712550607"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2024291497976"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="28.7854251012146"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="28.9058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="39">
@@ -16148,15 +16041,14 @@
       <selection activeCell="B39" activeCellId="0" pane="topLeft" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.0971659919028"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.4412955465587"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5060728744939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7044534412955"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="9.91902834008097"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3481781376518"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.47843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.556862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="9.96078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -21640,16 +21532,15 @@
       <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2105263157895"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4534412955466"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2186234817814"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.0485829959514"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.0823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.1019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -21803,22 +21694,21 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.42105263157895"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.02024291497976"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.96761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.9311740890688"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.60323886639676"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.5627530364372"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6558704453441"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3117408906883"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7894736842105"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2267206477733"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="29.5587044534413"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.61133603238866"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.43921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.04705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.0039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.64313725490196"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.6117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="29.678431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="14">
@@ -22877,12 +22767,11 @@
       <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6315789473684"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.3765182186235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.5546558704453"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.6196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23055,14 +22944,13 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6194331983806"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1902834008097"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.0890688259109"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.6761133603239"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.1902834008097"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.2627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23124,13 +23012,12 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4048582995951"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1295546558704"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1619433198381"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.478431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.2313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23258,15 +23145,14 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0728744939271"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.5141700404858"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="5.90688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.6392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.5372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23589,23 +23475,22 @@
       <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8461538461538"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.7246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6518218623482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.4372469635628"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.3724696356275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.34008097165992"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5344129554656"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.59919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1902834008097"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.2672064777328"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.004048582996"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.4534412955466"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.5176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.4666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.36470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.2352941176471"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.0470588235294"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
@@ -23736,14 +23621,13 @@
       <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0080971659919"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.4696356275304"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.12550607287449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.2753036437247"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.15294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.30980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
@@ -23846,22 +23730,21 @@
       <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.9797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.2753036437247"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.33603238866397"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.40485829959514"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.0364372469636"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="93.8137651821862"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.321568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.0549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.30980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.36470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="94.2039215686274"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
@@ -23998,14 +23881,13 @@
       <selection activeCell="A21" activeCellId="0" pane="topLeft" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68421052631579"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.46963562753036"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0404858299595"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.756862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.28235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24076,11 +23958,10 @@
       <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3684210526316"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.6477732793522"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24159,22 +24040,21 @@
       <selection activeCell="E4" activeCellId="0" pane="topLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6599190283401"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.40485829959514"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.1821862348178"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7408906882591"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3198380566802"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.8623481781377"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.42105263157895"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.46153846153846"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.7894736842105"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.1821862348178"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.2392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.2470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="1">
@@ -24295,13 +24175,12 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9838056680162"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.5465587044534"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.6558704453441"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.0313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.6392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24482,19 +24361,18 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3684210526316"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.59919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.40485829959514"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1538461538462"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.502024291498"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.66801619433198"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.8623481781377"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.9919028340081"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.34008097165992"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5748987854251"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.5725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.70588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.9176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
@@ -24613,20 +24491,19 @@
       <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.246963562753"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.63967611336032"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.9797570850202"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.2753036437247"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.33603238866397"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.3967611336032"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9271255060729"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.40485829959514"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.0364372469636"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.34008097165992"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.321568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.0549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.30980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.36470588235294"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.43921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
@@ -24833,14 +24710,13 @@
       <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.6437246963563"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68421052631579"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.46963562753036"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0404858299595"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.27125506072874"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.756862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.28235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
@@ -24911,12 +24787,11 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2955465587045"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.7692307692308"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24989,11 +24864,10 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7975708502024"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0971659919028"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25069,14 +24943,13 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4372469635628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.4817813765182"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7327935222672"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5465587044534"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.5294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.0823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25466,15 +25339,14 @@
       <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.8785425101215"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.4372469635628"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="5.85425101214575"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.01214574898785"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.9803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.521568627451"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.03529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25924,17 +25796,16 @@
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.76923076923077"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.07692307692308"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.50607287449393"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.68421052631579"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.0404858299595"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.20647773279352"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.0823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.0823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.10588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.0823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.23921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="76">
@@ -27195,15 +27066,14 @@
       <selection activeCell="G6" activeCellId="0" pane="topLeft" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.61133603238866"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.97165991902834"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.1538461538462"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.69230769230769"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.3603238866397"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.582995951417"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.18218623481781"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.00392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.71764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="38" width="9.22352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -27371,31 +27241,30 @@
       <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8744939271255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50607287449393"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.06882591093117"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.2753036437247"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8097165991903"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.5546558704453"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.81376518218623"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.59919028340081"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.5546558704453"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3400809716599"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.79757085020243"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.59919028340081"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.38461538461539"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3400809716599"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.4817813765182"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.53441295546559"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.7246963562753"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.51417004048583"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.4817813765182"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.1457489878543"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.4980392156863"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.3254901960784"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="19.8901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.03529411764706"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.63529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.63529411764706"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.4156862745098"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.56862745098039"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.76470588235294"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.54509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="39">
@@ -27828,22 +27697,21 @@
       <selection activeCell="C24" activeCellId="0" pane="topLeft" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1052631578947"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.8502024291498"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.66396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.51821862348178"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.1821862348178"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.412955465587"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4210526315789"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.46963562753036"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.4453441295547"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.2753036437247"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2793522267206"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.54655870445344"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.93522267206478"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.87843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.69803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.4627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.5137254901961"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.3254901960784"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.3725490196078"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="false" hidden="true" ht="12.2" outlineLevel="0" r="1" s="14">
@@ -28485,11 +28353,10 @@
       <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.9514170040486"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.85425101214575"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.0313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="5" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="751" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="38" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="751" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -97,14 +97,14 @@
               <xdr:from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
+                <xdr:colOff>3</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>5</xdr:rowOff>
+                <xdr:rowOff>2</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -142,13 +142,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>199</xdr:colOff>
+                <xdr:colOff>198</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>51</xdr:colOff>
+                <xdr:colOff>48</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>17</xdr:rowOff>
               </xdr:to>
@@ -188,13 +188,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>73</xdr:colOff>
+                <xdr:colOff>72</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>39</xdr:colOff>
+                <xdr:colOff>36</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>12</xdr:rowOff>
               </xdr:to>
@@ -233,15 +233,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>95</xdr:colOff>
-                <xdr:row>16</xdr:row>
-                <xdr:rowOff>1</xdr:rowOff>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>15</xdr:row>
+                <xdr:rowOff>12</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>14</xdr:colOff>
-                <xdr:row>28</xdr:row>
-                <xdr:rowOff>9</xdr:rowOff>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>27</xdr:row>
+                <xdr:rowOff>3</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -268,15 +268,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>6</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>13</xdr:rowOff>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>17</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>24</xdr:col>
-                <xdr:colOff>25</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>2</xdr:rowOff>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>14</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3623" uniqueCount="1434">
   <si>
     <t>Instructions</t>
   </si>
@@ -5361,13 +5361,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.6156862745098"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.0117647058824"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.7921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5431,13 +5431,12 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5481,13 +5480,12 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="O60" activeCellId="1" pane="topLeft" sqref="1:1 O60"/>
+      <selection activeCell="O60" activeCellId="0" pane="topLeft" sqref="O60"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5582,14 +5580,13 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="I23" activeCellId="1" pane="topLeft" sqref="1:1 I23"/>
+      <selection activeCell="I23" activeCellId="0" pane="topLeft" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.0117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7725490196078"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.0705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5918,21 +5915,22 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B10" activeCellId="1" pane="topLeft" sqref="1:1 B10"/>
+      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.56862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.77647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.49411764705882"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.38823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.9843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.50196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.0352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.25882352941177"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.59607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.52941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.43137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.01176470588235"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.53725490196078"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.30196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6101,17 +6099,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.0666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.8980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6248,26 +6247,6 @@
         <v>500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="11"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="12"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="13"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="14"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="15"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="16"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="17"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="18"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="20"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="21"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="26"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="27"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="28"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="29"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="30"/>
   </sheetData>
   <dataValidations count="3">
     <dataValidation allowBlank="true" operator="greaterThan" showDropDown="false" showErrorMessage="false" showInputMessage="false" sqref="A4:A10" type="date">
@@ -6301,17 +6280,16 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="1" pane="topLeft" sqref="1:1 B9"/>
+      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.7176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.66274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.321568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6526,13 +6504,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6635,20 +6612,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.756862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.66274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.61176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.45098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1176470588235"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.75686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.63137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1764705882353"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="15">
@@ -7071,18 +7048,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B14" activeCellId="1" pane="topLeft" sqref="1:1 B14"/>
+      <selection activeCell="B14" activeCellId="0" pane="topLeft" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.7764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.0980392156863"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.63529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.65882352941177"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7347,15 +7323,14 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.4823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8901960784314"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.07843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.09803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7419,15 +7394,15 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D15" activeCellId="1" pane="topLeft" sqref="1:1 D15"/>
+      <selection activeCell="D15" activeCellId="0" pane="topLeft" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.30980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.71764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.72549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.33725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.73333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.75686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7617,14 +7592,13 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="55.9176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.1490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7809,13 +7783,12 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7949,15 +7922,15 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3294117647059"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.721568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3882352941176"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.721568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8179,13 +8152,12 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A25" activeCellId="1" pane="topLeft" sqref="1:1 A25"/>
+      <selection activeCell="A25" activeCellId="0" pane="topLeft" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8117647058824"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.03921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.07450980392157"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8457,14 +8429,14 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.4117647058823"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.63529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8577,22 +8549,21 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.2588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.6627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.9686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.0941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.3803921568627"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3333333333333"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4313725490196"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4549019607843"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1" s="86">
@@ -9697,19 +9668,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.47843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.756862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.51764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9839,19 +9810,19 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3137254901961"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.47843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.4470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.756862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.7843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3764705882353"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.51764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9978,18 +9949,18 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="G22" activeCellId="1" pane="topLeft" sqref="1:1 G22"/>
+      <selection activeCell="G22" activeCellId="0" pane="topLeft" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.756862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -10964,21 +10935,21 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.243137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.3607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.28627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2627450980392"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4235294117647"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.30588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11190,14 +11161,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E13" activeCellId="1" pane="topLeft" sqref="1:1 E13"/>
+      <selection activeCell="E13" activeCellId="0" pane="topLeft" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11592,21 +11563,21 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.721568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.243137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.6705882352941"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.7882352941176"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.63529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11694,14 +11665,13 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.8627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.4627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="20.9686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.0549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11796,14 +11766,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.5764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.356862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.35294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="105">
@@ -11933,14 +11903,13 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B18" activeCellId="1" pane="topLeft" sqref="1:1 B18"/>
+      <selection activeCell="B18" activeCellId="0" pane="topLeft" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="24.8274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.14901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.31372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="24.9254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.17647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12540,32 +12509,32 @@
   <dimension ref="1:28"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A13" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B21" activeCellId="1" pane="topLeft" sqref="1:1 B21"/>
+      <selection activeCell="B21" activeCellId="0" pane="topLeft" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.043137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.25490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.22745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.0588235294118"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.32941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.05882352941176"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="3.63529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.90980392156863"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.38039215686275"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.31372549019608"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4156862745098"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.62352941176471"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.321568627451"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.3647058823529"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.14117647058824"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.29019607843137"/>
-    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="10.6352941176471"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.29019607843137"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="5.25098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.5764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.1019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.35686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.08627450980392"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="11" style="0" width="3.65098039215686"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="3.92941176470588"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="3.32549019607843"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="13.4745098039216"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="13.3725490196078"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="11.4078431372549"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="8.32549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="23" style="0" width="10.678431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.63529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="34.9" outlineLevel="0" r="1" s="15">
@@ -14383,16 +14352,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B22" activeCellId="1" pane="topLeft" sqref="1:1 B22"/>
+      <selection activeCell="B22" activeCellId="0" pane="topLeft" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14454,16 +14422,15 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.47058823529412"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.07843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.09803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -14662,15 +14629,14 @@
   <dimension ref="1:103"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.38039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.07843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.0274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.42352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.09803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -16138,17 +16104,16 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="D9" activeCellId="1" pane="topLeft" sqref="1:1 D9"/>
+      <selection activeCell="D9" activeCellId="0" pane="topLeft" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.878431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.556862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.0117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.5764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.45098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.47058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16287,17 +16252,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A35" activeCellId="1" pane="topLeft" sqref="1:1 A35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A21" activeCellId="0" pane="topLeft" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.2156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.1490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.2705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16459,24 +16423,32 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="21">
-      <c r="A21" s="118" t="s">
+      <c r="A21" s="125" t="s">
+        <v>822</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22">
+      <c r="A22" s="118" t="s">
         <v>977</v>
       </c>
-      <c r="B21" s="127" t="s">
+      <c r="B22" s="127" t="s">
         <v>920</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="A21" type="none">
+    <dataValidation allowBlank="true" operator="equal" prompt="The unique keyword used to identify the analysis service in import files of bulk AR requests and results imports from instruments. It is also used to identify dependent analysis services in user defined results calculations" promptTitle="Unique Analysis Service keyword" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="A22" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Profile from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Profiles' sheet" promptTitle="Select a valid Analysis Profile" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A20" type="list">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Profile from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Profiles' sheet" promptTitle="Select a valid Analysis Profile" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A21" type="list">
       <formula1>'Analysis Profiles'!$B$3:$B$46</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B21" type="list">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B22" type="list">
       <formula1>'Analysis Services'!$A$4:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -16502,24 +16474,24 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A3" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C5" activeCellId="1" pane="topLeft" sqref="1:1 C5"/>
+      <selection activeCell="C5" activeCellId="0" pane="topLeft" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.47450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.10588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.0980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7137254901961"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9411764705882"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="29.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.13333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.0549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.75686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -17575,17 +17547,16 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B39" activeCellId="1" pane="topLeft" sqref="1:1 B39"/>
+      <selection activeCell="B39" activeCellId="0" pane="topLeft" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.55686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9490196078431"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.0470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0274509803922"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.0901960784314"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5294117647059"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23066,18 +23037,17 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C15" activeCellId="1" pane="topLeft" sqref="1:1 C15"/>
+      <selection activeCell="C15" activeCellId="0" pane="topLeft" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.1254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23228,14 +23198,13 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B12" activeCellId="1" pane="topLeft" sqref="1:1 B12"/>
+      <selection activeCell="B12" activeCellId="0" pane="topLeft" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.7490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23405,16 +23374,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.8470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23473,15 +23441,14 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A158" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2901960784314"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.521568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23606,17 +23573,14 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.6941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7725490196078"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23936,25 +23900,25 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="1" pane="topLeft" sqref="1:1 B3"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.8862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.678431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.6509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.4078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.0627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.3960784313725"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1333333333333"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.89019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.42745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7725490196078"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
@@ -24082,16 +24046,16 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="1:1 A12"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.4509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.21176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
@@ -24191,24 +24155,24 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A9" activeCellId="1" pane="topLeft" sqref="1:1 A9"/>
+      <selection activeCell="A9" activeCellId="0" pane="topLeft" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.8980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.0627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.50588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.4"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="94.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.521568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.3803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
@@ -24342,16 +24306,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A21" activeCellId="1" pane="topLeft" sqref="1:1 A21"/>
+      <selection activeCell="A21" activeCellId="0" pane="topLeft" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24419,15 +24382,14 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E51" activeCellId="1" pane="topLeft" sqref="1:1 E51"/>
+      <selection activeCell="E51" activeCellId="0" pane="topLeft" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8470588235294"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24611,13 +24573,12 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A8" activeCellId="1" pane="topLeft" sqref="1:1 A8"/>
+      <selection activeCell="A8" activeCellId="0" pane="topLeft" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.1333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24693,24 +24654,24 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="E1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E4" activeCellId="1" pane="topLeft" sqref="1:1 E4"/>
+      <selection activeCell="E4" activeCellId="0" pane="topLeft" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.50588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.3529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.0117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.50588235294118"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.0627450980392"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.3725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.0627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53333333333333"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="1">
@@ -24828,21 +24789,21 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A4" activeCellId="1" pane="topLeft" sqref="1:1 A4"/>
+      <selection activeCell="A4" activeCellId="0" pane="topLeft" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.556862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0352941176471"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1411764705882"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.46666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.81176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
@@ -24958,22 +24919,22 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A12" activeCellId="1" pane="topLeft" sqref="1:1 A12"/>
+      <selection activeCell="A12" activeCellId="0" pane="topLeft" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.37647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.42352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.50588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.4"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.45882352941177"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1058823529412"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.521568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
@@ -25177,16 +25138,15 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B3" activeCellId="1" pane="topLeft" sqref="1:1 B3"/>
+      <selection activeCell="B3" activeCellId="0" pane="topLeft" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="27.9882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.31372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
@@ -25254,14 +25214,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25331,13 +25290,12 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="1" pane="topLeft" sqref="1:1 A2"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25410,16 +25368,15 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.6745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.678431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25806,17 +25763,16 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B30" activeCellId="1" pane="topLeft" sqref="1:1 B30"/>
+      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.76862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.1803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6941176470588"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="5.92941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.07843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.79607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.2823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.09803921568627"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26263,19 +26219,19 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.16470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.76862745098039"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.30980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.91372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.79607843137255"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.34509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
@@ -27530,19 +27486,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="1:1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.15294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="5.96078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.03921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.18823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.8980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="5.98823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.07450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -27674,29 +27631,6 @@
         <v>10.12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="8"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="9"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="10"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="11"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="12"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="13"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="14"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="15"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="16"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="17"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="18"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="19"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="20"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="21"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="23"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="24"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="25"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="26"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="27"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="28"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="29"/>
-    <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="30"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -27716,17 +27650,17 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="H52" activeCellId="1" pane="topLeft" sqref="1:1 H52"/>
+      <selection activeCell="H52" activeCellId="0" pane="topLeft" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.07450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.77647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.30196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.356862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.80392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.34509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -27891,33 +27825,33 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="H9" activeCellId="1" pane="topLeft" sqref="1:1 H9"/>
+      <selection activeCell="H9" activeCellId="0" pane="topLeft" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.16862745098039"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.6392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.4274509803922"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.0588235294118"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.10588235294118"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.70588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4705882352941"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.88627450980392"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.70588235294118"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.4705882352941"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.84313725490196"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.20392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.478431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.14117647058824"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74117647058823"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7450980392157"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5137254901961"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.91764705882353"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.74117647058823"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.50980392156863"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5137254901961"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.67843137254902"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.87843137254902"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.63529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -28347,24 +28281,23 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="B1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="O11" activeCellId="1" pane="topLeft" sqref="1:1 O11"/>
+      <selection activeCell="O11" activeCellId="0" pane="topLeft" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.93333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.76862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.63921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.4274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5607843137255"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.04313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="5.92941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.721568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.478431372549"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6509803921569"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.08627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="33" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="778" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="44" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="901" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -95,16 +95,16 @@
           <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>3</xdr:colOff>
-                <xdr:row>-1</xdr:row>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>70</xdr:colOff>
+                <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
-                <xdr:col>13</xdr:col>
-                <xdr:colOff>3</xdr:colOff>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>61</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>2</xdr:rowOff>
+                <xdr:rowOff>5</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -147,8 +147,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>48</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>29</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>17</xdr:rowOff>
               </xdr:to>
@@ -193,8 +193,8 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>36</xdr:colOff>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>41</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>12</xdr:rowOff>
               </xdr:to>
@@ -234,13 +234,13 @@
               <xdr:from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>15</xdr:row>
-                <xdr:rowOff>12</xdr:rowOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>13</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>27</xdr:row>
+                <xdr:row>26</xdr:row>
                 <xdr:rowOff>3</xdr:rowOff>
               </xdr:to>
             </anchor>
@@ -269,13 +269,13 @@
               <xdr:from>
                 <xdr:col>17</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>7</xdr:row>
+                <xdr:row>6</xdr:row>
                 <xdr:rowOff>17</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>24</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>13</xdr:row>
+                <xdr:row>12</xdr:row>
                 <xdr:rowOff>14</xdr:rowOff>
               </xdr:to>
             </anchor>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="1447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="1449">
   <si>
     <t>Instructions</t>
   </si>
@@ -3424,6 +3424,12 @@
   </si>
   <si>
     <t>All trace metals expected 10 ppm</t>
+  </si>
+  <si>
+    <t>Trace Metals 9</t>
+  </si>
+  <si>
+    <t>All trace metals (Except Calcium) expected 10 ppm</t>
   </si>
   <si>
     <t>ReferenceDefinition_title</t>
@@ -5404,9 +5410,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.0117647058824"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.4117647058824"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.82745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5474,8 +5480,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5523,8 +5530,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5623,9 +5631,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7725490196078"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.0705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5958,18 +5967,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.22352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.59607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.52941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.43137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.01176470588235"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.53725490196078"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.1372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.30196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.25882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.62745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.57254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.04313725490196"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.57254901960784"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.2392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.34509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6145,11 +6154,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.8980392156863"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6323,12 +6332,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.8117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.321568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6547,8 +6557,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6655,16 +6666,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.69019607843137"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.63137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.1764705882353"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.7843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.78039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.65490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.81176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50980392156863"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2352941176471"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.81176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="15">
@@ -7091,13 +7102,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.8823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.65882352941177"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.68627450980392"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7366,10 +7378,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8078431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.5686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.956862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.09803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0196078431373"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.12156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7438,10 +7451,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.33725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.73333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.75686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.7843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7635,9 +7648,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.1490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.3843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7826,8 +7840,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.8470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7965,11 +7980,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.721568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.63921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.3882352941176"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.63921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.721568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.7882352941176"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8195,8 +8210,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9098039215686"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.07450980392157"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8472,10 +8488,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.5333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8592,17 +8608,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.3333333333333"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.1882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.0627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4313725490196"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.4549019607843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7647058823529"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1529411764706"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4823529411765"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1" s="86">
@@ -9711,15 +9728,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.5843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.51764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4549019607843"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9853,15 +9870,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3764705882353"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.51764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.3803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="28.9058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55686274509804"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5607843137255"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4549019607843"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9992,14 +10009,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.5803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.121568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.443137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -10978,17 +10995,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.1607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.2627450980392"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4235294117647"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.30588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.32941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11205,9 +11222,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.9843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.121568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.81176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11606,17 +11623,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.2862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.7882352941176"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9019607843137"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11708,9 +11725,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.9843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.6"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.0549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.1450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11809,10 +11827,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.7686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.356862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.35294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3529411764706"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="105">
@@ -11946,9 +11964,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="24.9254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.17647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.32549019607843"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.0352941176471"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.2078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12547,33 +12566,33 @@
   </sheetPr>
   <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A23" activeCellId="0" pane="topLeft" sqref="A23"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="B10" activeCellId="0" pane="topLeft" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.1647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.29019607843137"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.25098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.2705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.35686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.08627450980392"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.65098039215686"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.92941176470588"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.40392156862745"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.32549019607843"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.4745098039216"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.3725490196078"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.32549019607843"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.678431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9529411764706"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.2862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.32549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.27058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.3843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.66274509803922"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.94509803921569"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.43137254901961"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.70980392156863"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4313725490196"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36078431372549"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.1" outlineLevel="0" r="1" s="15">
@@ -14474,11 +14493,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14544,11 +14564,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.50588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.09803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6509803921569"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.12156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -14751,10 +14772,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.0274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.42352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.09803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.12156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -16226,12 +16248,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.9529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.1254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.678431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.49411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16377,9 +16400,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.2705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16588,20 +16612,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.49019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.13333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.7647058823529"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.4823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9882352941176"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3960784313725"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.0549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.50980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.16470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.1803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.7921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -17661,12 +17685,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0274509803922"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.0901960784314"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5294117647059"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5803921568627"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23151,13 +23176,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7764705882353"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.321568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23312,9 +23338,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.956862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23488,11 +23515,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.3921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.4941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.443137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23548,17 +23576,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A158" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="F9" activeCellId="0" pane="topLeft" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.521568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3764705882353"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23624,7 +23653,7 @@
         <v>41184</v>
       </c>
       <c r="F4" s="96" t="n">
-        <v>41914</v>
+        <v>42279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="5">
@@ -23644,20 +23673,40 @@
         <v>41184</v>
       </c>
       <c r="F5" s="96" t="n">
-        <v>41914</v>
+        <v>42279</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="6">
+      <c r="A6" s="66" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C6" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="96" t="n">
+        <v>41184</v>
+      </c>
+      <c r="F6" s="96" t="n">
+        <v>42279</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:F5" type="date">
+    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:F6" type="date">
       <formula1>2012/1/1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Hazardous?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C5" type="list">
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Hazardous?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C6" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is it a Blank with expected results of 0?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5" type="list">
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is it a Blank with expected results of 0?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D6" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23680,28 +23729,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="A28" activeCellId="0" pane="topLeft" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.7725490196078"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4313725490196"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>996</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>997</v>
@@ -23712,7 +23764,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -23724,7 +23776,7 @@
         <v>1001</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1002</v>
@@ -23978,13 +24030,115 @@
         <v>11</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="18">
+      <c r="A18" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B18" s="127" t="s">
+        <v>900</v>
+      </c>
+      <c r="C18" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="19">
+      <c r="A19" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>902</v>
+      </c>
+      <c r="C19" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="20">
+      <c r="A20" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>904</v>
+      </c>
+      <c r="C20" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="21">
+      <c r="A21" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>907</v>
+      </c>
+      <c r="C21" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="22">
+      <c r="A22" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B22" s="127" t="s">
+        <v>919</v>
+      </c>
+      <c r="C22" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="23">
+      <c r="A23" s="84" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B23" s="127" t="s">
+        <v>927</v>
+      </c>
+      <c r="C23" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B17" type="list">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B23" type="list">
       <formula1>'Analysis Services'!$A$4:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Reference Definitions' sheet" promptTitle="Select a valid Reference Definition" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A17" type="list">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Reference Definitions' sheet" promptTitle="Select a valid Reference Definition" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A23" type="list">
       <formula1>'Reference Definitions'!$A$4:$A$241</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -24014,38 +24168,38 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.1803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.89019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.9686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.7647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.7450980392157"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.42745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.7725490196078"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.3647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.1764705882353"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.6509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.45098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8352941176471"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4078431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2196078431373"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>205</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1032</v>
@@ -24054,28 +24208,28 @@
         <v>480</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>1034</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>745</v>
@@ -24083,13 +24237,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>39</v>
@@ -24098,10 +24252,10 @@
         <v>649</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1032</v>
@@ -24110,28 +24264,28 @@
         <v>480</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>745</v>
@@ -24160,23 +24314,23 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.5960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.23921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.41176470588235"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.26666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.44705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>997</v>
@@ -24187,19 +24341,19 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1001</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1002</v>
@@ -24269,66 +24423,66 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.9529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.41176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.67843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.521568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.3803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.356862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.44705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.643137254902"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.7725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1074</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1072</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>739</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="2">
       <c r="A2" s="7" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="3" s="6">
@@ -24336,31 +24490,31 @@
         <v>30</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>739</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
@@ -24420,16 +24574,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>826</v>
@@ -24449,7 +24604,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -24496,10 +24651,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.1843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.9960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24687,8 +24843,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.2980392156863"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24701,7 +24858,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -24715,34 +24872,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="66" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="66" t="s">
-        <v>1090</v>
+        <v>1092</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>1091</v>
+        <v>1093</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="66" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="66" t="s">
-        <v>1094</v>
+        <v>1096</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>1095</v>
+        <v>1097</v>
       </c>
     </row>
   </sheetData>
@@ -24768,61 +24925,61 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.0627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.53333333333333"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.62352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.9725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.878431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4666666666667"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.56078431372549"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="1">
       <c r="A1" s="66" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>299</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>1096</v>
+        <v>1098</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>1097</v>
+        <v>1099</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1098</v>
+        <v>1100</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>525</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>1099</v>
+        <v>1101</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>1100</v>
+        <v>1102</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>1101</v>
+        <v>1103</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>745</v>
@@ -24830,49 +24987,49 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1102</v>
+        <v>1104</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="3" s="6">
       <c r="A3" s="128" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>436</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1104</v>
+        <v>1106</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1105</v>
+        <v>1107</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1106</v>
+        <v>1108</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>525</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1107</v>
+        <v>1109</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1108</v>
+        <v>1110</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1109</v>
+        <v>1111</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>745</v>
@@ -24903,58 +25060,58 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.7803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.81176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.0980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.50196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.678431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.84705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2392156862745"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
       <c r="A1" s="66" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>1110</v>
+        <v>1112</v>
       </c>
       <c r="C1" s="66" t="s">
         <v>299</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1111</v>
+        <v>1113</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1113</v>
+        <v>1115</v>
       </c>
       <c r="G1" s="66" t="s">
         <v>1011</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>1114</v>
+        <v>1116</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>1116</v>
+        <v>1118</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>852</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>745</v>
@@ -24962,49 +25119,49 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1118</v>
+        <v>1120</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1119</v>
+        <v>1121</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1103</v>
+        <v>1105</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>436</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1120</v>
+        <v>1122</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1121</v>
+        <v>1123</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1122</v>
+        <v>1124</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1123</v>
+        <v>1125</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1126</v>
+        <v>1128</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>745</v>
@@ -25033,50 +25190,50 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.41176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.45882352941177"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.67843137254902"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1058823529412"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.521568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.356862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.44705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.48627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.643137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
       <c r="A1" s="0" t="s">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>825</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>739</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>855</v>
@@ -25104,7 +25261,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1023</v>
@@ -25113,31 +25270,31 @@
         <v>825</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>739</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1133</v>
+        <v>1135</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
@@ -25252,16 +25409,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.32549019607843"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1134</v>
+        <v>1136</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>826</v>
@@ -25281,13 +25439,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="24.6" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.65" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>831</v>
@@ -25328,9 +25486,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25346,7 +25505,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1137</v>
+        <v>1139</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -25363,10 +25522,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="66" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="129" t="s">
         <v>646</v>
@@ -25404,13 +25563,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.0862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3803921568627"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>996</v>
@@ -25418,13 +25578,13 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1023</v>
@@ -25432,7 +25592,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>891</v>
@@ -25440,7 +25600,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>904</v>
@@ -25482,62 +25642,63 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.8117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
       <c r="A1" s="5" t="s">
-        <v>1140</v>
+        <v>1142</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>771</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1145</v>
+        <v>1147</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1146</v>
+        <v>1148</v>
       </c>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="17.9" outlineLevel="0" r="2" s="37">
       <c r="A2" s="7" t="s">
-        <v>1147</v>
+        <v>1149</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="3" s="6">
       <c r="A3" s="6" t="s">
-        <v>1148</v>
+        <v>1150</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1149</v>
+        <v>1151</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>647</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1151</v>
+        <v>1153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1152</v>
+        <v>1154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -25553,13 +25714,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D5" s="84"/>
       <c r="E5" s="84" t="s">
@@ -25569,13 +25730,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
@@ -25583,13 +25744,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -25597,13 +25758,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -25611,13 +25772,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="9">
       <c r="A9" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -25625,13 +25786,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="10">
       <c r="A10" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -25639,13 +25800,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="11">
       <c r="A11" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -25653,13 +25814,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="12">
       <c r="A12" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -25667,13 +25828,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="13">
       <c r="A13" s="129" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>1138</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>1136</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -25681,13 +25842,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="14">
       <c r="A14" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
@@ -25695,13 +25856,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="15">
       <c r="A15" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -25709,13 +25870,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="16">
       <c r="A16" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -25723,13 +25884,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="17">
       <c r="A17" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -25737,13 +25898,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="18">
       <c r="A18" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -25751,13 +25912,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="19">
       <c r="A19" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -25765,13 +25926,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="20">
       <c r="A20" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -25779,13 +25940,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="21">
       <c r="A21" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -25795,13 +25956,13 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22">
       <c r="A22" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="84" t="s">
@@ -25811,7 +25972,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="23">
       <c r="A23" s="129" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>20</v>
@@ -25878,11 +26039,12 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.1254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.79607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.2823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.7803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.09803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.12156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25898,7 +26060,7 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="26.1" outlineLevel="0" r="2" s="6">
       <c r="B2" s="7" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="C2" s="131"/>
     </row>
@@ -25915,10 +26077,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="4">
       <c r="A4" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="B4" s="110" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C4" s="132" t="n">
         <v>0</v>
@@ -25926,10 +26088,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="5">
       <c r="A5" s="5" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C5" s="132" t="n">
         <v>0</v>
@@ -25937,21 +26099,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="B6" s="110" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C6" s="132" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="B7" s="110" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="C7" s="133" t="n">
         <v>1</v>
@@ -25959,10 +26121,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="5" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="B8" s="110" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="C8" s="133" t="n">
         <v>1</v>
@@ -25970,10 +26132,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="9">
       <c r="A9" s="5" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B9" s="110" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="C9" s="132" t="n">
         <v>15</v>
@@ -25984,7 +26146,7 @@
         <v>223</v>
       </c>
       <c r="B10" s="110" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="C10" s="132" t="n">
         <v>14</v>
@@ -25992,10 +26154,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="11">
       <c r="A11" s="5" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="B11" s="110" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="C11" s="132" t="n">
         <v>5</v>
@@ -26003,10 +26165,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="12">
       <c r="A12" s="5" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="B12" s="110" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="C12" s="132" t="n">
         <v>5</v>
@@ -26014,10 +26176,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="13">
       <c r="A13" s="5" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="B13" s="110" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="C13" s="132" t="n">
         <v>4</v>
@@ -26025,19 +26187,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="14">
       <c r="A14" s="5" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="B14" s="110" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="C14" s="132"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="15">
       <c r="A15" s="5" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="B15" s="110" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="C15" s="133" t="n">
         <v>0</v>
@@ -26045,10 +26207,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="16">
       <c r="A16" s="5" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="B16" s="110" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="C16" s="133" t="n">
         <v>1</v>
@@ -26056,10 +26218,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="17">
       <c r="A17" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B17" s="110" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C17" s="134" t="s">
         <v>819</v>
@@ -26067,22 +26229,22 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="18">
       <c r="A18" s="5" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="B18" s="110" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="C18" s="135" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D18" s="136"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="19">
       <c r="A19" s="5" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B19" s="110" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="C19" s="134" t="s">
         <v>319</v>
@@ -26091,10 +26253,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="20">
       <c r="A20" s="5" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="B20" s="110" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="C20" s="134" t="s">
         <v>319</v>
@@ -26102,10 +26264,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="21">
       <c r="A21" s="5" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="B21" s="110" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="C21" s="135" t="n">
         <v>30</v>
@@ -26113,10 +26275,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22">
       <c r="A22" s="5" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="C22" s="135" t="n">
         <v>0</v>
@@ -26124,10 +26286,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="23">
       <c r="A23" s="5" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="B23" s="110" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="C23" s="135" t="n">
         <v>0</v>
@@ -26135,33 +26297,33 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="24">
       <c r="A24" s="5" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="B24" s="110" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="D24" s="137"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="25">
       <c r="A25" s="5" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="26">
       <c r="A26" s="5" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="C26" s="133" t="n">
         <v>0</v>
@@ -26169,21 +26331,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="27">
       <c r="A27" s="5" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="C27" s="132" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="28">
       <c r="A28" s="5" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="C28" s="132" t="n">
         <v>2</v>
@@ -26191,10 +26353,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="29">
       <c r="A29" s="5" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="C29" s="133" t="n">
         <v>0</v>
@@ -26202,10 +26364,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="30">
       <c r="A30" s="5" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C30" s="132"/>
     </row>
@@ -26333,15 +26495,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.91372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.67843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.79607843137255"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.34509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.94901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21960784313726"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.82745098039216"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
@@ -26352,28 +26514,28 @@
         <v>122</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="G1" s="139" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>868</v>
@@ -26382,34 +26544,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="2">
       <c r="A2" s="31" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B2" s="31" t="s">
         <v>181</v>
       </c>
       <c r="C2" s="110" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="E2" s="140" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="F2" s="110" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G2" s="110" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="110" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="I2" s="110" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J2" s="110" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="K2" s="110" t="s">
         <v>885</v>
@@ -26417,34 +26579,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="3">
       <c r="A3" s="31" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>319</v>
       </c>
       <c r="E3" s="140" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="G3" s="110" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="110" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="I3" s="110" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="110" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="K3" s="110" t="s">
         <v>893</v>
@@ -26452,19 +26614,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="4">
       <c r="A4" s="31" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="F4" s="110" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="G4" s="140"/>
       <c r="H4" s="110" t="s">
@@ -26482,10 +26644,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="31" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G6" s="140"/>
     </row>
@@ -26500,10 +26662,10 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="31" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G8" s="140"/>
     </row>
@@ -26556,39 +26718,39 @@
     </row>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="69.8" outlineLevel="0" r="21" s="144">
       <c r="A21" s="77" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="E21" s="143" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22">
       <c r="A22" s="145" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="C22" s="110" t="s">
         <v>1025</v>
@@ -26597,10 +26759,10 @@
         <v>1032</v>
       </c>
       <c r="E22" s="140" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="F22" s="110" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="G22" s="110" t="s">
         <v>781</v>
@@ -26614,19 +26776,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="110" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="D23" s="110" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="E23" s="140" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="F23" s="110" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="G23" s="110" t="s">
         <v>787</v>
@@ -26635,21 +26797,21 @@
         <v>787</v>
       </c>
       <c r="I23" s="110" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="24">
       <c r="B24" s="110" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="D24" s="110" t="s">
-        <v>1136</v>
+        <v>1138</v>
       </c>
       <c r="F24" s="110" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="G24" s="110" t="s">
         <v>784</v>
@@ -26658,926 +26820,926 @@
         <v>784</v>
       </c>
       <c r="I24" s="110" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="25">
       <c r="B25" s="110" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="H25" s="110" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="I25" s="110" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="26">
       <c r="B26" s="110" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="H26" s="110" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="27">
       <c r="B27" s="110" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="28">
       <c r="B28" s="110" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="29">
       <c r="B29" s="110" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="30">
       <c r="B30" s="110" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C30" s="110" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="31">
       <c r="B31" s="110" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="32">
       <c r="B32" s="110" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="33">
       <c r="B33" s="110" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="34">
       <c r="B34" s="110" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="35">
       <c r="B35" s="110" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="36">
       <c r="B36" s="110" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="37">
       <c r="B37" s="110" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="38">
       <c r="B38" s="110" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="39">
       <c r="B39" s="110" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="40">
       <c r="B40" s="110" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="41">
       <c r="B41" s="110" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="42">
       <c r="B42" s="110" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="43">
       <c r="B43" s="110" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="44">
       <c r="B44" s="110" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="45">
       <c r="B45" s="110" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="46">
       <c r="B46" s="110" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="47">
       <c r="B47" s="110" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="48">
       <c r="B48" s="110" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="49">
       <c r="B49" s="110" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="50">
       <c r="B50" s="110" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="51">
       <c r="B51" s="110" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="52">
       <c r="B52" s="110" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="53">
       <c r="B53" s="110" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="54">
       <c r="B54" s="110" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="55">
       <c r="B55" s="110" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="56">
       <c r="B56" s="110" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="57">
       <c r="B57" s="110" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="58">
       <c r="B58" s="110" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="59">
       <c r="B59" s="110" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="60">
       <c r="B60" s="110" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="61">
       <c r="B61" s="110" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="62">
       <c r="B62" s="110" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="63">
       <c r="B63" s="110" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="64">
       <c r="B64" s="110" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="65">
       <c r="B65" s="110" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="66">
       <c r="B66" s="110" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="67">
       <c r="B67" s="110" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="68">
       <c r="B68" s="110" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="69">
       <c r="B69" s="110" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="70">
       <c r="B70" s="110" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="71">
       <c r="B71" s="110" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="72">
       <c r="B72" s="110" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="73">
       <c r="B73" s="110" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="74">
       <c r="B74" s="110" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="75">
       <c r="B75" s="110" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="76">
       <c r="B76" s="110" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="77">
       <c r="B77" s="110" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="78">
       <c r="B78" s="110" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="79">
       <c r="B79" s="110" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="80">
       <c r="B80" s="110" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="81">
       <c r="B81" s="110" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="82">
       <c r="B82" s="110" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="83">
       <c r="B83" s="110" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="84">
       <c r="B84" s="110" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="85">
       <c r="B85" s="110" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="86">
       <c r="B86" s="110" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="87">
       <c r="B87" s="110" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="88">
       <c r="B88" s="110" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="89">
       <c r="B89" s="110" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="90">
       <c r="B90" s="110" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="91">
       <c r="B91" s="110" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="92">
       <c r="B92" s="110" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="93">
       <c r="B93" s="110" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="94">
       <c r="B94" s="110" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="95">
       <c r="B95" s="110" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="96">
       <c r="B96" s="110" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="97">
       <c r="B97" s="110" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="98">
       <c r="B98" s="110" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="99">
       <c r="B99" s="110" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="100">
       <c r="B100" s="110" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="101">
       <c r="B101" s="110" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="102">
       <c r="B102" s="110" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="103">
       <c r="B103" s="110" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="104">
       <c r="B104" s="110" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="105">
       <c r="B105" s="110" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="106">
       <c r="B106" s="110" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="107">
       <c r="B107" s="110" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="108">
       <c r="B108" s="110" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="109">
       <c r="B109" s="110" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="110">
       <c r="B110" s="110" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="111">
       <c r="B111" s="110" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="112">
       <c r="B112" s="110" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="113">
       <c r="B113" s="110" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="114">
       <c r="B114" s="110" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="115">
       <c r="B115" s="110" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="116">
       <c r="B116" s="110" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="117">
       <c r="B117" s="110" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="118">
       <c r="B118" s="110" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="119">
       <c r="B119" s="110" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="120">
       <c r="B120" s="110" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="121">
       <c r="B121" s="110" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="122">
       <c r="B122" s="110" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="123">
       <c r="B123" s="110" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="124">
       <c r="B124" s="110" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="125">
       <c r="B125" s="110" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="126">
       <c r="B126" s="110" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="127">
       <c r="B127" s="110" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="128">
       <c r="B128" s="110" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="129">
       <c r="B129" s="110" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="130">
       <c r="B130" s="110" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="131">
       <c r="B131" s="110" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="132">
       <c r="B132" s="110" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="133">
       <c r="B133" s="110" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="134">
       <c r="B134" s="110" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="135">
       <c r="B135" s="110" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="136">
       <c r="B136" s="110" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="137">
       <c r="B137" s="110" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="138">
       <c r="B138" s="110" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="139">
       <c r="B139" s="110" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="140">
       <c r="B140" s="110" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="141">
       <c r="B141" s="110" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="142">
       <c r="B142" s="110" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="143">
       <c r="B143" s="110" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="144">
       <c r="B144" s="110" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="145">
       <c r="B145" s="110" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="146">
       <c r="B146" s="110" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="147">
       <c r="B147" s="110" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="148">
       <c r="B148" s="110" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="149">
       <c r="B149" s="110" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="150">
       <c r="B150" s="110" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="151">
       <c r="B151" s="110" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="152">
       <c r="B152" s="110" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="153">
       <c r="B153" s="110" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="154">
       <c r="B154" s="110" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="155">
       <c r="B155" s="110" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="156">
       <c r="B156" s="110" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="157">
       <c r="B157" s="110" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="158">
       <c r="B158" s="110" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="159">
       <c r="B159" s="110" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="160">
       <c r="B160" s="110" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="161">
       <c r="B161" s="110" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="162">
       <c r="B162" s="110" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="163">
       <c r="B163" s="110" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="164">
       <c r="B164" s="110" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="165">
       <c r="B165" s="110" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="166">
       <c r="B166" s="110" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="167">
       <c r="B167" s="110" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="168">
       <c r="B168" s="110" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="169">
       <c r="B169" s="110" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="170">
       <c r="B170" s="110" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="171">
       <c r="B171" s="110" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="172">
       <c r="B172" s="110" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="173">
       <c r="B173" s="110" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="174">
       <c r="B174" s="110" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="175">
       <c r="B175" s="110" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="176">
       <c r="B176" s="110" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="177">
       <c r="B177" s="110" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="178">
       <c r="B178" s="110" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="179">
       <c r="B179" s="110" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="180">
       <c r="B180" s="110" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="181">
       <c r="B181" s="110" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="182">
       <c r="B182" s="110" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="183">
       <c r="B183" s="110" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="184">
       <c r="B184" s="110" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="185">
       <c r="B185" s="110" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="186">
       <c r="B186" s="110" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="187">
       <c r="B187" s="110" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="188">
       <c r="B188" s="110" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="189">
       <c r="B189" s="110" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="190">
       <c r="B190" s="110" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="191">
       <c r="B191" s="110" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="192">
       <c r="B192" s="110" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="193">
       <c r="B193" s="110" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="194">
       <c r="B194" s="110" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="195">
       <c r="B195" s="110" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="196">
       <c r="B196" s="110" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="197">
       <c r="B197" s="110" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="198">
       <c r="B198" s="110" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="199">
       <c r="B199" s="110" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="200">
       <c r="B200" s="110" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
   </sheetData>
@@ -27603,13 +27765,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.18823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.8980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="5.98823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.07450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.21960784313725"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.0078431372549"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.10196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -27764,13 +27926,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.356862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.80392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.34509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.13333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4039215686275"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.83529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -27939,29 +28101,28 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.20392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.478431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.1411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.14117647058824"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="9.97647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.74117647058823"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5137254901961"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.91764705882353"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.74117647058823"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.50980392156863"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5137254901961"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.67843137254902"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.87843137254902"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7843137254902"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5294117647059"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.18039215686274"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7764705882353"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7960784313726"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.556862745098"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.7764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.54509803921569"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.556862745098"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.71372549019608"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.91372549019608"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -28395,19 +28556,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.96470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.80392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.5921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.721568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.478431372549"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.6509803921569"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.08627450980392"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.9921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.84313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6352941176471"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5294117647059"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7450980392157"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="44" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="901" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="57" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,15 +96,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>70</xdr:colOff>
-                <xdr:row>1</xdr:row>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>12</xdr:col>
-                <xdr:colOff>61</xdr:colOff>
+                <xdr:colOff>3</xdr:colOff>
                 <xdr:row>2</xdr:row>
-                <xdr:rowOff>5</xdr:rowOff>
+                <xdr:rowOff>2</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -142,13 +142,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>198</xdr:colOff>
+                <xdr:colOff>197</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>29</xdr:colOff>
+                <xdr:colOff>26</xdr:colOff>
                 <xdr:row>5</xdr:row>
                 <xdr:rowOff>17</xdr:rowOff>
               </xdr:to>
@@ -188,13 +188,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>72</xdr:colOff>
+                <xdr:colOff>71</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>41</xdr:colOff>
+                <xdr:colOff>39</xdr:colOff>
                 <xdr:row>11</xdr:row>
                 <xdr:rowOff>12</xdr:rowOff>
               </xdr:to>
@@ -234,14 +234,14 @@
               <xdr:from>
                 <xdr:col>7</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>14</xdr:row>
-                <xdr:rowOff>13</xdr:rowOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>14</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>9</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>26</xdr:row>
-                <xdr:rowOff>3</xdr:rowOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>4</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -269,14 +269,14 @@
               <xdr:from>
                 <xdr:col>17</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>6</xdr:row>
+                <xdr:row>5</xdr:row>
                 <xdr:rowOff>17</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>24</xdr:col>
                 <xdr:colOff>3</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>14</xdr:rowOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>15</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -289,7 +289,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3662" uniqueCount="1449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3663" uniqueCount="1450">
   <si>
     <t>Instructions</t>
   </si>
@@ -3934,6 +3934,9 @@
   </si>
   <si>
     <t>Id server url</t>
+  </si>
+  <si>
+    <t>ShowNewReleasesInfo</t>
   </si>
   <si>
     <t>AR Import options</t>
@@ -4919,7 +4922,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="147">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
@@ -5302,6 +5305,7 @@
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
@@ -5410,9 +5414,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.4117647058824"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.8156862745098"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.86274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5480,9 +5484,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5530,9 +5534,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5631,10 +5635,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8941176470588"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5967,18 +5971,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.25882352941177"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.62745098039216"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.83529411764706"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.57254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2823529411765"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47450980392157"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.04313725490196"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.57254901960784"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.2392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.34509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.65490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.51764705882353"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.07058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.6"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.38039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6154,11 +6158,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.61176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6332,13 +6336,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6557,9 +6561,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6666,16 +6670,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.71764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.65490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.81176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.50980392156863"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2352941176471"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.81176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3882352941176"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.67450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.83921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.54509803921569"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2901960784314"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.83921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.83529411764706"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="15">
@@ -7102,14 +7106,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.68627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.71372549019608"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7378,11 +7382,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8862745098039"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0196078431373"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0823529411765"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.14117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7451,10 +7455,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.38823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.77647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.81176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7648,10 +7652,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.3843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.6196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7840,9 +7844,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7980,11 +7984,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7882352941176"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4549019607843"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.7882352941176"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5176470588235"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.8588235294118"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8210,9 +8214,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0039215686274"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0980392156863"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.13333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8488,10 +8492,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.878431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8608,18 +8612,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4039215686275"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2588235294118"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7647058823529"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1529411764706"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1882352941176"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4823529411765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.5058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2313725490196"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5294117647059"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.556862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1" s="86">
@@ -9728,15 +9732,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.6509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.721568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9870,15 +9874,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.443137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7254901960784"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.7843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55686274509804"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4549019607843"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9725490196078"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -10009,14 +10013,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.443137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.9725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -10995,17 +10999,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.32941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.278431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5529411764706"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.34901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.72941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11222,9 +11226,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.121568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.81176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.83921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11623,17 +11627,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8549019607843"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3372549019608"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9019607843137"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9411764705882"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0588235294118"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.0156862745098"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11725,10 +11729,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.1450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.2313725490196"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11827,10 +11831,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3529411764706"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.38039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.40392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="105">
@@ -11964,10 +11968,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.0352941176471"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.2078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.1411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.23529411764706"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.34901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12571,28 +12575,28 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9529411764706"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.2862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.32549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.27058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3098039215686"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.3843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.10980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.66274509803922"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.94509803921569"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.43137254901961"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5333333333333"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.70980392156863"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4313725490196"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.22352941176471"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36078431372549"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.4078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7176470588235"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.4156862745098"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12941176470588"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.67843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.95686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.46274509803922"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.34901960784314"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5882352941176"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.74509803921569"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.25882352941177"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.39607843137255"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.1" outlineLevel="0" r="1" s="15">
@@ -14493,12 +14497,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14564,12 +14568,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6509803921569"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.14117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -14772,11 +14776,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.46666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.12156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.14117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -16248,13 +16252,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.678431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2352941176471"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.49411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16400,10 +16404,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.3921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4941176470588"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.5137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16612,20 +16616,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.50980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.16470588235294"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0392156862745"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.1803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.53333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8705882352941"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0901960784314"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.3058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.82745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -17685,13 +17689,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1137254901961"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1333333333333"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5803921568627"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23176,14 +23180,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4627450980392"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7764705882353"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.321568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3725490196078"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23338,10 +23342,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.956862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0196078431373"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23515,12 +23519,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.443137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0196078431373"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6509803921569"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23583,11 +23587,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.4196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23731,18 +23735,18 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A28" activeCellId="0" pane="topLeft" sqref="A28"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="B26" activeCellId="0" pane="topLeft" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4313725490196"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.2862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24168,21 +24172,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8470588235294"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8392156862745"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.45098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8352941176471"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4823529411765"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2196078431373"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.47058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8941176470588"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2627450980392"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
@@ -24314,12 +24317,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7411764705882"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.26666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.44705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8039215686275"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.29411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.48235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
@@ -24423,20 +24426,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0117647058824"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.356862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.44705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.48627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.71372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1490196078431"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.643137254902"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.7725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.48235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.51372549019608"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7647058823529"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="96.1686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
@@ -24574,12 +24577,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24651,11 +24654,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1058823529412"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.121568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24843,9 +24846,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24925,20 +24928,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.878431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.56078431372549"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1490196078431"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5254901960784"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1607843137255"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.58823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.70980392156863"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0627450980392"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="1">
@@ -25060,17 +25063,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.678431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.84705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2392156862745"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.54509803921569"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.88627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2196078431373"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
@@ -25190,18 +25193,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.356862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.44705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.48627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.71372549019608"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.643137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54509803921569"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.48235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51372549019608"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.7647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
@@ -25409,12 +25412,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
@@ -25486,10 +25489,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25563,9 +25566,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25642,12 +25645,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0039215686274"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26031,20 +26034,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B30" activeCellId="0" pane="topLeft" sqref="B30"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C32" activeCellId="0" pane="topLeft" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2352941176471"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3803921568627"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.12156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9529411764706"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.14117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26370,6 +26373,14 @@
         <v>1214</v>
       </c>
       <c r="C30" s="132"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="31">
+      <c r="B31" s="0" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C31" s="138" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="24">
@@ -26495,47 +26506,47 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.94901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21960784313726"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.71372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.82745098039216"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.9843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.25098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.41176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="139" t="s">
         <v>122</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>1218</v>
-      </c>
-      <c r="G1" s="139" t="s">
         <v>1219</v>
       </c>
+      <c r="G1" s="140" t="s">
+        <v>1220</v>
+      </c>
       <c r="H1" s="78" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>868</v>
@@ -26553,25 +26564,25 @@
         <v>1187</v>
       </c>
       <c r="D2" s="110" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E2" s="140" t="s">
         <v>1224</v>
       </c>
+      <c r="E2" s="141" t="s">
+        <v>1225</v>
+      </c>
       <c r="F2" s="110" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="G2" s="110" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="110" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="I2" s="110" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="J2" s="110" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="K2" s="110" t="s">
         <v>885</v>
@@ -26579,34 +26590,34 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="3">
       <c r="A3" s="31" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B3" s="31" t="s">
         <v>170</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="D3" s="110" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="140" t="s">
+      <c r="E3" s="141" t="s">
         <v>1203</v>
       </c>
       <c r="F3" s="110" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="G3" s="110" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="110" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="I3" s="110" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="110" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="K3" s="110" t="s">
         <v>893</v>
@@ -26614,21 +26625,21 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="4">
       <c r="A4" s="31" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B4" s="31" t="s">
         <v>151</v>
       </c>
       <c r="C4" s="110" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="D4" s="110" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F4" s="110" t="s">
         <v>1200</v>
       </c>
-      <c r="G4" s="140"/>
+      <c r="G4" s="141"/>
       <c r="H4" s="110" t="s">
         <v>317</v>
       </c>
@@ -26640,16 +26651,16 @@
       <c r="B5" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="G5" s="140"/>
+      <c r="G5" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="6">
       <c r="A6" s="31" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G6" s="140"/>
+        <v>1239</v>
+      </c>
+      <c r="G6" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="7">
       <c r="A7" s="110" t="s">
@@ -26658,99 +26669,99 @@
       <c r="B7" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="G7" s="140"/>
+      <c r="G7" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="8">
       <c r="A8" s="31" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>1240</v>
-      </c>
-      <c r="G8" s="140"/>
+        <v>1241</v>
+      </c>
+      <c r="G8" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="9">
-      <c r="G9" s="140"/>
+      <c r="G9" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="10">
-      <c r="G10" s="140"/>
+      <c r="G10" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="11">
-      <c r="G11" s="140"/>
+      <c r="G11" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="12">
-      <c r="G12" s="140"/>
+      <c r="G12" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="13">
-      <c r="G13" s="140"/>
+      <c r="G13" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="14">
-      <c r="G14" s="140"/>
+      <c r="G14" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="15">
-      <c r="G15" s="140"/>
+      <c r="G15" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="16">
-      <c r="G16" s="140"/>
+      <c r="G16" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="17">
-      <c r="G17" s="140"/>
+      <c r="G17" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="18">
-      <c r="G18" s="140"/>
+      <c r="G18" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="19">
-      <c r="G19" s="140"/>
+      <c r="G19" s="141"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="20">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="141"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
-      <c r="L20" s="141"/>
-    </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="69.8" outlineLevel="0" r="21" s="144">
+      <c r="A20" s="142"/>
+      <c r="B20" s="142"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="143"/>
+      <c r="H20" s="142"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="142"/>
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+    </row>
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="69.8" outlineLevel="0" r="21" s="145">
       <c r="A21" s="77" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>1162</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>1243</v>
-      </c>
-      <c r="E21" s="143" t="s">
         <v>1244</v>
       </c>
+      <c r="E21" s="144" t="s">
+        <v>1245</v>
+      </c>
       <c r="F21" s="77" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="22">
-      <c r="A22" s="145" t="s">
-        <v>1249</v>
+      <c r="A22" s="146" t="s">
+        <v>1250</v>
       </c>
       <c r="B22" s="110" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="C22" s="110" t="s">
         <v>1025</v>
@@ -26758,11 +26769,11 @@
       <c r="D22" s="110" t="s">
         <v>1032</v>
       </c>
-      <c r="E22" s="140" t="s">
-        <v>1251</v>
+      <c r="E22" s="141" t="s">
+        <v>1252</v>
       </c>
       <c r="F22" s="110" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G22" s="110" t="s">
         <v>781</v>
@@ -26776,19 +26787,19 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="23">
       <c r="B23" s="110" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="D23" s="110" t="s">
         <v>1155</v>
       </c>
-      <c r="E23" s="140" t="s">
-        <v>1255</v>
+      <c r="E23" s="141" t="s">
+        <v>1256</v>
       </c>
       <c r="F23" s="110" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="G23" s="110" t="s">
         <v>787</v>
@@ -26797,21 +26808,21 @@
         <v>787</v>
       </c>
       <c r="I23" s="110" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="24.5" outlineLevel="0" r="24">
       <c r="B24" s="110" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C24" s="110" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="D24" s="110" t="s">
         <v>1138</v>
       </c>
       <c r="F24" s="110" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G24" s="110" t="s">
         <v>784</v>
@@ -26820,911 +26831,911 @@
         <v>784</v>
       </c>
       <c r="I24" s="110" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="25">
       <c r="B25" s="110" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>1156</v>
       </c>
       <c r="H25" s="110" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="I25" s="110" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="26">
       <c r="B26" s="110" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="H26" s="110" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="27">
       <c r="B27" s="110" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="28">
       <c r="B28" s="110" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C28" s="110" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="29">
       <c r="B29" s="110" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="30">
       <c r="B30" s="110" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C30" s="110" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="31">
       <c r="B31" s="110" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="32">
       <c r="B32" s="110" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="33">
       <c r="B33" s="110" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="C33" s="110" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="34">
       <c r="B34" s="110" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="35">
       <c r="B35" s="110" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="36">
       <c r="B36" s="110" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="37">
       <c r="B37" s="110" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="38">
       <c r="B38" s="110" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="39">
       <c r="B39" s="110" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="40">
       <c r="B40" s="110" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="41">
       <c r="B41" s="110" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="42">
       <c r="B42" s="110" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="43">
       <c r="B43" s="110" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="44">
       <c r="B44" s="110" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="45">
       <c r="B45" s="110" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="46">
       <c r="B46" s="110" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="47">
       <c r="B47" s="110" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="48">
       <c r="B48" s="110" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="49">
       <c r="B49" s="110" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="50">
       <c r="B50" s="110" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="51">
       <c r="B51" s="110" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="52">
       <c r="B52" s="110" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="53">
       <c r="B53" s="110" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="54">
       <c r="B54" s="110" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="55">
       <c r="B55" s="110" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="56">
       <c r="B56" s="110" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="57">
       <c r="B57" s="110" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="58">
       <c r="B58" s="110" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="59">
       <c r="B59" s="110" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="60">
       <c r="B60" s="110" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="61">
       <c r="B61" s="110" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="62">
       <c r="B62" s="110" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="63">
       <c r="B63" s="110" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="64">
       <c r="B64" s="110" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="65">
       <c r="B65" s="110" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="66">
       <c r="B66" s="110" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="67">
       <c r="B67" s="110" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="68">
       <c r="B68" s="110" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="69">
       <c r="B69" s="110" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="70">
       <c r="B70" s="110" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="71">
       <c r="B71" s="110" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="72">
       <c r="B72" s="110" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="73">
       <c r="B73" s="110" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="74">
       <c r="B74" s="110" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="75">
       <c r="B75" s="110" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="76">
       <c r="B76" s="110" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="77">
       <c r="B77" s="110" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="78">
       <c r="B78" s="110" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="79">
       <c r="B79" s="110" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="80">
       <c r="B80" s="110" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="81">
       <c r="B81" s="110" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="82">
       <c r="B82" s="110" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="83">
       <c r="B83" s="110" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="84">
       <c r="B84" s="110" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="85">
       <c r="B85" s="110" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="86">
       <c r="B86" s="110" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="87">
       <c r="B87" s="110" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="88">
       <c r="B88" s="110" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="89">
       <c r="B89" s="110" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="90">
       <c r="B90" s="110" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="91">
       <c r="B91" s="110" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="92">
       <c r="B92" s="110" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="93">
       <c r="B93" s="110" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="94">
       <c r="B94" s="110" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="95">
       <c r="B95" s="110" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="96">
       <c r="B96" s="110" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="97">
       <c r="B97" s="110" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="98">
       <c r="B98" s="110" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="99">
       <c r="B99" s="110" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="100">
       <c r="B100" s="110" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="101">
       <c r="B101" s="110" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="102">
       <c r="B102" s="110" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="103">
       <c r="B103" s="110" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="104">
       <c r="B104" s="110" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="105">
       <c r="B105" s="110" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="106">
       <c r="B106" s="110" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="107">
       <c r="B107" s="110" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="108">
       <c r="B108" s="110" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="109">
       <c r="B109" s="110" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="110">
       <c r="B110" s="110" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="111">
       <c r="B111" s="110" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="112">
       <c r="B112" s="110" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="113">
       <c r="B113" s="110" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="114">
       <c r="B114" s="110" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="115">
       <c r="B115" s="110" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="116">
       <c r="B116" s="110" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="117">
       <c r="B117" s="110" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="118">
       <c r="B118" s="110" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="119">
       <c r="B119" s="110" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="120">
       <c r="B120" s="110" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="121">
       <c r="B121" s="110" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="122">
       <c r="B122" s="110" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="123">
       <c r="B123" s="110" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="124">
       <c r="B124" s="110" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="125">
       <c r="B125" s="110" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="126">
       <c r="B126" s="110" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="127">
       <c r="B127" s="110" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="128">
       <c r="B128" s="110" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="129">
       <c r="B129" s="110" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="130">
       <c r="B130" s="110" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="131">
       <c r="B131" s="110" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="132">
       <c r="B132" s="110" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="133">
       <c r="B133" s="110" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="134">
       <c r="B134" s="110" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="135">
       <c r="B135" s="110" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="136">
       <c r="B136" s="110" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="137">
       <c r="B137" s="110" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="138">
       <c r="B138" s="110" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="139">
       <c r="B139" s="110" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="140">
       <c r="B140" s="110" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="141">
       <c r="B141" s="110" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="142">
       <c r="B142" s="110" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="143">
       <c r="B143" s="110" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="144">
       <c r="B144" s="110" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="145">
       <c r="B145" s="110" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="146">
       <c r="B146" s="110" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="147">
       <c r="B147" s="110" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="148">
       <c r="B148" s="110" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="149">
       <c r="B149" s="110" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="150">
       <c r="B150" s="110" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="151">
       <c r="B151" s="110" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="152">
       <c r="B152" s="110" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="153">
       <c r="B153" s="110" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="154">
       <c r="B154" s="110" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="155">
       <c r="B155" s="110" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="156">
       <c r="B156" s="110" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="157">
       <c r="B157" s="110" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="158">
       <c r="B158" s="110" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="159">
       <c r="B159" s="110" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="160">
       <c r="B160" s="110" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="161">
       <c r="B161" s="110" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="162">
       <c r="B162" s="110" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="163">
       <c r="B163" s="110" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="164">
       <c r="B164" s="110" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="165">
       <c r="B165" s="110" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="166">
       <c r="B166" s="110" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="167">
       <c r="B167" s="110" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="168">
       <c r="B168" s="110" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="169">
       <c r="B169" s="110" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="170">
       <c r="B170" s="110" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="171">
       <c r="B171" s="110" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="172">
       <c r="B172" s="110" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="173">
       <c r="B173" s="110" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="174">
       <c r="B174" s="110" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="175">
       <c r="B175" s="110" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="176">
       <c r="B176" s="110" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="177">
       <c r="B177" s="110" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="178">
       <c r="B178" s="110" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="179">
       <c r="B179" s="110" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="180">
       <c r="B180" s="110" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="181">
       <c r="B181" s="110" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="182">
       <c r="B182" s="110" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="183">
       <c r="B183" s="110" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="184">
       <c r="B184" s="110" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="185">
       <c r="B185" s="110" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="186">
       <c r="B186" s="110" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="187">
       <c r="B187" s="110" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="188">
       <c r="B188" s="110" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="189">
       <c r="B189" s="110" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="190">
       <c r="B190" s="110" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="191">
       <c r="B191" s="110" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="192">
       <c r="B192" s="110" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="193">
       <c r="B193" s="110" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="194">
       <c r="B194" s="110" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="195">
       <c r="B195" s="110" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="196">
       <c r="B196" s="110" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="197">
       <c r="B197" s="110" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="198">
@@ -27734,12 +27745,12 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="199">
       <c r="B199" s="110" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="200">
       <c r="B200" s="110" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
     </row>
   </sheetData>
@@ -27765,13 +27776,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.21960784313725"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.0078431372549"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.10196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1960784313725"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.25490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.03137254901961"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.13333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.61176470588235"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -27926,13 +27937,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.13333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4039215686275"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.83529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.16862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.86274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.42352941176471"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -28101,28 +28112,29 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.23921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7843137254902"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5294117647059"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.18039215686274"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0196078431373"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.7764705882353"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.556862745098"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.7764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.54509803921569"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.556862745098"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.71372549019608"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.91372549019608"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.27450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.22352941176471"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0588235294118"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.81176470588235"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6039215686275"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.81176470588235"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6039215686275"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.74901960784314"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.94901960784314"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.70196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -28556,20 +28568,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.9921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.84313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3960784313725"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6352941176471"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7882352941176"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5294117647059"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7450980392157"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.12156862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.01960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.87843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.678431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5843137254902"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8392156862745"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.15686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57647058823529"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="46" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="929" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="33" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,15 +98,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
+                <xdr:colOff>3</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>62</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>28</xdr:rowOff>
+                <xdr:colOff>3</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>9</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -144,15 +144,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
+                <xdr:colOff>21</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>-69</xdr:colOff>
-                <xdr:row>9</xdr:row>
-                <xdr:rowOff>5</xdr:rowOff>
+                <xdr:colOff>-72</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>7</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -190,15 +190,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
+                <xdr:colOff>21</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>52</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>16</xdr:rowOff>
+                <xdr:colOff>50</xdr:colOff>
+                <xdr:row>34</xdr:row>
+                <xdr:rowOff>11</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -235,15 +235,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
+                <xdr:colOff>19</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>35</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>9</xdr:rowOff>
+                <xdr:colOff>31</xdr:colOff>
+                <xdr:row>10</xdr:row>
+                <xdr:rowOff>14</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -270,15 +270,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>23</xdr:colOff>
+                <xdr:colOff>12</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>-79</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>14</xdr:rowOff>
+                <xdr:colOff>-92</xdr:colOff>
+                <xdr:row>21</xdr:row>
+                <xdr:rowOff>6</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -1097,10 +1097,14 @@
     <t>Client ID</t>
   </si>
   <si>
-    <t>Member discount applies?</t>
-  </si>
-  <si>
-    <t>Bulk discount applies?</t>
+    <t>Member
+discount
+applies?</t>
+  </si>
+  <si>
+    <t>Bulk
+discount
+applies?</t>
   </si>
   <si>
     <t>Account number</t>
@@ -5131,10 +5135,10 @@
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="167" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="18" numFmtId="164" xfId="0">
       <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -5408,7 +5412,7 @@
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00E6E6FF"/>
       <rgbColor rgb="00FF0000"/>
       <rgbColor rgb="0000FF00"/>
       <rgbColor rgb="000000FF"/>
@@ -5426,7 +5430,7 @@
       <rgbColor rgb="009999FF"/>
       <rgbColor rgb="00993366"/>
       <rgbColor rgb="00E6E6E6"/>
-      <rgbColor rgb="00E6E6FF"/>
+      <rgbColor rgb="00CCFFFF"/>
       <rgbColor rgb="00660066"/>
       <rgbColor rgb="00FF8080"/>
       <rgbColor rgb="000066CC"/>
@@ -5480,9 +5484,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.8156862745098"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.6156862745098"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.93333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5550,9 +5554,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5600,9 +5604,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.4274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7294117647059"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5960784313726"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5701,10 +5705,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8941176470588"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0156862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.3058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -6037,18 +6041,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.30196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.65490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.3764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.6078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.3372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.51764705882353"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.07058823529412"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.6"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.3372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.71372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.92156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.6"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.12941176470588"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.5372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.46666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6224,11 +6228,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.4274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9882352941176"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.2117647058824"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.5137254901961"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="12.0901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.3137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6402,13 +6406,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0039215686274"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.4509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.4627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6627,9 +6631,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.6627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6736,16 +6740,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3882352941176"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.0823529411765"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.74901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.67450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.83921568627451"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.54509803921569"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2901960784314"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.83921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.83529411764706"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.71764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.89803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4078431372549"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.87843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="15">
@@ -7172,14 +7176,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9803921568627"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.0901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.7098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.7176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.71372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.0941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8509803921569"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.8705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.75686274509804"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7448,11 +7452,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.7490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0823529411765"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1254901960784"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7521,10 +7525,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.38823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.77647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.81176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9686274509804"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.44705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.81960784313725"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.87058823529412"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7718,10 +7722,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.6313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.6196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.0901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.0941176470588"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7910,9 +7914,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1176470588235"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8050,11 +8054,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5176470588235"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.72549019607843"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.8078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8280,9 +8282,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0980392156863"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.13333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2823529411765"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.20392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8558,10 +8560,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.878431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.7764705882353"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0196078431373"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.76078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8678,18 +8680,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4745098039216"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.8196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.2470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.2313725490196"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5294117647059"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.556862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1882352941176"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6274509803922"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6627450980392"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1" s="86">
@@ -9798,15 +9800,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.721568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9725490196078"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9940,15 +9942,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.5058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.5254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9725490196078"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.1490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1176470588235"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -10079,14 +10081,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1803921568627"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.4117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0823529411765"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2666666666667"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8392156862745"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2941176470588"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -11065,17 +11067,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.278431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.3372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.5529411764706"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.72941176470588"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6823529411765"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11292,9 +11294,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.2588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.83921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5372549019608"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11693,17 +11695,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9411764705882"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.9725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0588235294118"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.0156862745098"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.121568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4823529411765"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1803921568627"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.2470588235294"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.76078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11795,10 +11797,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.2274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.2313725490196"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1450980392157"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.4039215686274"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11897,10 +11899,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.156862745098"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.7490196078431"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.40392156862745"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.1450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.46274509803922"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="105">
@@ -12034,10 +12036,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.23529411764706"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.3490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.29411764705882"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12636,33 +12638,33 @@
   </sheetPr>
   <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="B31" activeCellId="0" pane="topLeft" sqref="B31"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="C35" activeCellId="0" pane="topLeft" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.4078431372549"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.36078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.29019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7176470588235"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.4156862745098"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.12941176470588"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.67843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.95686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.46274509803922"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.34901960784314"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5882352941176"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.74509803921569"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.5019607843137"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.25882352941177"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.39607843137255"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.6509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.43137254901961"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.33333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2705882352941"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.47843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.18039215686275"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.70588235294118"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.98823529411765"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.51764705882353"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.37647058823529"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.7019607843137"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.6039215686275"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.34509803921569"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.47058823529412"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.8627450980392"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.76078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.1" outlineLevel="0" r="1" s="15">
@@ -13022,7 +13024,7 @@
         <v>7.5</v>
       </c>
       <c r="Q6" s="33" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="R6" s="118"/>
       <c r="S6" s="121"/>
@@ -14563,12 +14565,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14634,12 +14635,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -14842,11 +14843,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3294117647059"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.50196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.14117647058824"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.89019607843137"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.1843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -16318,13 +16319,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.3490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16470,10 +16471,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.4941176470588"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.8862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.5137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1176470588235"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.7607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16690,20 +16691,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.53333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.3607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8705882352941"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.9137254901961"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0901960784314"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.57647058823529"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.25098039215686"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9803921568627"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.5607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -17763,13 +17764,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.8196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.2"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1764705882353"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.76862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.2627450980392"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7254901960784"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23254,14 +23255,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.9137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3725490196078"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23416,10 +23417,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0196078431373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.9411764705882"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1490196078431"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8313725490196"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23593,12 +23594,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9960784313725"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.0196078431373"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.6509803921569"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.121568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23661,14 +23662,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="14.956862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.7921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23831,14 +23832,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.478431372549"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.0705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.0862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.9372549019608"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.5176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="14.956862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.721568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.278431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1529411764706"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2117647058824"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.7921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23933,11 +23934,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.7137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.4196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0235294117647"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24081,18 +24082,18 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A2" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
       <selection activeCell="D25" activeCellId="0" pane="topLeft" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5058823529412"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.2862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.9294117647059"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24518,21 +24519,21 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.71372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.1254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.9294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.9333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.47058823529412"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2627450980392"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2823529411765"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0980392156863"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1254901960784"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51372549019608"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0156862745098"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3490196078431"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
@@ -24664,12 +24665,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.8901960784314"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8039215686275"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.29411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.48235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.35294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55294117647059"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
@@ -24773,11 +24774,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1058823529412"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.121568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24965,20 +24966,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.4274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.48235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.51372549019608"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.7647058823529"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="96.1686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.92941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1843137254902"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.55294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.0117647058823"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="96.964705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
@@ -25116,12 +25117,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25193,9 +25193,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.8823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.6274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0549019607843"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.956862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25275,20 +25275,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.5254901960784"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1607843137255"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.58823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.70980392156863"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0627450980392"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1921568627451"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.5686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6313725490196"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.63921568627451"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.78823529411765"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1490196078431"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="1">
@@ -25410,17 +25410,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7450980392157"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.88627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.2196078431373"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8705882352941"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7254901960784"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0666666666667"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.96470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3921568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
@@ -25540,18 +25540,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.85490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.4274509803922"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.48235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.51372549019608"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1921568627451"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.7647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.58823529411765"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.92941176470588"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.55294117647059"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.58039215686275"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.278431372549"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.0117647058823"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
@@ -25759,12 +25759,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.34901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
@@ -25836,10 +25835,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8509803921569"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1607843137255"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25913,9 +25912,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.2352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25992,12 +25991,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0039215686274"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9921568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.8196078431373"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.9058823529412"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26388,13 +26387,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3333333333333"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1960784313725"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.25490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.03137254901961"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.13333333333333"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.32549019607843"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.0901960784314"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.08627450980392"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.20392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26550,12 +26549,12 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.3490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.4823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.9529411764706"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.57647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.14117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5725490196078"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.91372549019608"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6823529411765"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1254901960784"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1843137254902"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -27006,15 +27005,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.9843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.25098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.85490196078431"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.41176470588235"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.05490196078431"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.30588235294118"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.91372549019608"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.48235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
@@ -28276,13 +28275,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.16862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.86274509803922"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.6627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0039215686275"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.42352941176471"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.556862745098"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.92156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -28447,33 +28446,33 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="H9" activeCellId="0" pane="topLeft" sqref="H9"/>
+      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.27450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.8627450980392"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.3098039215686"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.22352941176471"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0588235294118"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.81176470588235"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6039215686275"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.54117647058824"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.81176470588235"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6039215686275"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.74901960784314"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.94901960784314"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.70196078431373"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0078431372549"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.6862745098039"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.478431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.30196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1411764705882"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.88627450980392"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9450980392157"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6901960784314"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.61176470588235"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.88627450980392"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6901960784314"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.01960784313726"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.8274509803922"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.76078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -28581,7 +28580,7 @@
       <c r="X2" s="48"/>
       <c r="AMJ2" s="49"/>
     </row>
-    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="3" s="50">
+    <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="38.75" outlineLevel="0" r="3" s="50">
       <c r="A3" s="50" t="s">
         <v>42</v>
       </c>
@@ -28706,7 +28705,7 @@
         <v>277</v>
       </c>
       <c r="C5" s="56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" s="56" t="n">
         <v>1</v>
@@ -28748,10 +28747,10 @@
         <v>283</v>
       </c>
       <c r="C6" s="56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="55" t="s">
         <v>284</v>
@@ -28907,20 +28906,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.01960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.87843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.678431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5843137254902"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.8392156862745"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.15686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.57647058823529"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.07843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.94901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5254901960784"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7960784313726"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7725490196078"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.0039215686275"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6862745098039"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0313725490196"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.22745098039216"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.64705882352941"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="33" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="593" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="33" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="556" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -98,15 +98,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>3</xdr:colOff>
+                <xdr:colOff>0</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>3</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>9</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>1</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -144,13 +144,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>1</xdr:col>
-                <xdr:colOff>21</xdr:colOff>
+                <xdr:colOff>20</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>-72</xdr:colOff>
+                <xdr:colOff>-74</xdr:colOff>
                 <xdr:row>17</xdr:row>
                 <xdr:rowOff>7</xdr:rowOff>
               </xdr:to>
@@ -190,15 +190,15 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>2</xdr:col>
-                <xdr:colOff>21</xdr:colOff>
+                <xdr:colOff>20</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>50</xdr:colOff>
-                <xdr:row>34</xdr:row>
-                <xdr:rowOff>11</xdr:rowOff>
+                <xdr:colOff>49</xdr:colOff>
+                <xdr:row>35</xdr:row>
+                <xdr:rowOff>2</xdr:rowOff>
               </xdr:to>
             </anchor>
           </commentPr>
@@ -235,13 +235,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>5</xdr:col>
-                <xdr:colOff>19</xdr:colOff>
+                <xdr:colOff>17</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>31</xdr:colOff>
+                <xdr:colOff>28</xdr:colOff>
                 <xdr:row>10</xdr:row>
                 <xdr:rowOff>14</xdr:rowOff>
               </xdr:to>
@@ -270,13 +270,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>14</xdr:col>
-                <xdr:colOff>12</xdr:colOff>
+                <xdr:colOff>6</xdr:colOff>
                 <xdr:row>-1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>15</xdr:col>
-                <xdr:colOff>-92</xdr:colOff>
+                <xdr:colOff>-98</xdr:colOff>
                 <xdr:row>21</xdr:row>
                 <xdr:rowOff>6</xdr:rowOff>
               </xdr:to>
@@ -5484,9 +5484,8 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="97.6156862745098"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.0196078431372"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.93333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="32.05" outlineLevel="0" r="1" s="3">
@@ -5554,9 +5553,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.678431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -5604,9 +5603,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7294117647059"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5960784313726"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8078431372549"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.678431372549"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -5705,10 +5704,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.0156862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.3058823529412"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.5176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.3686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="19.8" outlineLevel="0" r="1" s="5">
@@ -6041,18 +6040,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.38039215686275"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.71372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.92156862745098"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5647058823529"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.4470588235294"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.6"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.12941176470588"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.66666666666667"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.5372549019608"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.46666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.42352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.74117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.94901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.5019607843137"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.63921568627451"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.15686274509804"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.70196078431373"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.6392156862745"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.50196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6228,11 +6227,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.5137254901961"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="12.0901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.3137254901961"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.556862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="12.1411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.3607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.72156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6406,13 +6405,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.5843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.3882352941176"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.4549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6631,9 +6630,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8274509803922"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.443137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -6740,16 +6739,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5019607843137"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.2941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.80392156862745"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.71764705882353"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.89803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4078431372549"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.89803921568628"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.87843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.5607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.4039215686274"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.83529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.73333333333333"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.92549019607843"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.63529411764706"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.4705882352941"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.92549019607843"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.90196078431373"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.2" outlineLevel="0" r="1" s="15">
@@ -7176,14 +7175,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.0941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.2901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.8705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.72941176470588"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3098039215686"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.75686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="13.1450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.9411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.78039215686275"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7452,11 +7451,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1254901960784"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.9372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.2117647058824"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2039215686275"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.0274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.278431372549"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7525,10 +7524,10 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.9686274509804"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.44705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.81960784313725"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.87058823529412"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0352941176471"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.47450980392157"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.83921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.89803921568628"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -7722,10 +7721,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.7607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.0941176470588"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.2901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8274509803922"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="57.3294117647059"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="25.4"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -7914,9 +7913,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.2627450980392"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1176470588235"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3686274509804"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.1882352941176"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8054,9 +8053,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.8078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.85098039215686"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54117647058824"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8282,9 +8283,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2823529411765"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.20392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.3764705882353"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.23921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -8560,10 +8561,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0666666666667"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.0196078431373"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.156862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.1411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -8680,18 +8681,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1882352941176"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6274509803922"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.4745098039216"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4352941176471"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.321568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6235294117647"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.6627450980392"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6980392156863"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5490196078431"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.9803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.5333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.3647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.6745098039216"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="12.7137254901961"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1" s="86">
@@ -9800,15 +9801,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.956862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.83137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -9942,15 +9943,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.68235294117647"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1176470588235"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.3921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.9176470588235"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.956862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.7882352941176"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.7490196078431"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1882352941176"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.5137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="7.83137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.1" outlineLevel="0" r="1" s="86">
@@ -10081,14 +10082,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3098039215686"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.2666666666667"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5803921568627"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.8392156862745"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.2941176470588"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.3725490196078"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5647058823529"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.6235294117647"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9058823529412"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.4039215686274"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="7.83137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1">
@@ -11067,17 +11068,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.6823529411765"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.3921568627451"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.4627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6392156862745"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6509803921569"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.7490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.4156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.83137254901961"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11294,9 +11295,9 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.5372549019608"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8196078431373"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.89803921568628"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.6745098039216"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.8901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.92549019607843"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11695,17 +11696,17 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.121568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.1411764705882"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4823529411765"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1803921568627"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.2470588235294"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.8627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.2156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.2235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3960784313725"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5294117647059"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.2470588235294"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7450980392157"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.3607843137255"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.9" outlineLevel="0" r="1" s="86">
@@ -11797,10 +11798,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1450980392157"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.4039215686274"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.5960784313726"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.278431372549"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.4901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -11895,14 +11896,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="A2" activeCellId="0" pane="topLeft" sqref="A2"/>
+      <selection activeCell="C9" activeCellId="0" pane="topLeft" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5686274509804"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.5490196078431"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.1450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.46274509803922"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6392156862745"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="47.7490196078431"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="48.3450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.49019607843137"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="14.15" outlineLevel="0" r="1" s="105">
@@ -12036,10 +12037,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.3490196078431"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.29411764705882"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.37647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.4549019607843"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.32941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -12638,33 +12639,33 @@
   </sheetPr>
   <dimension ref="1:28"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="C1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="C35" activeCellId="0" pane="topLeft" sqref="C35"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="G1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="J24" activeCellId="0" pane="topLeft" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2117647058824"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.6509803921569"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.43137254901961"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.33333333333333"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.8705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4392156862745"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.2705882352941"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.47843137254902"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.18039215686275"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.76078431372549"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.70588235294118"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.98823529411765"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.51764705882353"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.37647058823529"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.7019607843137"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.83137254901961"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.6039215686275"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6039215686275"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.34509803921569"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.47058823529412"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.8627450980392"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.2980392156863"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.7725490196078"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.47058823529412"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.35686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.9411764705882"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.4823529411765"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.3098039215686"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.50980392156863"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.21176470588235"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.72156862745098"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="4"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.54509803921569"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.3921568627451"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.7529411764706"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.87450980392157"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.6588235294118"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.6509803921569"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.38039215686275"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.50588235294118"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.9058823529412"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.1" outlineLevel="0" r="1" s="15">
@@ -14565,11 +14566,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -14635,12 +14637,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6980392156863"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.7411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -14843,11 +14845,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.6274509803922"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.58823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.89019607843137"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.7803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.62352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.93333333333333"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="24.5" outlineLevel="0" r="1" s="15">
@@ -16319,13 +16321,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.2392156862745"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.5725490196078"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.7921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.56470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3098039215686"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6862745098039"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.8352941176471"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.5843137254902"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16471,10 +16473,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.6823529411765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.1176470588235"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.7607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.7803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.2313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.8823529411765"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -16691,20 +16693,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.57647058823529"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.25098039215686"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3098039215686"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5058823529412"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.9803921568627"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6549019607843"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1921568627451"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5686274509804"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.5607843137255"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.89803921568628"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.59607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.27843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.3529411764706"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5764705882353"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0352941176471"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.2392156862745"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6117647058824"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.6901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.93333333333333"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="15">
@@ -17764,13 +17766,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.5843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.76862745098039"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.3647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.2627450980392"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7254901960784"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.643137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.8078431372549"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.9803921568627"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.4509803921569"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.3058823529412"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.7764705882353"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23255,14 +23257,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.6509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6117647058824"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.9686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7058823529412"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.4901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.756862745098"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6627450980392"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.0352941176471"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.7647058823529"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.5450980392157"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23417,10 +23419,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1490196078431"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8313725490196"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.2117647058824"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.8901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.1333333333333"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23594,12 +23596,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.121568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.5921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1333333333333"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.643137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.5411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.8862745098039"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -23662,14 +23664,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8274509803922"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8862745098039"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.97647058823529"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.82745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23832,14 +23834,14 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.721568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.278431372549"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.2862745098039"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.1529411764706"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.6470588235294"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2117647058824"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.078431372549"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.8470588235294"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.3843137254902"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3882352941176"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2588235294118"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.7098039215686"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="12.2627450980392"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="39" width="15.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.82745098039216"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="15.05" outlineLevel="0" r="1" s="5">
@@ -23934,11 +23936,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.0235294117647"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.9137254901961"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.1019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.0156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.5490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24087,13 +24089,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.6470588235294"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5450980392157"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.72156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.0901960784314"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.7176470588235"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.6823529411765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.75686274509804"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.1686274509804"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24519,21 +24521,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5176470588235"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.2823529411765"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.0980392156863"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.1254901960784"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.51372549019608"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.0156862745098"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.5529411764706"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6117647058824"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3490196078431"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8470588235294"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81960784313726"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.3607843137255"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="23.2196078431373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.53725490196078"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="15.078431372549"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.6039215686275"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.6549019607843"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.3921568627451"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.8980392156863"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="18.85" outlineLevel="0" r="1" s="5">
@@ -24665,12 +24666,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9176470588235"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.35294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.55294117647059"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.82745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.3411764705882"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.9764705882353"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.38039215686275"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.86274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="22.6" outlineLevel="0" r="1" s="5">
@@ -24774,11 +24775,11 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.2901960784314"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2470588235294"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4352941176471"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3098039215686"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.0901960784314"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -24966,20 +24967,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.92941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.1843137254902"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.5882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.55294117647059"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.0117647058823"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="96.964705882353"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.2470588235294"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.6666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="30.1372549019608"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="97.3647058823529"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="25.45" outlineLevel="0" r="1">
@@ -25117,11 +25118,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25193,9 +25195,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0549019607843"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.956862745098"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.121568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25275,20 +25277,20 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0156862745098"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6313725490196"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1411764705882"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7019607843137"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.9686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2627450980392"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.63921568627451"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.78823529411765"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1490196078431"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.6980392156863"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.0627450980392"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.6901960784314"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.7450980392157"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3137254901961"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.67058823529412"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.83137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1921568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.7607843137255"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.4" outlineLevel="0" r="1">
@@ -25410,17 +25412,16 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.8705882352941"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.93333333333333"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.7254901960784"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.0666666666667"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.96470588235294"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3411764705882"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.3921568627451"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.66666666666667"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.9686274509804"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9294117647059"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.1372549019608"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.4"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.443137254902"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.70980392156863"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="12.0196078431373"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="17.9" outlineLevel="0" r="1">
@@ -25540,18 +25541,18 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.92941176470588"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.5882352941176"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.55294117647059"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.58039215686275"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7411764705882"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.278431372549"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.68235294117647"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.0117647058823"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.66666666666667"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.9372549019608"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.97254901960784"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6666666666667"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.5921568627451"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.6078431372549"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.7843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.321568627451"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.72156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="30.1372549019608"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.70980392156863"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="21.65" outlineLevel="0" r="1">
@@ -25759,11 +25760,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.521568627451"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.37647058823529"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.54117647058824"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.5843137254902"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.3921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="26.4" outlineLevel="0" r="1" s="5">
@@ -25835,10 +25837,10 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.8509803921569"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.2666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.2470588235294"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.3294117647059"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25912,9 +25914,9 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.6705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.7490196078431"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -25991,12 +25993,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.1921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.078431372549"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.9058823529412"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.2823529411765"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0705882352941"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.121568627451"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.9490196078431"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26387,13 +26389,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4352941176471"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.3921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.32549019607843"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.0901960784314"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.08627450980392"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.20392156862745"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.4901960784314"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.4901960784314"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.36078431372549"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1411764705882"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.10980392156863"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.23921568627451"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72156862745098"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -26549,12 +26551,12 @@
   </sheetViews>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.5725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.91372549019608"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.6823529411765"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.1254901960784"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.64705882352941"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.1843137254902"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.6862745098039"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.94117647058824"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7882352941176"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.2117647058824"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.68235294117647"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.2078431372549"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="5">
@@ -27005,15 +27007,15 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.05490196078431"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.30588235294118"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.91372549019608"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.3843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.48235294117647"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.09411764705882"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.33725490196078"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.94117647058824"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.4274509803922"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.51764705882353"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="false" ht="44.75" outlineLevel="0" r="1" s="77">
@@ -28275,13 +28277,13 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.89803921568628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.23921568627451"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.556862745098"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.92156862745098"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.7647058823529"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.1450980392157"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.50196078431373"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.93333333333333"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.27450980392157"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.6117647058824"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.94901960784314"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.8196078431373"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.2156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.54509803921569"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="true" ht="13.4" outlineLevel="0" r="1">
@@ -28450,29 +28452,29 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.3921568627451"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1098039215686"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0078431372549"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.6862745098039"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.478431372549"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.30196078431373"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1411764705882"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.88627450980392"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9450980392157"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.6901960784314"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.61176470588235"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.88627450980392"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.63529411764706"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.6901960784314"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.81960784313726"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.01960784313726"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.76078431372549"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.8274509803922"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5019607843137"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.76078431372549"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.4588235294118"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="12.1607843137255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.0862745098039"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.7411764705882"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.5647058823529"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.34509803921569"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.92156862745098"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.9882352941176"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.7333333333333"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.92156862745098"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.66666666666667"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.7333333333333"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.85490196078431"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="9.05490196078431"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.79607843137255"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.8705882352941"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.5529411764706"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.79607843137255"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="41">
@@ -28906,20 +28908,19 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4588235294118"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.07843137254902"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.94901960784314"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.85098039215686"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5254901960784"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.7960784313726"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7725490196078"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.75686274509804"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.0039215686275"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.6862745098039"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.0313725490196"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.79607843137255"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.22745098039216"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.64705882352941"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5019607843137"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.10588235294118"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.89019607843137"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.5686274509804"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.8470588235294"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8196078431373"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.7921568627451"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.0745098039216"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.7411764705882"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="23.1254901960784"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.83137254901961"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.26666666666667"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.68235294117647"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="true" customHeight="true" hidden="true" ht="12.2" outlineLevel="0" r="1" s="15">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="881" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="false" showVerticalScroll="false" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="881" firstSheet="0" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -91,13 +91,34 @@
           <t>The sample type abbreviation must be unique – it is used as prefix to sample records</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>38</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>13</xdr:col>
+                <xdr:colOff>34</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>5</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -116,13 +137,34 @@
 Single Sample Types per Sample Point can be entered 'Sample Points' sheet.</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>197</xdr:colOff>
+                <xdr:row>-1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>25</xdr:colOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>16</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments37.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -141,13 +183,34 @@
 The known outcomes, e.g. 'Positive' or 'Negative',  can be pre-configured here and only these allowed when results are captured. These will be offered as options on a drop-down menu on the data capturing screens'</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>71</xdr:colOff>
+                <xdr:row>-1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>38</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>12</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:v2="http://schemas.openxmlformats.org/spreadsheetml/2006/main/v2" mc:Ignorable="v2">
   <authors>
     <author/>
   </authors>
@@ -165,6 +228,27 @@
           <t>Only if a Client Contact is a LIMS user too, does he/she get given a (unique) user name and password</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>25</xdr:colOff>
+                <xdr:row>14</xdr:row>
+                <xdr:rowOff>8</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>25</xdr:colOff>
+                <xdr:row>25</xdr:row>
+                <xdr:rowOff>15</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
     <comment ref="N3" authorId="0">
       <text>
@@ -179,13 +263,34 @@
           <t>Please copy from other contacts for the same Client on this sheet: Use contact Fullname (Firstname + “ “ + Lastname). If more than one needs to be cc'd, please separate with commas. Only contacts for the same client are valid.</t>
         </r>
       </text>
+      <mc:AlternateContent>
+        <mc:Choice Requires="v2">
+          <commentPr autoFill="true" autoScale="false" colHidden="false" locked="false" rowHidden="false" textHAlign="justify" textVAlign="justify">
+            <anchor moveWithCells="false" sizeWithCells="false">
+              <xdr:from>
+                <xdr:col>17</xdr:col>
+                <xdr:colOff>25</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>12</xdr:rowOff>
+              </xdr:from>
+              <xdr:to>
+                <xdr:col>24</xdr:col>
+                <xdr:colOff>25</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>9</xdr:rowOff>
+              </xdr:to>
+            </anchor>
+          </commentPr>
+        </mc:Choice>
+        <mc:Fallback/>
+      </mc:AlternateContent>
     </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3872" uniqueCount="1557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1559">
   <si>
     <t>Instructions</t>
   </si>
@@ -3644,6 +3749,12 @@
   </si>
   <si>
     <t>Distilled water</t>
+  </si>
+  <si>
+    <t>Trace Metals 9</t>
+  </si>
+  <si>
+    <t>All trace metals (Except Calcium) expected 10 ppm</t>
   </si>
   <si>
     <t>Trace Metals 10</t>
@@ -5939,14 +6050,14 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="96.4129554655871"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.82591093117409"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5996,8 +6107,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6010,14 +6121,14 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6061,14 +6172,14 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O60" activeCellId="0" sqref="O60"/>
+      <selection pane="topLeft" activeCell="O60" activeCellId="1" sqref="A11:E23 O60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3418367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.3400809716599"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6163,15 +6274,15 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="1" sqref="A11:E23 I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.2024291497976"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8380566801619"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="14.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6500,23 +6611,23 @@
   <dimension ref="A1:U4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="A11:E23 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.27040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.84183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.280612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.5765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2908163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.03061224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.56632653061225"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.35714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="9.27125506072875"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="6.61133603238866"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.2793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.5748987854251"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.2914979757085"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="9.47773279352227"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.03238866396761"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="7.57085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="24.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.35627530364373"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6674,8 +6785,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6688,16 +6799,16 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="39" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="11.9392712550607"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="12.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6853,8 +6964,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -6867,18 +6978,18 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A11:E23 B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.72959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="22.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.72874493927126"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.3765182186235"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.1983805668016"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7093,14 +7204,14 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2397959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7203,21 +7314,21 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.72959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.64285714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.81122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.51530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2295918367347"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.81122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.80612244897959"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.3238866396761"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9716599190283"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.72874493927126"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.64372469635628"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="6.81376518218624"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.51417004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.2307692307692"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="6.81376518218624"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.80566801619433"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7640,19 +7751,19 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9897959183673"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6377551020408"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.64285714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.69897959183674"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="12.9311740890688"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.9878542510121"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="17.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.63967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1902834008097"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.7004048582996"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7910,7 +8021,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" error="Please select a valid entry from the list" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid  Sample Type for this Sample Point from the list. The list is maintained on the 'Sample Types' sheet.  If more than one Sample Type can be sampled at this Sample Point, please add entriies for the combination in the next sheet, 'Sample Point Sample Types'." promptTitle="Select a Sample Type for this Sample Point" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4:H15" type="list">
-      <formula1>'Sample Types'!$A$4:$A$156</formula1>
+      <formula1>'sample types'!$a$4:$a$156</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -7935,16 +8046,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0204081632653"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.12244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.6518218623482"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.0161943319838"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="5.12145748987854"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8008,16 +8119,16 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="A11:E23 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7755102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.78571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.7732793522267"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.36437246963563"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="4.74898785425101"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="6.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8244,15 +8355,15 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5714285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.3928571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="56.3927125506073"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.9878542510121"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8437,14 +8548,14 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.9028340080972"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8578,16 +8689,16 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.68367346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4540816326531"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.68367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="9.68421052631579"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.4534412955466"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="9.68421052631579"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="16.7813765182186"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8809,14 +8920,14 @@
   <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+      <selection pane="topLeft" activeCell="A25" activeCellId="1" sqref="A11:E23 A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.0051020408163"/>
-    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9088,15 +9199,15 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7857142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.7894736842105"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.6518218623482"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="7.70445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="7.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9195,8 +9306,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -9209,32 +9320,32 @@
   <dimension ref="A1:V65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="A11:E23 B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4030612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1530612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1887755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.484693877551"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7448979591837"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4285714285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.9948979591837"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.2448979591837"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5714285714286"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1581632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.2448979591837"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.3316326530612"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8785425101215"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.4048582995951"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2591093117409"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.7611336032389"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.1538461538462"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.1902834008097"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.4817813765182"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="21.4655870445344"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="19.7449392712551"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="14.7246963562753"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="19.4331983805668"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.246963562753"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.1578947368421"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="22.246963562753"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="18.331983805668"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.9392712550607"/>
+    <col collapsed="false" hidden="false" max="1025" min="21" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="26.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10579,24 +10690,24 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="1" sqref="A11:E23 I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6020408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.9183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9030612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.530612244898"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.5969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0612244897959"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.0714285714286"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.70408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.6315789473684"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.919028340081"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.2955465587045"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.4372469635628"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9028340080972"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.5263157894737"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="32.5910931174089"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.0607287449393"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="25.0728744939271"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="38.7044534412955"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="7.70445344129555"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="20.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10756,8 +10867,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10770,23 +10881,23 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55612244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5612244897959"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7040816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.5816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7908163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.70408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.5222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7246963562753"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.7692307692308"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.55465587044534"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.5627530364372"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7004048582996"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.578947368421"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.0202429149798"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.7854251012146"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.5101214574899"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="35.5789473684211"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="7.70445344129555"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10939,8 +11050,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -10952,19 +11063,19 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D28" activeCellId="1" sqref="A11:E23 D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8214285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.0769230769231"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.2550607287449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0404858299595"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.8218623481781"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.9595141700405"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5182186234818"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11077,8 +11188,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Pàgina &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Pàgina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11091,22 +11202,22 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
+      <selection pane="topLeft" activeCell="O26" activeCellId="1" sqref="A11:E23 O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.015306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.0816326530612"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.7244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9336734693878"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.1174089068826"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0161943319838"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8825910931174"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3684210526316"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.4493927125506"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.080971659919"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.7246963562753"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.9352226720648"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.2955465587045"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70445344129555"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11946,8 +12057,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11960,15 +12071,15 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1275510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.81122448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.1295546558704"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.81376518218624"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12363,22 +12474,22 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="A11:E23 G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.219387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1785714285714"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4897959183673"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.3265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70408163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.2186234817814"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3400809716599"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="7.70445344129555"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.1821862348178"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="15.4898785425101"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="5.32793522267207"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="7.70445344129555"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12576,8 +12687,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12590,22 +12701,22 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5663265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9081632653061"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.8582995951417"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.8866396761134"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.2348178137652"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.3400809716599"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5546558704453"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="27.9068825910931"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="0" width="7.70445344129555"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="7.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" s="87" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12679,8 +12790,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12693,15 +12804,15 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.7287449392713"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="21.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12796,15 +12907,15 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9591836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.38265306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="47.5546558704454"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="6.38461538461539"/>
   </cols>
   <sheetData>
     <row r="1" s="132" customFormat="true" ht="14.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12934,15 +13045,15 @@
   <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.33673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="25.0364372469636"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="3.33603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13542,33 +13653,33 @@
   <dimension ref="1:28"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+      <selection pane="topLeft" activeCell="R3" activeCellId="1" sqref="A11:E23 R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.2857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.3265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.28061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3112244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1428571428571"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.37755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.11224489795918"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.66836734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.66326530612245"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.94387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.43367346938776"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.33673469387755"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5357142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4336734693878"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4540816326531"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.21428571428571"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36224489795918"/>
-    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7295918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.9433198380567"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="29.2874493927125"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.32793522267206"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="5.27935222672065"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="17.6477732793522"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.1417004048583"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="7.37651821862348"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="6.11336032388664"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.66801619433198"/>
+    <col collapsed="false" hidden="false" max="14" min="12" style="0" width="3.66396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="3.94331983805668"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="6.4331983805668"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="3.33603238866397"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="13.5344129554656"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="9.69635627530364"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="13.4331983805668"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="11.4534412955466"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.21052631578947"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="8.36437246963563"/>
+    <col collapsed="false" hidden="false" max="25" min="24" style="0" width="10.7246963562753"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="7.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15465,17 +15576,17 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2145748987854"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15537,17 +15648,17 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6530612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3469387755102"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.12244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.5748987854251"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3481781376518"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="5.12145748987854"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15746,16 +15857,16 @@
   <dimension ref="1:103"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.46938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.77551020408163"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.12244897959184"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.1781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.46963562753036"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.77732793522267"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="5.12145748987854"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17223,18 +17334,18 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A11:E23 D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.5"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.0242914979757"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2348178137652"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="10.6558704453441"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.49797570850202"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17376,25 +17487,25 @@
   <dimension ref="A1:Y89"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="1" sqref="A11:E23 F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.51530612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.16326530612245"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2857142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.81122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8265306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8724489795918"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5408163265306"/>
-    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0408163265306"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4387755102041"/>
-    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.1683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.79081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.51417004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7.16194331983806"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.1902834008097"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.2874493927125"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.81376518218623"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="12.8259109311741"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.8704453441296"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.5425101214575"/>
+    <col collapsed="false" hidden="false" max="12" min="10" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.0404858299595"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.4412955465587"/>
+    <col collapsed="false" hidden="false" max="16" min="15" style="0" width="30.17004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="17" style="0" width="8.78947368421053"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18450,15 +18561,15 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.3928571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.7732793522267"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="29.3927125506073"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18671,18 +18782,18 @@
   <dimension ref="A1:I259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="M15" activeCellId="1" sqref="A11:E23 M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63775510204082"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1122448979592"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1326530612245"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.5816326530612"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.3967611336032"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.63967611336032"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.7611336032389"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="20.1174089068826"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="10.1336032388664"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.582995951417"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24163,19 +24274,19 @@
   <dimension ref="1:5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.3316326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.5051020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="10.8704453441296"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4777327935223"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.7732793522267"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.502024291498"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="13.3198380566802"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24326,15 +24437,15 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6632653061225"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.9554655870445"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.6599190283401"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8744939271255"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24504,17 +24615,17 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4438775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3316326530612"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.9271255060729"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.4453441295547"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.331983805668"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5748987854251"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24570,19 +24681,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A11:E23 A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.780612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.4132653061224"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6072874493927"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.3765182186235"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="11.412955465587"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -24668,21 +24779,53 @@
         <v>41184</v>
       </c>
       <c r="F5" s="118" t="n">
+        <v>42279</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="66" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C6" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="118" t="n">
+        <v>41184</v>
+      </c>
+      <c r="F6" s="118" t="n">
         <v>41914</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:F5" type="date">
+  <dataValidations count="6">
+    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:F4 E6:F6" type="date">
       <formula1>oan2/1/1</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Hazardous?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C5" type="list">
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Hazardous?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4 C6" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is it a Blank with expected results of 0?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5" type="list">
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is it a Blank with expected results of 0?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4 D6" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Hazardous?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C5" type="list">
+      <formula1>Setup!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false) from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false) from the drop-down menu" promptTitle="Is it a Blank with expected results of 0?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D5" type="list">
+      <formula1>Setup!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" error="Not a date" errorTitle="Invalid entry" operator="greaterThan" prompt="After 1 Jan 2012. Expected format is YYYY/MM/DD" promptTitle="Please enter a date" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E5:F5" type="date">
+      <formula1>2012/1/1</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -24704,32 +24847,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1581632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.61224489795918"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8520408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="17.4331983805668"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.1578947368421"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.61133603238866"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1106</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1107</v>
@@ -24740,7 +24883,7 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -24752,7 +24895,7 @@
         <v>1111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1112</v>
@@ -24892,7 +25035,7 @@
         <v>1153</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>1002</v>
+        <v>1011</v>
       </c>
       <c r="C11" s="66" t="n">
         <v>10</v>
@@ -24909,7 +25052,7 @@
         <v>1153</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="C12" s="66" t="n">
         <v>10</v>
@@ -24926,7 +25069,7 @@
         <v>1153</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
       <c r="C13" s="66" t="n">
         <v>10</v>
@@ -24943,7 +25086,7 @@
         <v>1153</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
       <c r="C14" s="66" t="n">
         <v>10</v>
@@ -24960,7 +25103,7 @@
         <v>1153</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="C15" s="66" t="n">
         <v>10</v>
@@ -24977,7 +25120,7 @@
         <v>1153</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>1028</v>
+        <v>1036</v>
       </c>
       <c r="C16" s="66" t="n">
         <v>10</v>
@@ -24991,10 +25134,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="84" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>1036</v>
+        <v>1002</v>
       </c>
       <c r="C17" s="66" t="n">
         <v>10</v>
@@ -25006,14 +25149,124 @@
         <v>11</v>
       </c>
     </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B18" s="153" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C18" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D18" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E18" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C19" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D19" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E19" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B20" s="153" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C20" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D20" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E20" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B21" s="153" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C21" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E21" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B22" s="153" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C22" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D22" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E22" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="84" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B23" s="153" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C23" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="E23" s="66" t="n">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B17" type="list">
+  <dataValidations count="4">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B10 B17:B23" type="list">
       <formula1>'Analysis Services'!$A$4:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Reference Definitions' sheet" promptTitle="Select a valid Reference Definition" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A17" type="list">
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Reference Definitions' sheet" promptTitle="Select a valid Reference Definition" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A10 A17:A23" type="list">
       <formula1>'Reference Definitions'!$A$4:$A$241</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Reference Definitions' sheet" promptTitle="Select a valid Reference Definition" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A11:A16" type="list">
+      <formula1>'AR Template Partitions'!$A$4:$A$241</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:B16" type="list">
+      <formula1>'Calculation Interim Fields'!$A$4:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -25038,43 +25291,43 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A11:E23 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8520408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.44387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8418367346939"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.81122448979592"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.4132653061224"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4744897959184"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.719387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.72064777327935"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.0404858299595"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.8461538461538"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.8502024291498"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="5.44939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="14.8380566801619"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="9.81376518218623"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.412955465587"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="10.4777327935223"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.2186234817814"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="11.7206477732794"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>208</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>1142</v>
@@ -25083,28 +25336,28 @@
         <v>483</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>1144</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>825</v>
@@ -25112,13 +25365,13 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
@@ -25127,10 +25380,10 @@
         <v>656</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>1142</v>
@@ -25139,28 +25392,28 @@
         <v>483</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>825</v>
@@ -25185,28 +25438,28 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.27040816326531"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.71938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.7368421052632"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.7408906882591"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.27125506072875"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.72064777327935"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>1107</v>
@@ -25217,19 +25470,19 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1111</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1112</v>
@@ -25295,71 +25548,71 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A11:E23 A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0102040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.48979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.70408163265306"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.6428571428571"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.7704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0121457489879"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="7.48987854251012"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6113360323887"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="29.6437246963563"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="95.7732793522267"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>1182</v>
-      </c>
       <c r="E1" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>817</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25367,31 +25620,31 @@
         <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>1133</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>817</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25433,8 +25686,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25447,16 +25700,16 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E51" activeCellId="0" sqref="E51"/>
+      <selection pane="topLeft" activeCell="E51" activeCellId="1" sqref="A11:E23 E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0102040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2348178137652"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.0080971659919"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8987854251012"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25640,22 +25893,22 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2145748987854"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>937</v>
@@ -25675,7 +25928,7 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -25704,8 +25957,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25718,14 +25971,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A11:E23 A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7935222672065"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4615384615385"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -25738,7 +25991,7 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -25752,34 +26005,34 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="66" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
       <c r="B5" s="66" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="66" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
       <c r="B6" s="66" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="66" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
       <c r="B7" s="66" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
   </sheetData>
@@ -25801,66 +26054,66 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="A11:E23 E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8826530612245"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8265306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6122448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1122448979592"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.56122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66326530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0255102040816"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1479591836735"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.4948979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.8825910931174"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="13.4736842105263"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.9919028340081"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.5546558704453"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="11.8259109311741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="10.6113360323887"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.1133603238866"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.56275303643725"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.66396761133603"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.0242914979757"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="15.497975708502"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="66" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="66" t="s">
         <v>302</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>528</v>
       </c>
       <c r="K1" s="66" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>825</v>
@@ -25868,49 +26121,49 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="154" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>439</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>528</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>825</v>
@@ -25923,8 +26176,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -25937,63 +26190,63 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A11:E23 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.81122448979592"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.8469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1632653061225"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2397959183673"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.54591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.6882591093117"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.81376518218623"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.5263157894737"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8663967611336"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.84615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.1619433198381"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="12.2388663967611"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.54655870445344"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="11.8259109311741"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="66" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
       <c r="C1" s="66" t="s">
         <v>302</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
       <c r="E1" s="66" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
       <c r="G1" s="66" t="s">
         <v>1121</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
       <c r="J1" s="66" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="K1" s="66" t="s">
         <v>963</v>
       </c>
       <c r="L1" s="66" t="s">
-        <v>1165</v>
+        <v>1167</v>
       </c>
       <c r="M1" s="66" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="N1" s="66" t="s">
         <v>825</v>
@@ -26001,49 +26254,49 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>439</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>825</v>
@@ -26054,8 +26307,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26068,55 +26321,55 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A11:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.82142857142857"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3520408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.44897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.48979591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6122448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70408163265306"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.5765306122449"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.6428571428571"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6153846153846"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.81781376518219"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="8.44939271255061"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="7.48987854251012"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.6113360323887"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="11.1457489878543"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.5748987854251"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="29.6437246963563"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.54655870445344"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>936</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>817</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>966</v>
@@ -26144,7 +26397,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1133</v>
@@ -26153,31 +26406,31 @@
         <v>936</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1158</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>817</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26274,8 +26527,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26288,22 +26541,22 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A11:E23 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86224489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.2145748987854"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.86234817813765"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3481781376518"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="3.33603238866397"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>937</v>
@@ -26323,13 +26576,13 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>942</v>
@@ -26352,8 +26605,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Normal"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Normal"&amp;10Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -26366,15 +26619,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.9132653061224"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.914979757085"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.0769230769231"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26390,7 +26643,7 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -26407,10 +26660,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="66" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="66" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="C4" s="155" t="s">
         <v>652</v>
@@ -26444,19 +26697,19 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A11:E23 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1632653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.1619433198381"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.4372469635628"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1106</v>
@@ -26464,13 +26717,13 @@
     </row>
     <row r="2" s="37" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>1133</v>
@@ -26478,7 +26731,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="84" t="s">
         <v>1002</v>
@@ -26486,7 +26739,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="84" t="s">
         <v>1015</v>
@@ -26524,68 +26777,68 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8010204081633"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9540816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7704081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.8016194331984"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="10.9554655870445"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="10.7692307692308"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>881</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="2" s="37" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>654</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>1</v>
@@ -26601,29 +26854,29 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D5" s="84"/>
       <c r="E5" s="84" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F5" s="84"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D6" s="84"/>
       <c r="E6" s="84"/>
@@ -26631,13 +26884,13 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D7" s="84"/>
       <c r="E7" s="84"/>
@@ -26645,13 +26898,13 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D8" s="84"/>
       <c r="E8" s="84"/>
@@ -26659,13 +26912,13 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B9" s="8" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D9" s="84"/>
       <c r="E9" s="84"/>
@@ -26673,13 +26926,13 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B10" s="8" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D10" s="84"/>
       <c r="E10" s="84"/>
@@ -26687,13 +26940,13 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B11" s="8" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D11" s="84"/>
       <c r="E11" s="84"/>
@@ -26701,13 +26954,13 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B12" s="8" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D12" s="84"/>
       <c r="E12" s="84"/>
@@ -26715,13 +26968,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="155" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B13" s="8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C13" s="84" t="s">
         <v>1248</v>
-      </c>
-      <c r="B13" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C13" s="84" t="s">
-        <v>1246</v>
       </c>
       <c r="D13" s="84"/>
       <c r="E13" s="84"/>
@@ -26729,13 +26982,13 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B14" s="8" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D14" s="84"/>
       <c r="E14" s="84"/>
@@ -26743,13 +26996,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B15" s="8" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D15" s="84"/>
       <c r="E15" s="84"/>
@@ -26757,13 +27010,13 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B16" s="8" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D16" s="84"/>
       <c r="E16" s="84"/>
@@ -26771,13 +27024,13 @@
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B17" s="8" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D17" s="84"/>
       <c r="E17" s="84"/>
@@ -26785,13 +27038,13 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B18" s="8" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D18" s="84"/>
       <c r="E18" s="84"/>
@@ -26799,13 +27052,13 @@
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B19" s="8" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D19" s="84"/>
       <c r="E19" s="84"/>
@@ -26813,13 +27066,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B20" s="8" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D20" s="84"/>
       <c r="E20" s="84"/>
@@ -26827,13 +27080,13 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B21" s="8" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="D21" s="84"/>
       <c r="E21" s="84"/>
@@ -26843,23 +27096,23 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B22" s="8" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="D22" s="84"/>
       <c r="E22" s="84" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="F22" s="84"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="155" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="B23" s="8" t="n">
         <v>20</v>
@@ -26921,18 +27174,18 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="A11:E23 B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.83163265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.54081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.12244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.2348178137652"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="6.82591093117409"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.3724696356275"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.8663967611336"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="8.54251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="5.12145748987854"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26948,7 +27201,7 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
       <c r="C2" s="157"/>
     </row>
@@ -26965,10 +27218,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
       <c r="C4" s="158" t="n">
         <v>0</v>
@@ -26976,10 +27229,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="B5" s="137" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="C5" s="158" t="n">
         <v>0</v>
@@ -26987,21 +27240,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C6" s="158" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="B7" s="137" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="C7" s="159" t="n">
         <v>1</v>
@@ -27009,10 +27262,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="B8" s="137" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
       <c r="C8" s="159" t="n">
         <v>1</v>
@@ -27020,10 +27273,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="B9" s="137" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
       <c r="C9" s="158" t="n">
         <v>15</v>
@@ -27034,7 +27287,7 @@
         <v>226</v>
       </c>
       <c r="B10" s="137" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
       <c r="C10" s="158" t="n">
         <v>14</v>
@@ -27042,10 +27295,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
       <c r="B11" s="137" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
       <c r="C11" s="158" t="n">
         <v>5</v>
@@ -27053,10 +27306,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
       <c r="B12" s="137" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="C12" s="158" t="n">
         <v>5</v>
@@ -27064,10 +27317,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
       <c r="B13" s="137" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
       <c r="C13" s="158" t="n">
         <v>4</v>
@@ -27075,19 +27328,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="C14" s="158"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
       <c r="C15" s="159" t="n">
         <v>0</v>
@@ -27095,10 +27348,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
       <c r="B16" s="137" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="C16" s="159" t="n">
         <v>1</v>
@@ -27106,10 +27359,10 @@
     </row>
     <row r="17" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
       <c r="B17" s="137" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
       <c r="C17" s="160" t="s">
         <v>930</v>
@@ -27117,22 +27370,22 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
       <c r="B18" s="137" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
       <c r="C18" s="161" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D18" s="162"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
       <c r="B19" s="137" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
       <c r="C19" s="160" t="s">
         <v>322</v>
@@ -27141,10 +27394,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
       <c r="B20" s="137" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="C20" s="160" t="s">
         <v>322</v>
@@ -27152,10 +27405,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
       <c r="B21" s="137" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
       <c r="C21" s="161" t="n">
         <v>30</v>
@@ -27163,10 +27416,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
       <c r="C22" s="161" t="n">
         <v>0</v>
@@ -27174,10 +27427,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
       <c r="B23" s="137" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="C23" s="161" t="n">
         <v>0</v>
@@ -27185,33 +27438,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
       <c r="B24" s="137" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="C24" s="160" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D24" s="163"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="B25" s="137" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="C25" s="160" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
       <c r="B26" s="137" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="C26" s="159" t="n">
         <v>0</v>
@@ -27219,21 +27472,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="B27" s="137" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="C27" s="158" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="B28" s="137" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
       <c r="C28" s="158" t="n">
         <v>2</v>
@@ -27241,10 +27494,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
       <c r="B29" s="137" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
       <c r="C29" s="159" t="n">
         <v>0</v>
@@ -27252,10 +27505,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="B30" s="137" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
       <c r="C30" s="158"/>
     </row>
@@ -27379,18 +27632,18 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2908163265306"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.20918367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9438775510204"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.01020408163265"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.5765306122449"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.2914979757085"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1174089068826"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="39" width="8.21052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="39" width="11.9392712550607"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="39" width="6.01214574898785"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="39" width="8.09716599190283"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27527,8 +27780,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -27541,20 +27794,20 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A11:E23 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.93877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21938775510204"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68367346938776"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.70408163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.83163265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2704081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37755102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.93927125506073"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.21862348178138"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="6.82591093117409"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.2672064777328"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.37651821862348"/>
   </cols>
   <sheetData>
     <row r="1" s="77" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27565,28 +27818,28 @@
         <v>125</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
       <c r="G1" s="165" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>979</v>
@@ -27595,34 +27848,34 @@
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="32" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>184</v>
       </c>
       <c r="C2" s="137" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
       <c r="D2" s="137" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="E2" s="166" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="F2" s="137" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="G2" s="137" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="137" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="I2" s="137" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="J2" s="137" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="K2" s="137" t="s">
         <v>996</v>
@@ -27630,34 +27883,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="137" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
       <c r="D3" s="137" t="s">
         <v>322</v>
       </c>
       <c r="E3" s="166" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
       <c r="F3" s="137" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="G3" s="137" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="137" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
       <c r="I3" s="137" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="137" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="K3" s="137" t="s">
         <v>1004</v>
@@ -27665,19 +27918,19 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C4" s="137" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="D4" s="137" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F4" s="137" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G4" s="166"/>
       <c r="H4" s="137" t="s">
@@ -27695,10 +27948,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G6" s="166"/>
     </row>
@@ -27713,10 +27966,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G8" s="166"/>
     </row>
@@ -27769,39 +28022,39 @@
     </row>
     <row r="21" s="170" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="77" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="B21" s="78" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="E21" s="169" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="171" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="B22" s="137" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="C22" s="137" t="s">
         <v>1135</v>
@@ -27810,10 +28063,10 @@
         <v>1142</v>
       </c>
       <c r="E22" s="166" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="F22" s="137" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
       <c r="G22" s="137" t="s">
         <v>891</v>
@@ -27827,19 +28080,19 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="137" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="C23" s="137" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="D23" s="137" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
       <c r="E23" s="166" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
       <c r="F23" s="137" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="G23" s="137" t="s">
         <v>898</v>
@@ -27848,21 +28101,21 @@
         <v>898</v>
       </c>
       <c r="I23" s="137" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="137" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
       <c r="C24" s="137" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="D24" s="137" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="F24" s="137" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="G24" s="137" t="s">
         <v>895</v>
@@ -27871,926 +28124,926 @@
         <v>895</v>
       </c>
       <c r="I24" s="137" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="137" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
       <c r="C25" s="137" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
       <c r="D25" s="137" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="H25" s="137" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
       <c r="I25" s="137" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="137" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
       <c r="C26" s="137" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
       <c r="H26" s="137" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="137" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
       <c r="C27" s="137" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="137" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="C28" s="137" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="137" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
       <c r="C29" s="137" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="137" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C30" s="137" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="137" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
       <c r="C31" s="137" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="137" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
       <c r="C32" s="137" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="137" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="C33" s="137" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="137" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="137" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="137" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="137" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="137" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="137" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="137" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="137" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="137" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="137" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="137" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="137" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="137" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="137" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="137" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="137" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="137" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="137" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="137" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="137" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="137" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="137" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="137" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="137" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="137" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="137" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="137" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="137" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="137" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="137" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="137" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="137" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="137" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="137" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="137" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="137" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="137" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="137" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="137" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="137" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="137" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="137" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="137" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="137" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="137" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="137" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="137" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="137" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="137" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="137" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="137" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="137" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="137" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="137" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="137" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="137" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="137" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="137" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="137" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="137" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="137" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="137" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="137" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="137" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="137" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="137" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="137" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="137" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="137" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="137" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="137" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="137" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="137" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="137" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="137" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="137" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="137" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="137" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="137" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="137" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="137" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="137" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="137" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="137" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="137" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="137" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="137" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="137" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="137" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="137" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="137" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="137" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="137" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="137" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="137" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="137" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="137" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="137" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="137" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="137" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="137" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="137" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="137" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="137" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="137" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="137" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="137" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="137" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="137" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="137" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="137" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="137" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="137" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="137" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="137" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="137" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="137" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="137" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="137" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="137" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="137" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="137" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="137" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="137" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="137" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="137" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="137" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="137" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="137" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="137" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="137" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="137" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="137" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="137" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="137" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="137" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="137" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="137" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="137" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="137" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="137" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="137" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="137" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="137" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="137" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="137" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="137" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="137" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="137" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="137" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="137" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="137" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="137" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="137" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="137" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="137" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="137" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="137" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="137" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="137" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="137" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="137" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="137" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="137" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="137" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="137" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="137" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
   </sheetData>
@@ -28798,8 +29051,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -28812,18 +29065,18 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H52" activeCellId="0" sqref="H52"/>
+      <selection pane="topLeft" activeCell="H52" activeCellId="1" sqref="A11:E23 H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.79081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.14285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4030612244898"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.84183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.39795918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.78947368421053"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.1417004048583"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.4048582995951"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="6.8421052631579"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.5991902834008"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="40" width="9.39676113360324"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28974,8 +29227,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -28988,34 +29241,34 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A11:E23 H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.780612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.219387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7959183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.015306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7959183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.54081632653061"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5561224489796"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.70408163265306"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.90816326530612"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.66836734693878"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6938775510204"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="16.1983805668016"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.68421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.24291497975709"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="12.5263157894737"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.2186234817814"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.7975708502024"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.17813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.0202429149798"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="8.77732793522267"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="11.7975708502024"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="10.5546558704453"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="8.50607287449393"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="8.77732793522267"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="7.54251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="10.5546558704453"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="8.70445344129555"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="8.90688259109312"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="7.66801619433198"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="10.6923076923077"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="11.3684210526316"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="7.66801619433198"/>
   </cols>
   <sheetData>
     <row r="1" s="41" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29445,25 +29698,25 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O11" activeCellId="0" sqref="O11"/>
+      <selection pane="topLeft" activeCell="O11" activeCellId="1" sqref="A11:E23 O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3214285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3198380566802"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="7"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.83673469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.72959183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6530612244898"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6377551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.64795918367347"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5255102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.734693877551"/>
-    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.12755102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.54081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.8421052631579"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="9.7246963562753"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="11.6558704453441"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="9" style="0" width="8.64777327935223"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.7813765182186"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="12.5263157894737"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.7287449392713"/>
+    <col collapsed="false" hidden="false" max="26" min="16" style="0" width="7.70445344129555"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="9.12550607287449"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="8.54251012145749"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="943" firstSheet="0" activeTab="34"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="415" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -99,13 +99,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>47</xdr:colOff>
+                <xdr:colOff>54</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>13</xdr:col>
-                <xdr:colOff>43</xdr:colOff>
+                <xdr:colOff>49</xdr:colOff>
                 <xdr:row>2</xdr:row>
                 <xdr:rowOff>5</xdr:rowOff>
               </xdr:to>
@@ -236,13 +236,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>34</xdr:colOff>
+                <xdr:colOff>39</xdr:colOff>
                 <xdr:row>14</xdr:row>
-                <xdr:rowOff>5</xdr:rowOff>
+                <xdr:rowOff>4</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>9</xdr:col>
-                <xdr:colOff>34</xdr:colOff>
+                <xdr:colOff>39</xdr:colOff>
                 <xdr:row>25</xdr:row>
                 <xdr:rowOff>12</xdr:rowOff>
               </xdr:to>
@@ -271,13 +271,13 @@
             <anchor moveWithCells="false" sizeWithCells="false">
               <xdr:from>
                 <xdr:col>17</xdr:col>
-                <xdr:colOff>34</xdr:colOff>
+                <xdr:colOff>39</xdr:colOff>
                 <xdr:row>6</xdr:row>
                 <xdr:rowOff>9</xdr:rowOff>
               </xdr:from>
               <xdr:to>
                 <xdr:col>24</xdr:col>
-                <xdr:colOff>34</xdr:colOff>
+                <xdr:colOff>39</xdr:colOff>
                 <xdr:row>12</xdr:row>
                 <xdr:rowOff>6</xdr:rowOff>
               </xdr:to>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="1578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3917" uniqueCount="1583">
   <si>
     <t>Instructions</t>
   </si>
@@ -4224,6 +4224,12 @@
     <t>Sampling workflow enabled?</t>
   </si>
   <si>
+    <t>ScheduleSamplingEnabled</t>
+  </si>
+  <si>
+    <t>Schedule Sampling workflow enabled</t>
+  </si>
+  <si>
     <t>CategoriseAnalysisServices</t>
   </si>
   <si>
@@ -4324,6 +4330,15 @@
   </si>
   <si>
     <t>Id server url</t>
+  </si>
+  <si>
+    <t>DefaultCountry</t>
+  </si>
+  <si>
+    <t>Default Country</t>
+  </si>
+  <si>
+    <t>ZA</t>
   </si>
   <si>
     <t>AR Import options</t>
@@ -5340,7 +5355,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6017,6 +6032,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6128,8 +6147,8 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -13600,7 +13619,7 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L33" activeCellId="0" sqref="L33"/>
     </sheetView>
   </sheetViews>
@@ -27790,10 +27809,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -27973,41 +27992,40 @@
         <v>1311</v>
       </c>
       <c r="C16" s="164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
         <v>1312</v>
       </c>
       <c r="B17" s="142" t="s">
         <v>1313</v>
       </c>
-      <c r="C17" s="165" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C17" s="164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
         <v>1314</v>
       </c>
       <c r="B18" s="142" t="s">
         <v>1315</v>
       </c>
-      <c r="C18" s="166" t="s">
-        <v>1316</v>
-      </c>
-      <c r="D18" s="167"/>
+      <c r="C18" s="165" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B19" s="142" t="s">
         <v>1317</v>
       </c>
-      <c r="B19" s="142" t="s">
+      <c r="C19" s="166" t="s">
         <v>1318</v>
-      </c>
-      <c r="C19" s="165" t="s">
-        <v>322</v>
       </c>
       <c r="D19" s="167"/>
     </row>
@@ -28021,6 +28039,7 @@
       <c r="C20" s="165" t="s">
         <v>322</v>
       </c>
+      <c r="D20" s="167"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -28029,8 +28048,8 @@
       <c r="B21" s="142" t="s">
         <v>1322</v>
       </c>
-      <c r="C21" s="166" t="n">
-        <v>30</v>
+      <c r="C21" s="165" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28041,7 +28060,7 @@
         <v>1324</v>
       </c>
       <c r="C22" s="166" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28062,53 +28081,53 @@
       <c r="B24" s="142" t="s">
         <v>1328</v>
       </c>
-      <c r="C24" s="165" t="s">
-        <v>1329</v>
-      </c>
-      <c r="D24" s="168"/>
+      <c r="C24" s="166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B25" s="142" t="s">
         <v>1330</v>
       </c>
-      <c r="B25" s="142" t="s">
+      <c r="C25" s="165" t="s">
         <v>1331</v>
       </c>
-      <c r="C25" s="165" t="s">
+      <c r="D25" s="168"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>1332</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="142" t="s">
         <v>1333</v>
       </c>
-      <c r="B26" s="142" t="s">
+      <c r="C26" s="165" t="s">
         <v>1334</v>
       </c>
-      <c r="C26" s="164" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
         <v>1335</v>
       </c>
       <c r="B27" s="142" t="s">
         <v>1336</v>
       </c>
-      <c r="C27" s="163" t="s">
-        <v>1337</v>
+      <c r="C27" s="164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B28" s="142" t="s">
         <v>1338</v>
       </c>
-      <c r="B28" s="142" t="s">
+      <c r="C28" s="163" t="s">
         <v>1339</v>
-      </c>
-      <c r="C28" s="163" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28118,8 +28137,8 @@
       <c r="B29" s="142" t="s">
         <v>1341</v>
       </c>
-      <c r="C29" s="164" t="n">
-        <v>0</v>
+      <c r="C29" s="163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28129,23 +28148,45 @@
       <c r="B30" s="142" t="s">
         <v>1343</v>
       </c>
-      <c r="C30" s="163"/>
+      <c r="C30" s="164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="5" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B31" s="142" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C31" s="163"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B32" s="142" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C32" s="169" t="s">
+        <v>1348</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="24">
-    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7:C8 C15:C16 C26 C29" type="list">
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7:C8 C15:C17 C27 C30" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C22" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 23" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 23" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
       <formula1>0</formula1>
       <formula2>23</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C23" type="whole">
+    <dataValidation allowBlank="true" error="Please enter a whole number between 0 and 59" errorTitle="Invalid data" operator="between" prompt="Please enter a whole number between 0 and 59" promptTitle="Valid entries" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="whole">
       <formula1>0</formula1>
       <formula2>59</formula2>
     </dataValidation>
@@ -28185,47 +28226,47 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining dry matter. Please select a valid entry from the drop-down menu" promptTitle="Dry Matter Analysis" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
       <formula1>'Analysis Services'!$A$4:$A$141</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C18" type="list">
+    <dataValidation allowBlank="false" error="Please selct a valid option from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The list is mainatined on the &quot;Constants&quot; sheet" promptTitle="Select an import format from the list" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19" type="list">
       <formula1>Constants!$C$2:$C$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
       <formula1>'analysis services'</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C20:C21" type="list">
       <formula1>Constants!$D$2:$D$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D19" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="'Classic' indicates importing analysis requests per sample and analysis service selection. With 'Profiles', analysis profile keywords are used to select multiple analysis services together" promptTitle="AR Import options" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D20" type="list">
       <formula1>Constants!$B$2:$B$25</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C24" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 'Register' if you want labels to be automatically printed when new ARs or sample records are created. Select 'Receive' to print labels when ARs or Samples are received. Select 'None' to disable automatic printing" promptTitle="Select a valid option" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
       <formula1>Constants!$F$2:$F$4</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D24" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The number of days before a sample expires and cannot be analysed any more. This setting can be overwritten per individual sample type  in the sample types setup" promptTitle="Default sample retention period" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D25" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C25" type="list">
+    <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select the which label to print when automatic label printing is enabled" promptTitle="Sample label size" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C26" type="list">
       <formula1>Constants!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
+    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C29" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C30" type="whole">
+    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C31" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -28268,35 +28309,35 @@
   </cols>
   <sheetData>
     <row r="1" s="77" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="169" t="s">
+      <c r="B1" s="170" t="s">
         <v>125</v>
       </c>
       <c r="C1" s="78" t="s">
-        <v>1344</v>
+        <v>1349</v>
       </c>
       <c r="D1" s="78" t="s">
-        <v>1345</v>
+        <v>1350</v>
       </c>
       <c r="E1" s="78" t="s">
-        <v>1346</v>
+        <v>1351</v>
       </c>
       <c r="F1" s="77" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G1" s="170" t="s">
-        <v>1348</v>
+        <v>1352</v>
+      </c>
+      <c r="G1" s="171" t="s">
+        <v>1353</v>
       </c>
       <c r="H1" s="78" t="s">
-        <v>1349</v>
+        <v>1354</v>
       </c>
       <c r="I1" s="78" t="s">
-        <v>1350</v>
+        <v>1355</v>
       </c>
       <c r="J1" s="78" t="s">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="K1" s="78" t="s">
         <v>987</v>
@@ -28311,28 +28352,28 @@
         <v>184</v>
       </c>
       <c r="C2" s="142" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="D2" s="142" t="s">
-        <v>1352</v>
-      </c>
-      <c r="E2" s="171" t="s">
-        <v>1353</v>
+        <v>1357</v>
+      </c>
+      <c r="E2" s="172" t="s">
+        <v>1358</v>
       </c>
       <c r="F2" s="142" t="s">
-        <v>1354</v>
+        <v>1359</v>
       </c>
       <c r="G2" s="142" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="142" t="s">
-        <v>1355</v>
+        <v>1360</v>
       </c>
       <c r="I2" s="142" t="s">
-        <v>1356</v>
+        <v>1361</v>
       </c>
       <c r="J2" s="142" t="s">
-        <v>1357</v>
+        <v>1362</v>
       </c>
       <c r="K2" s="142" t="s">
         <v>1009</v>
@@ -28340,34 +28381,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="32" t="s">
-        <v>1358</v>
+        <v>1363</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="142" t="s">
-        <v>1359</v>
+        <v>1364</v>
       </c>
       <c r="D3" s="142" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="171" t="s">
-        <v>1332</v>
+      <c r="E3" s="172" t="s">
+        <v>1334</v>
       </c>
       <c r="F3" s="142" t="s">
-        <v>1360</v>
+        <v>1365</v>
       </c>
       <c r="G3" s="142" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="142" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="I3" s="142" t="s">
         <v>24</v>
       </c>
       <c r="J3" s="142" t="s">
-        <v>1362</v>
+        <v>1367</v>
       </c>
       <c r="K3" s="142" t="s">
         <v>1017</v>
@@ -28375,21 +28416,21 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="32" t="s">
-        <v>1363</v>
+        <v>1368</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>154</v>
       </c>
       <c r="C4" s="142" t="s">
-        <v>1364</v>
+        <v>1369</v>
       </c>
       <c r="D4" s="142" t="s">
-        <v>1365</v>
+        <v>1370</v>
       </c>
       <c r="F4" s="142" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G4" s="171"/>
+        <v>1331</v>
+      </c>
+      <c r="G4" s="172"/>
       <c r="H4" s="142" t="s">
         <v>320</v>
       </c>
@@ -28401,16 +28442,16 @@
       <c r="B5" s="142" t="s">
         <v>206</v>
       </c>
-      <c r="G5" s="171"/>
+      <c r="G5" s="172"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="32" t="s">
-        <v>1366</v>
+        <v>1371</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>1367</v>
-      </c>
-      <c r="G6" s="171"/>
+        <v>1372</v>
+      </c>
+      <c r="G6" s="172"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="142" t="s">
@@ -28419,99 +28460,99 @@
       <c r="B7" s="142" t="s">
         <v>201</v>
       </c>
-      <c r="G7" s="171"/>
+      <c r="G7" s="172"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="32" t="s">
-        <v>1368</v>
+        <v>1373</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>1369</v>
-      </c>
-      <c r="G8" s="171"/>
+        <v>1374</v>
+      </c>
+      <c r="G8" s="172"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="171"/>
+      <c r="G9" s="172"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="171"/>
+      <c r="G10" s="172"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="171"/>
+      <c r="G11" s="172"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="171"/>
+      <c r="G12" s="172"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="171"/>
+      <c r="G13" s="172"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="171"/>
+      <c r="G14" s="172"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="171"/>
+      <c r="G15" s="172"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="171"/>
+      <c r="G16" s="172"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="171"/>
+      <c r="G17" s="172"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="171"/>
+      <c r="G18" s="172"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="171"/>
+      <c r="G19" s="172"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="172"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="172"/>
-      <c r="D20" s="172"/>
-      <c r="E20" s="173"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-    </row>
-    <row r="21" s="175" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="174"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="174"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+    </row>
+    <row r="21" s="176" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="77" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="B21" s="78" t="s">
         <v>1291</v>
       </c>
       <c r="C21" s="77" t="s">
-        <v>1371</v>
+        <v>1376</v>
       </c>
       <c r="D21" s="77" t="s">
-        <v>1372</v>
-      </c>
-      <c r="E21" s="174" t="s">
-        <v>1373</v>
+        <v>1377</v>
+      </c>
+      <c r="E21" s="175" t="s">
+        <v>1378</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>1374</v>
+        <v>1379</v>
       </c>
       <c r="G21" s="77" t="s">
-        <v>1375</v>
+        <v>1380</v>
       </c>
       <c r="H21" s="77" t="s">
-        <v>1376</v>
+        <v>1381</v>
       </c>
       <c r="I21" s="77" t="s">
-        <v>1377</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="176" t="s">
-        <v>1378</v>
+      <c r="A22" s="177" t="s">
+        <v>1383</v>
       </c>
       <c r="B22" s="142" t="s">
-        <v>1379</v>
+        <v>1384</v>
       </c>
       <c r="C22" s="142" t="s">
         <v>1154</v>
@@ -28519,11 +28560,11 @@
       <c r="D22" s="142" t="s">
         <v>1161</v>
       </c>
-      <c r="E22" s="171" t="s">
-        <v>1380</v>
+      <c r="E22" s="172" t="s">
+        <v>1385</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>1381</v>
+        <v>1386</v>
       </c>
       <c r="G22" s="142" t="s">
         <v>896</v>
@@ -28537,19 +28578,19 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="142" t="s">
-        <v>1382</v>
+        <v>1387</v>
       </c>
       <c r="C23" s="142" t="s">
-        <v>1383</v>
+        <v>1388</v>
       </c>
       <c r="D23" s="142" t="s">
         <v>1284</v>
       </c>
-      <c r="E23" s="171" t="s">
-        <v>1384</v>
+      <c r="E23" s="172" t="s">
+        <v>1389</v>
       </c>
       <c r="F23" s="142" t="s">
-        <v>1385</v>
+        <v>1390</v>
       </c>
       <c r="G23" s="142" t="s">
         <v>903</v>
@@ -28558,21 +28599,21 @@
         <v>903</v>
       </c>
       <c r="I23" s="142" t="s">
-        <v>1386</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="142" t="s">
-        <v>1387</v>
+        <v>1392</v>
       </c>
       <c r="C24" s="142" t="s">
-        <v>1388</v>
+        <v>1393</v>
       </c>
       <c r="D24" s="142" t="s">
         <v>1267</v>
       </c>
       <c r="F24" s="142" t="s">
-        <v>1389</v>
+        <v>1394</v>
       </c>
       <c r="G24" s="142" t="s">
         <v>900</v>
@@ -28581,911 +28622,911 @@
         <v>900</v>
       </c>
       <c r="I24" s="142" t="s">
-        <v>1390</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="142" t="s">
-        <v>1391</v>
+        <v>1396</v>
       </c>
       <c r="C25" s="142" t="s">
-        <v>1392</v>
+        <v>1397</v>
       </c>
       <c r="D25" s="142" t="s">
         <v>1285</v>
       </c>
       <c r="H25" s="142" t="s">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="I25" s="142" t="s">
-        <v>1394</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="142" t="s">
-        <v>1395</v>
+        <v>1400</v>
       </c>
       <c r="C26" s="142" t="s">
-        <v>1396</v>
+        <v>1401</v>
       </c>
       <c r="H26" s="142" t="s">
-        <v>1397</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="142" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="C27" s="142" t="s">
-        <v>1399</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="142" t="s">
-        <v>1400</v>
+        <v>1405</v>
       </c>
       <c r="C28" s="142" t="s">
-        <v>1401</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="142" t="s">
-        <v>1402</v>
+        <v>1407</v>
       </c>
       <c r="C29" s="142" t="s">
-        <v>1403</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="142" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="C30" s="142" t="s">
-        <v>1405</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="142" t="s">
-        <v>1406</v>
+        <v>1411</v>
       </c>
       <c r="C31" s="142" t="s">
-        <v>1407</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="142" t="s">
-        <v>1408</v>
+        <v>1413</v>
       </c>
       <c r="C32" s="142" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="142" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="C33" s="142" t="s">
-        <v>1411</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="142" t="s">
-        <v>1412</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="142" t="s">
-        <v>1413</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="142" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="142" t="s">
-        <v>1415</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="142" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="142" t="s">
-        <v>1417</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="142" t="s">
-        <v>1418</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="142" t="s">
-        <v>1419</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="142" t="s">
-        <v>1420</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="142" t="s">
-        <v>1421</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="142" t="s">
-        <v>1422</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="142" t="s">
-        <v>1423</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="142" t="s">
-        <v>1424</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="142" t="s">
-        <v>1425</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="142" t="s">
-        <v>1426</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="142" t="s">
-        <v>1427</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="142" t="s">
-        <v>1428</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="142" t="s">
-        <v>1429</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="142" t="s">
-        <v>1430</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="142" t="s">
-        <v>1431</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="142" t="s">
-        <v>1432</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="142" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="142" t="s">
-        <v>1434</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="142" t="s">
-        <v>1435</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="142" t="s">
-        <v>1436</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="142" t="s">
-        <v>1437</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="142" t="s">
-        <v>1438</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="142" t="s">
-        <v>1439</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="142" t="s">
-        <v>1440</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="142" t="s">
-        <v>1441</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="142" t="s">
-        <v>1442</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="142" t="s">
-        <v>1443</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="142" t="s">
-        <v>1444</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="142" t="s">
-        <v>1445</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="142" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="142" t="s">
-        <v>1447</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="142" t="s">
-        <v>1448</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="142" t="s">
-        <v>1449</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="142" t="s">
-        <v>1450</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="142" t="s">
-        <v>1451</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="142" t="s">
-        <v>1452</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="142" t="s">
-        <v>1453</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="142" t="s">
-        <v>1454</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="142" t="s">
-        <v>1455</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="142" t="s">
-        <v>1456</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="142" t="s">
-        <v>1457</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="142" t="s">
-        <v>1458</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="142" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="142" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="142" t="s">
-        <v>1461</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="142" t="s">
-        <v>1462</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="142" t="s">
-        <v>1463</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="142" t="s">
-        <v>1464</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="142" t="s">
-        <v>1465</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="142" t="s">
-        <v>1466</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="142" t="s">
-        <v>1467</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="142" t="s">
-        <v>1468</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="142" t="s">
-        <v>1469</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="142" t="s">
-        <v>1470</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="142" t="s">
-        <v>1471</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="142" t="s">
-        <v>1472</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="142" t="s">
-        <v>1473</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="142" t="s">
-        <v>1474</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="142" t="s">
-        <v>1475</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="142" t="s">
-        <v>1476</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="142" t="s">
-        <v>1477</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="142" t="s">
-        <v>1478</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="142" t="s">
-        <v>1479</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="142" t="s">
-        <v>1480</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="142" t="s">
-        <v>1481</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="142" t="s">
-        <v>1482</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="142" t="s">
-        <v>1483</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="142" t="s">
-        <v>1484</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="142" t="s">
-        <v>1485</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="142" t="s">
-        <v>1486</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="142" t="s">
-        <v>1487</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="142" t="s">
-        <v>1488</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="142" t="s">
-        <v>1489</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="142" t="s">
-        <v>1490</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="142" t="s">
-        <v>1491</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="142" t="s">
-        <v>1492</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="142" t="s">
-        <v>1493</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="142" t="s">
-        <v>1494</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="142" t="s">
-        <v>1495</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="142" t="s">
-        <v>1496</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="142" t="s">
-        <v>1497</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="142" t="s">
-        <v>1498</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="142" t="s">
-        <v>1499</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="142" t="s">
-        <v>1500</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="142" t="s">
-        <v>1501</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="142" t="s">
-        <v>1502</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="142" t="s">
-        <v>1503</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="142" t="s">
-        <v>1504</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="142" t="s">
-        <v>1505</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="142" t="s">
-        <v>1506</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="142" t="s">
-        <v>1507</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="142" t="s">
-        <v>1508</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="142" t="s">
-        <v>1509</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="142" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="142" t="s">
-        <v>1511</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="142" t="s">
-        <v>1512</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="142" t="s">
-        <v>1513</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="142" t="s">
-        <v>1514</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="142" t="s">
-        <v>1515</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="142" t="s">
-        <v>1516</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="142" t="s">
-        <v>1517</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="142" t="s">
-        <v>1518</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="142" t="s">
-        <v>1519</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="142" t="s">
-        <v>1520</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="142" t="s">
-        <v>1521</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="142" t="s">
-        <v>1522</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="142" t="s">
-        <v>1523</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="142" t="s">
-        <v>1524</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="142" t="s">
-        <v>1525</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="142" t="s">
-        <v>1526</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="142" t="s">
-        <v>1527</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="142" t="s">
-        <v>1528</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="142" t="s">
-        <v>1529</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="142" t="s">
-        <v>1530</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="142" t="s">
-        <v>1531</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="142" t="s">
-        <v>1532</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="142" t="s">
-        <v>1533</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="142" t="s">
-        <v>1534</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="142" t="s">
-        <v>1535</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="142" t="s">
-        <v>1536</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="142" t="s">
-        <v>1537</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="142" t="s">
-        <v>1538</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="142" t="s">
-        <v>1539</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="142" t="s">
-        <v>1540</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="142" t="s">
-        <v>1541</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="142" t="s">
-        <v>1542</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="142" t="s">
-        <v>1543</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="142" t="s">
-        <v>1544</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="142" t="s">
-        <v>1545</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="142" t="s">
-        <v>1546</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="142" t="s">
-        <v>1547</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="142" t="s">
-        <v>1548</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="142" t="s">
-        <v>1549</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="142" t="s">
-        <v>1550</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="142" t="s">
-        <v>1551</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="142" t="s">
-        <v>1552</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="142" t="s">
-        <v>1553</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="142" t="s">
-        <v>1554</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="142" t="s">
-        <v>1555</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="142" t="s">
-        <v>1556</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="142" t="s">
-        <v>1557</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="142" t="s">
-        <v>1558</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="142" t="s">
-        <v>1559</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="142" t="s">
-        <v>1560</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="142" t="s">
-        <v>1561</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="142" t="s">
-        <v>1562</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="142" t="s">
-        <v>1563</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="142" t="s">
-        <v>1564</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="142" t="s">
-        <v>1565</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="142" t="s">
-        <v>1566</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="142" t="s">
-        <v>1567</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="142" t="s">
-        <v>1568</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="142" t="s">
-        <v>1569</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="142" t="s">
-        <v>1570</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="142" t="s">
-        <v>1571</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="142" t="s">
-        <v>1572</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="142" t="s">
-        <v>1573</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="142" t="s">
-        <v>1574</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="142" t="s">
-        <v>1575</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29495,12 +29536,12 @@
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="142" t="s">
-        <v>1576</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="142" t="s">
-        <v>1577</v>
+        <v>1582</v>
       </c>
     </row>
   </sheetData>

--- a/bika/lims/setupdata/test/test.xlsx
+++ b/bika/lims/setupdata/test/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="51"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="58"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -60,15 +60,14 @@
     <sheet name="Reference Analyses Interims" sheetId="50" state="visible" r:id="rId51"/>
     <sheet name="Sample Conditions" sheetId="51" state="visible" r:id="rId52"/>
     <sheet name="Sampling Deviations" sheetId="52" state="visible" r:id="rId53"/>
-    <sheet name="Samples" sheetId="53" state="visible" r:id="rId54"/>
-    <sheet name="Analysis Requests" sheetId="54" state="visible" r:id="rId55"/>
-    <sheet name="Analyses" sheetId="55" state="visible" r:id="rId56"/>
-    <sheet name="Analysis Interims" sheetId="56" state="visible" r:id="rId57"/>
-    <sheet name="Worksheet Templates" sheetId="57" state="visible" r:id="rId58"/>
-    <sheet name="Worksheet Template Services" sheetId="58" state="visible" r:id="rId59"/>
-    <sheet name="Worksheet Template Layouts" sheetId="59" state="visible" r:id="rId60"/>
-    <sheet name="Setup" sheetId="60" state="visible" r:id="rId61"/>
-    <sheet name="Constants" sheetId="61" state="visible" r:id="rId62"/>
+    <sheet name="Analysis Requests" sheetId="53" state="visible" r:id="rId54"/>
+    <sheet name="Analyses" sheetId="54" state="visible" r:id="rId55"/>
+    <sheet name="Analysis Interims" sheetId="55" state="visible" r:id="rId56"/>
+    <sheet name="Worksheet Templates" sheetId="56" state="visible" r:id="rId57"/>
+    <sheet name="Worksheet Template Services" sheetId="57" state="visible" r:id="rId58"/>
+    <sheet name="Worksheet Template Layouts" sheetId="58" state="visible" r:id="rId59"/>
+    <sheet name="Setup" sheetId="59" state="visible" r:id="rId60"/>
+    <sheet name="Constants" sheetId="60" state="visible" r:id="rId61"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -177,7 +176,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3837" uniqueCount="1533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3799" uniqueCount="1510">
   <si>
     <t xml:space="preserve">Instructions</t>
   </si>
@@ -3707,78 +3706,39 @@
     <t xml:space="preserve">The sample was not created in the LIMS UI</t>
   </si>
   <si>
-    <t xml:space="preserve">ClientSampleID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AdHoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplePoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SamplingDeviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples</t>
+    <t xml:space="preserve">Sample_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contact_Fullname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCContact_Fullname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCEmails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTemplate_title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClientOrderNumber</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InvoiceExclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DatePublished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request ID</t>
   </si>
   <si>
     <t xml:space="preserve">Sample ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Client Sample ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ad Hoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sampling Deviation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Contact_Fullname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCContact_Fullname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCEmails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTemplate_title</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClientOrderNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InvoiceExclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DatePublished</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Analysis Requests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request ID</t>
-  </si>
-  <si>
     <t xml:space="preserve">Contact</t>
   </si>
   <si>
@@ -4028,46 +3988,16 @@
     <t xml:space="preserve">small</t>
   </si>
   <si>
-    <t xml:space="preserve">YearInPrefix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Must the year be included in sample prefixes?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SampleIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARIDPadding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ar id padding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ExternalIDServer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">External id server?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IDServerURL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id server url</t>
-  </si>
-  <si>
     <t xml:space="preserve">DefaultCountry</t>
   </si>
   <si>
-    <t xml:space="preserve">Default Country</t>
-  </si>
-  <si>
     <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allow self-verification of results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add a remarks field to all analyses1</t>
   </si>
   <si>
     <t xml:space="preserve">AR Import options</t>
@@ -5089,7 +5019,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="171">
+  <cellXfs count="170">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5698,10 +5628,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -12103,7 +12029,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="32.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="12.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.5"/>
@@ -26060,7 +25986,7 @@
   </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -26137,142 +26063,6 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ3"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="6.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="11.04"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="15.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="9.64"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61" t="s">
-        <v>1122</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>242</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>1177</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>1127</v>
-      </c>
-      <c r="F1" s="61" t="s">
-        <v>1128</v>
-      </c>
-      <c r="G1" s="61" t="s">
-        <v>1130</v>
-      </c>
-      <c r="H1" s="61" t="s">
-        <v>1131</v>
-      </c>
-      <c r="I1" s="61" t="s">
-        <v>1178</v>
-      </c>
-      <c r="J1" s="61" t="s">
-        <v>470</v>
-      </c>
-      <c r="K1" s="61" t="s">
-        <v>1179</v>
-      </c>
-      <c r="L1" s="61" t="s">
-        <v>1180</v>
-      </c>
-      <c r="M1" s="61" t="s">
-        <v>1181</v>
-      </c>
-      <c r="N1" s="61" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C2" s="8"/>
-    </row>
-    <row r="3" s="34" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="152" t="s">
-        <v>1183</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>380</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>1184</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>1139</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>1140</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>1142</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>1186</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>470</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>1187</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>1188</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>1189</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>773</v>
-      </c>
-      <c r="AMI3" s="152"/>
-      <c r="AMJ3" s="152"/>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Arial,Regular"&amp;10&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Arial,Regular"&amp;10Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26303,31 +26093,31 @@
         <v>1122</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>1190</v>
+        <v>1176</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>242</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>1191</v>
+        <v>1177</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>1192</v>
+        <v>1178</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>1193</v>
+        <v>1179</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>1082</v>
       </c>
       <c r="H1" s="61" t="s">
-        <v>1194</v>
+        <v>1180</v>
       </c>
       <c r="I1" s="61" t="s">
-        <v>1195</v>
+        <v>1181</v>
       </c>
       <c r="J1" s="61" t="s">
-        <v>1196</v>
+        <v>1182</v>
       </c>
       <c r="K1" s="61" t="s">
         <v>910</v>
@@ -26336,7 +26126,7 @@
         <v>1128</v>
       </c>
       <c r="M1" s="61" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="N1" s="61" t="s">
         <v>773</v>
@@ -26344,49 +26134,49 @@
     </row>
     <row r="2" s="33" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1198</v>
+        <v>1184</v>
       </c>
       <c r="B2" s="8"/>
     </row>
     <row r="3" s="34" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1199</v>
+        <v>1185</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1183</v>
+        <v>1186</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>380</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>1200</v>
+        <v>1187</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1201</v>
+        <v>1188</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1202</v>
+        <v>1189</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>1203</v>
+        <v>1190</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>1204</v>
+        <v>1191</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>1205</v>
+        <v>1192</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1206</v>
+        <v>1193</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>1207</v>
+        <v>1194</v>
       </c>
       <c r="L3" s="34" t="s">
         <v>1140</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="N3" s="34" t="s">
         <v>773</v>
@@ -26403,7 +26193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26432,7 +26222,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1208</v>
+        <v>1195</v>
       </c>
       <c r="B1" s="0" t="s">
         <v>1122</v>
@@ -26447,7 +26237,7 @@
         <v>1121</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>1209</v>
+        <v>1196</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>1148</v>
@@ -26484,7 +26274,7 @@
     </row>
     <row r="3" s="34" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1210</v>
+        <v>1197</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>1122</v>
@@ -26499,7 +26289,7 @@
         <v>1121</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1211</v>
+        <v>1198</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>1158</v>
@@ -26514,13 +26304,13 @@
         <v>1150</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>1212</v>
+        <v>1199</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>1213</v>
+        <v>1200</v>
       </c>
       <c r="M3" s="34" t="s">
-        <v>1214</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -26623,7 +26413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26646,7 +26436,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1215</v>
+        <v>1202</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>883</v>
@@ -26666,13 +26456,13 @@
     </row>
     <row r="2" s="33" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1216</v>
+        <v>1203</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" s="34" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>888</v>
@@ -26701,7 +26491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26733,7 +26523,7 @@
     </row>
     <row r="2" s="33" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1218</v>
+        <v>1205</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -26750,12 +26540,12 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="61" t="s">
-        <v>1219</v>
+        <v>1206</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C4" s="153" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C4" s="152" t="s">
         <v>599</v>
       </c>
     </row>
@@ -26779,7 +26569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26799,7 +26589,7 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>1067</v>
@@ -26807,29 +26597,29 @@
     </row>
     <row r="2" s="33" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1222</v>
+        <v>1209</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" s="34" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1223</v>
+        <v>1210</v>
       </c>
       <c r="B3" s="34" t="s">
         <v>1094</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="153" t="s">
-        <v>1219</v>
+      <c r="A4" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B4" s="80" t="s">
         <v>958</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="153" t="s">
-        <v>1219</v>
+      <c r="A5" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B5" s="80" t="s">
         <v>971</v>
@@ -26859,7 +26649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -26882,53 +26672,53 @@
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>1221</v>
+        <v>1208</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>1224</v>
+        <v>1211</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>828</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1225</v>
+        <v>1212</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>1226</v>
+        <v>1213</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>1227</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="2" s="33" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>1228</v>
+        <v>1215</v>
       </c>
       <c r="C2" s="8"/>
     </row>
     <row r="3" s="34" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="34" t="s">
-        <v>1229</v>
+        <v>1216</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>1230</v>
+        <v>1217</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>601</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>1231</v>
+        <v>1218</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1232</v>
+        <v>1219</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1233</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="153" t="s">
-        <v>1219</v>
+      <c r="A4" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B4" s="62" t="n">
         <v>1</v>
@@ -26943,14 +26733,14 @@
       <c r="F4" s="80"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="153" t="s">
-        <v>1219</v>
+      <c r="A5" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B5" s="62" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="D5" s="80"/>
       <c r="E5" s="80" t="s">
@@ -26959,224 +26749,224 @@
       <c r="F5" s="80"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="153" t="s">
-        <v>1219</v>
+      <c r="A6" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B6" s="62" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D6" s="80"/>
       <c r="E6" s="80"/>
       <c r="F6" s="80"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="153" t="s">
-        <v>1219</v>
+      <c r="A7" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B7" s="62" t="n">
         <v>4</v>
       </c>
       <c r="C7" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
       <c r="F7" s="80"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="153" t="s">
-        <v>1219</v>
+      <c r="A8" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B8" s="62" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D8" s="80"/>
       <c r="E8" s="80"/>
       <c r="F8" s="80"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="153" t="s">
-        <v>1219</v>
+      <c r="A9" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B9" s="62" t="n">
         <v>6</v>
       </c>
       <c r="C9" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="153" t="s">
-        <v>1219</v>
+      <c r="A10" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B10" s="62" t="n">
         <v>7</v>
       </c>
       <c r="C10" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D10" s="80"/>
       <c r="E10" s="80"/>
       <c r="F10" s="80"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="153" t="s">
-        <v>1219</v>
+      <c r="A11" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B11" s="62" t="n">
         <v>8</v>
       </c>
       <c r="C11" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D11" s="80"/>
       <c r="E11" s="80"/>
       <c r="F11" s="80"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="153" t="s">
-        <v>1219</v>
+      <c r="A12" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B12" s="62" t="n">
         <v>9</v>
       </c>
       <c r="C12" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D12" s="80"/>
       <c r="E12" s="80"/>
       <c r="F12" s="80"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="153" t="s">
-        <v>1219</v>
+      <c r="A13" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B13" s="62" t="n">
         <v>10</v>
       </c>
       <c r="C13" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D13" s="80"/>
       <c r="E13" s="80"/>
       <c r="F13" s="80"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="153" t="s">
-        <v>1219</v>
+      <c r="A14" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B14" s="62" t="n">
         <v>11</v>
       </c>
       <c r="C14" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D14" s="80"/>
       <c r="E14" s="80"/>
       <c r="F14" s="80"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="153" t="s">
-        <v>1219</v>
+      <c r="A15" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B15" s="62" t="n">
         <v>12</v>
       </c>
       <c r="C15" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D15" s="80"/>
       <c r="E15" s="80"/>
       <c r="F15" s="80"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="153" t="s">
-        <v>1219</v>
+      <c r="A16" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B16" s="62" t="n">
         <v>13</v>
       </c>
       <c r="C16" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D16" s="80"/>
       <c r="E16" s="80"/>
       <c r="F16" s="80"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="153" t="s">
-        <v>1219</v>
+      <c r="A17" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B17" s="62" t="n">
         <v>14</v>
       </c>
       <c r="C17" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D17" s="80"/>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="153" t="s">
-        <v>1219</v>
+      <c r="A18" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B18" s="62" t="n">
         <v>15</v>
       </c>
       <c r="C18" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="153" t="s">
-        <v>1219</v>
+      <c r="A19" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B19" s="62" t="n">
         <v>16</v>
       </c>
       <c r="C19" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D19" s="80"/>
       <c r="E19" s="80"/>
       <c r="F19" s="80"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="153" t="s">
-        <v>1219</v>
+      <c r="A20" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B20" s="62" t="n">
         <v>17</v>
       </c>
       <c r="C20" s="80" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="D20" s="80"/>
       <c r="E20" s="80"/>
       <c r="F20" s="80"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="153" t="s">
-        <v>1219</v>
+      <c r="A21" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B21" s="62" t="n">
         <v>18</v>
       </c>
       <c r="C21" s="80" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="D21" s="80"/>
       <c r="E21" s="80"/>
@@ -27185,14 +26975,14 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="153" t="s">
-        <v>1219</v>
+      <c r="A22" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B22" s="62" t="n">
         <v>19</v>
       </c>
       <c r="C22" s="80" t="s">
-        <v>1234</v>
+        <v>1221</v>
       </c>
       <c r="D22" s="80"/>
       <c r="E22" s="80" t="s">
@@ -27201,8 +26991,8 @@
       <c r="F22" s="80"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="153" t="s">
-        <v>1219</v>
+      <c r="A23" s="152" t="s">
+        <v>1206</v>
       </c>
       <c r="B23" s="62" t="n">
         <v>20</v>
@@ -27256,472 +27046,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:AMJ8"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.64"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="7.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="37" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="J1" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="K1" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="O1" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="P1" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q1" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="S1" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="T1" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="V1" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="X1" s="40" t="s">
-        <v>205</v>
-      </c>
-      <c r="AMJ1" s="36"/>
-    </row>
-    <row r="2" s="33" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="I2" s="43" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43"/>
-      <c r="X2" s="44"/>
-      <c r="AMJ2" s="45"/>
-    </row>
-    <row r="3" s="46" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="D3" s="48" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="46" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="R3" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="S3" s="46" t="s">
-        <v>103</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>104</v>
-      </c>
-      <c r="U3" s="46" t="s">
-        <v>105</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>106</v>
-      </c>
-      <c r="W3" s="46" t="s">
-        <v>107</v>
-      </c>
-      <c r="X3" s="49" t="s">
-        <v>213</v>
-      </c>
-      <c r="AMJ3" s="50"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>215</v>
-      </c>
-      <c r="C4" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>217</v>
-      </c>
-      <c r="H4" s="26" t="s">
-        <v>218</v>
-      </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="51"/>
-      <c r="P4" s="51"/>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="53"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="51" t="s">
-        <v>219</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="F5" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="G5" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
-      <c r="R5" s="51"/>
-      <c r="S5" s="51"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="51"/>
-      <c r="V5" s="51"/>
-      <c r="W5" s="51"/>
-      <c r="X5" s="53"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="51" t="s">
-        <v>227</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>228</v>
-      </c>
-      <c r="G6" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="26" t="s">
-        <v>230</v>
-      </c>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51"/>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51"/>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51"/>
-      <c r="X6" s="53"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="51" t="s">
-        <v>231</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>232</v>
-      </c>
-      <c r="C7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>233</v>
-      </c>
-      <c r="F7" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="G7" s="25" t="s">
-        <v>234</v>
-      </c>
-      <c r="H7" s="26" t="s">
-        <v>235</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="51"/>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="51"/>
-      <c r="V7" s="51"/>
-      <c r="W7" s="51"/>
-      <c r="X7" s="53"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="51" t="s">
-        <v>236</v>
-      </c>
-      <c r="B8" s="51" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" s="52" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>238</v>
-      </c>
-      <c r="F8" s="25" t="s">
-        <v>239</v>
-      </c>
-      <c r="G8" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H8" s="26" t="s">
-        <v>241</v>
-      </c>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="51"/>
-      <c r="W8" s="51"/>
-      <c r="X8" s="53"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="N2:R2"/>
-    <mergeCell ref="S2:W2"/>
-  </mergeCells>
-  <dataValidations count="2">
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get membership discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C8" type="list">
-      <formula1>Constants!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get bulk discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D8" type="list">
-      <formula1>Constants!$G$2:$G$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Clients"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:D1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27735,22 +27068,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="5.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="23.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="154" t="s">
+      <c r="C1" s="153" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="8" t="s">
-        <v>1236</v>
-      </c>
-      <c r="C2" s="155"/>
+        <v>1223</v>
+      </c>
+      <c r="C2" s="154"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -27759,73 +27092,73 @@
       <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="154" t="s">
+      <c r="C3" s="153" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="B4" s="134" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C4" s="156" t="n">
+        <v>1225</v>
+      </c>
+      <c r="C4" s="155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C5" s="156" t="n">
+        <v>1227</v>
+      </c>
+      <c r="C5" s="155" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C6" s="156" t="s">
-        <v>1242</v>
+        <v>1228</v>
+      </c>
+      <c r="C6" s="155" t="s">
+        <v>1229</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="B7" s="134" t="s">
-        <v>1244</v>
-      </c>
-      <c r="C7" s="157" t="n">
+        <v>1231</v>
+      </c>
+      <c r="C7" s="156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="B8" s="134" t="s">
-        <v>1246</v>
-      </c>
-      <c r="C8" s="157" t="n">
+        <v>1233</v>
+      </c>
+      <c r="C8" s="156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="B9" s="134" t="s">
-        <v>1248</v>
-      </c>
-      <c r="C9" s="156" t="n">
+        <v>1235</v>
+      </c>
+      <c r="C9" s="155" t="n">
         <v>20</v>
       </c>
     </row>
@@ -27834,250 +27167,215 @@
         <v>189</v>
       </c>
       <c r="B10" s="134" t="s">
-        <v>1249</v>
-      </c>
-      <c r="C10" s="156" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C10" s="155" t="n">
         <v>19</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="B11" s="134" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C11" s="156" t="n">
+        <v>1238</v>
+      </c>
+      <c r="C11" s="155" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="B12" s="134" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C12" s="156" t="n">
+        <v>1240</v>
+      </c>
+      <c r="C12" s="155" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="B13" s="134" t="s">
-        <v>1255</v>
-      </c>
-      <c r="C13" s="156" t="n">
+        <v>1242</v>
+      </c>
+      <c r="C13" s="155" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="B14" s="134" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C14" s="156"/>
+        <v>1244</v>
+      </c>
+      <c r="C14" s="155"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="B15" s="134" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C15" s="157" t="n">
+        <v>1246</v>
+      </c>
+      <c r="C15" s="156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="B16" s="134" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C16" s="157" t="n">
+        <v>1248</v>
+      </c>
+      <c r="C16" s="156" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="B17" s="134" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C17" s="157" t="n">
+        <v>1250</v>
+      </c>
+      <c r="C17" s="156" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="B18" s="134" t="s">
-        <v>1265</v>
-      </c>
-      <c r="C18" s="158" t="s">
-        <v>1266</v>
-      </c>
-      <c r="D18" s="159"/>
+        <v>1252</v>
+      </c>
+      <c r="C18" s="157" t="s">
+        <v>1253</v>
+      </c>
+      <c r="D18" s="158"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>1267</v>
+        <v>1254</v>
       </c>
       <c r="B19" s="134" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C19" s="160" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C19" s="159" t="s">
         <v>259</v>
       </c>
-      <c r="D19" s="159"/>
+      <c r="D19" s="158"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>1269</v>
+        <v>1256</v>
       </c>
       <c r="B20" s="134" t="s">
-        <v>1270</v>
-      </c>
-      <c r="C20" s="160" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C20" s="159" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>1271</v>
+        <v>1258</v>
       </c>
       <c r="B21" s="134" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C21" s="158" t="n">
+        <v>1259</v>
+      </c>
+      <c r="C21" s="157" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>1273</v>
+        <v>1260</v>
       </c>
       <c r="B22" s="134" t="s">
-        <v>1274</v>
-      </c>
-      <c r="C22" s="158" t="n">
+        <v>1261</v>
+      </c>
+      <c r="C22" s="157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>1275</v>
+        <v>1262</v>
       </c>
       <c r="B23" s="134" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C23" s="158" t="n">
+        <v>1263</v>
+      </c>
+      <c r="C23" s="157" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>1277</v>
+        <v>1264</v>
       </c>
       <c r="B24" s="134" t="s">
-        <v>1278</v>
-      </c>
-      <c r="C24" s="160" t="s">
-        <v>1279</v>
-      </c>
-      <c r="D24" s="161"/>
+        <v>1265</v>
+      </c>
+      <c r="C24" s="159" t="s">
+        <v>1266</v>
+      </c>
+      <c r="D24" s="160"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>1280</v>
+        <v>1267</v>
       </c>
       <c r="B25" s="134" t="s">
-        <v>1281</v>
-      </c>
-      <c r="C25" s="160" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>1268</v>
+      </c>
+      <c r="C25" s="159" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="B26" s="134" t="s">
-        <v>1284</v>
-      </c>
-      <c r="C26" s="157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
-        <v>1285</v>
-      </c>
-      <c r="B27" s="134" t="s">
-        <v>1286</v>
-      </c>
-      <c r="C27" s="156" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>1288</v>
-      </c>
-      <c r="B28" s="134" t="s">
-        <v>1289</v>
-      </c>
-      <c r="C28" s="156" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="B29" s="134" t="s">
-        <v>1291</v>
-      </c>
-      <c r="C29" s="157" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5" t="s">
-        <v>1292</v>
-      </c>
-      <c r="B30" s="134" t="s">
-        <v>1293</v>
-      </c>
-      <c r="C30" s="156"/>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="B31" s="134" t="s">
-        <v>1295</v>
-      </c>
-      <c r="C31" s="162" t="s">
-        <v>1296</v>
-      </c>
-    </row>
+        <v>107</v>
+      </c>
+      <c r="C26" s="161" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="23">
+  <dataValidations count="20">
     <dataValidation allowBlank="true" error="Please enter a whole number bigger than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="Please enter a whole number bigger than 0" promptTitle="Integer" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C21" type="whole">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7:C8 C15:C17 C26 C29" type="list">
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Boolean" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C7:C8 C15:C17" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -28153,18 +27451,6 @@
       <formula1>Constants!$E$2:$E$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for Sample IDs. E.g, a water sample will be given an ID of W-0001 if the sample padding was set to 4, and water samples are prefixed with W" promptTitle="Sample ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C27" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="false" error="Must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The length of the zero-padding for AR IDs. E.g, a the first AR on a water sample with ID of W-0001 will be given an ID of W-0001-01 if the AR padding was set to 2" promptTitle="Analysis request (AR) ID Padding" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C28" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" error="Not sure why, must be whole number greater than 0" errorTitle="Invalid entry" operator="greaterThan" prompt="The full URL: http://URL/path:port" promptTitle="ID Server URL if an external ID server is used" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C30" type="whole">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="Setup – Global defaults"/>
@@ -28179,7 +27465,464 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:AMJ8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="8.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="7.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="10.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="8.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="7.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="37" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="M1" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="P1" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="V1" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="AMJ1" s="36"/>
+    </row>
+    <row r="2" s="33" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="42"/>
+      <c r="I2" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43" t="s">
+        <v>208</v>
+      </c>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43" t="s">
+        <v>209</v>
+      </c>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
+      <c r="V2" s="43"/>
+      <c r="W2" s="43"/>
+      <c r="X2" s="44"/>
+      <c r="AMJ2" s="45"/>
+    </row>
+    <row r="3" s="46" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="R3" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>103</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="X3" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="AMJ3" s="50"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="51" t="s">
+        <v>214</v>
+      </c>
+      <c r="B4" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H4" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="53"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="C5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="51"/>
+      <c r="V5" s="51"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="53"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="51" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51"/>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51"/>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="53"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>232</v>
+      </c>
+      <c r="C7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>233</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="26" t="s">
+        <v>235</v>
+      </c>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="51"/>
+      <c r="V7" s="51"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="53"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="52" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="51"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="53"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:W2"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get membership discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C4:C8" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select 0 or 1  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (True) or 0 (False) from the drop-down menu" promptTitle="Does the client get bulk discount?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D8" type="list">
+      <formula1>Constants!$G$2:$G$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="Clients"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -28203,35 +27946,35 @@
   </cols>
   <sheetData>
     <row r="1" s="73" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="162" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="163" t="s">
+      <c r="B1" s="162" t="s">
         <v>90</v>
       </c>
       <c r="C1" s="74" t="s">
-        <v>1297</v>
+        <v>1274</v>
       </c>
       <c r="D1" s="74" t="s">
-        <v>1298</v>
+        <v>1275</v>
       </c>
       <c r="E1" s="74" t="s">
-        <v>1299</v>
+        <v>1276</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>1300</v>
-      </c>
-      <c r="G1" s="164" t="s">
-        <v>1301</v>
+        <v>1277</v>
+      </c>
+      <c r="G1" s="163" t="s">
+        <v>1278</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>1302</v>
+        <v>1279</v>
       </c>
       <c r="I1" s="74" t="s">
-        <v>1303</v>
+        <v>1280</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>1304</v>
+        <v>1281</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>930</v>
@@ -28246,28 +27989,28 @@
         <v>148</v>
       </c>
       <c r="C2" s="134" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="D2" s="134" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E2" s="165" t="s">
-        <v>1306</v>
+        <v>1282</v>
+      </c>
+      <c r="E2" s="164" t="s">
+        <v>1283</v>
       </c>
       <c r="F2" s="134" t="s">
-        <v>1307</v>
+        <v>1284</v>
       </c>
       <c r="G2" s="134" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="134" t="s">
-        <v>1308</v>
+        <v>1285</v>
       </c>
       <c r="I2" s="134" t="s">
-        <v>1309</v>
+        <v>1286</v>
       </c>
       <c r="J2" s="134" t="s">
-        <v>1310</v>
+        <v>1287</v>
       </c>
       <c r="K2" s="134" t="s">
         <v>952</v>
@@ -28275,34 +28018,34 @@
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="27" t="s">
-        <v>1311</v>
+        <v>1288</v>
       </c>
       <c r="B3" s="27" t="s">
         <v>137</v>
       </c>
       <c r="C3" s="134" t="s">
-        <v>1312</v>
+        <v>1289</v>
       </c>
       <c r="D3" s="134" t="s">
         <v>259</v>
       </c>
-      <c r="E3" s="165" t="s">
-        <v>1282</v>
+      <c r="E3" s="164" t="s">
+        <v>1269</v>
       </c>
       <c r="F3" s="134" t="s">
-        <v>1313</v>
+        <v>1290</v>
       </c>
       <c r="G3" s="134" t="n">
         <v>1</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>1314</v>
+        <v>1291</v>
       </c>
       <c r="I3" s="134" t="s">
-        <v>1315</v>
+        <v>1292</v>
       </c>
       <c r="J3" s="134" t="s">
-        <v>1316</v>
+        <v>1293</v>
       </c>
       <c r="K3" s="134" t="s">
         <v>960</v>
@@ -28310,23 +28053,23 @@
     </row>
     <row r="4" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="27" t="s">
-        <v>1317</v>
+        <v>1294</v>
       </c>
       <c r="B4" s="27" t="s">
         <v>119</v>
       </c>
       <c r="C4" s="134" t="s">
-        <v>1318</v>
+        <v>1295</v>
       </c>
       <c r="D4" s="134" t="s">
-        <v>1319</v>
+        <v>1296</v>
       </c>
       <c r="F4" s="134" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G4" s="165"/>
+        <v>1266</v>
+      </c>
+      <c r="G4" s="164"/>
       <c r="H4" s="134" t="s">
-        <v>1320</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28336,16 +28079,16 @@
       <c r="B5" s="134" t="s">
         <v>169</v>
       </c>
-      <c r="G5" s="165"/>
+      <c r="G5" s="164"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="27" t="s">
-        <v>1321</v>
+        <v>1298</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1322</v>
-      </c>
-      <c r="G6" s="165"/>
+        <v>1299</v>
+      </c>
+      <c r="G6" s="164"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="134" t="s">
@@ -28354,99 +28097,99 @@
       <c r="B7" s="134" t="s">
         <v>164</v>
       </c>
-      <c r="G7" s="165"/>
+      <c r="G7" s="164"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="27" t="s">
-        <v>1323</v>
+        <v>1300</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1324</v>
-      </c>
-      <c r="G8" s="165"/>
+        <v>1301</v>
+      </c>
+      <c r="G8" s="164"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="165"/>
+      <c r="G9" s="164"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="165"/>
+      <c r="G10" s="164"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="165"/>
+      <c r="G11" s="164"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="165"/>
+      <c r="G12" s="164"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="165"/>
+      <c r="G13" s="164"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="165"/>
+      <c r="G14" s="164"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="165"/>
+      <c r="G15" s="164"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="165"/>
+      <c r="G16" s="164"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="165"/>
+      <c r="G17" s="164"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="165"/>
+      <c r="G18" s="164"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="165"/>
+      <c r="G19" s="164"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="166"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="167"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-    </row>
-    <row r="21" s="169" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="165"/>
+      <c r="B20" s="165"/>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+    </row>
+    <row r="21" s="168" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="73" t="s">
-        <v>1325</v>
+        <v>1302</v>
       </c>
       <c r="B21" s="74" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="C21" s="73" t="s">
-        <v>1326</v>
+        <v>1303</v>
       </c>
       <c r="D21" s="73" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E21" s="168" t="s">
-        <v>1328</v>
+        <v>1304</v>
+      </c>
+      <c r="E21" s="167" t="s">
+        <v>1305</v>
       </c>
       <c r="F21" s="73" t="s">
-        <v>1329</v>
+        <v>1306</v>
       </c>
       <c r="G21" s="73" t="s">
-        <v>1330</v>
+        <v>1307</v>
       </c>
       <c r="H21" s="73" t="s">
-        <v>1331</v>
+        <v>1308</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>1332</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="170" t="s">
-        <v>1333</v>
+      <c r="A22" s="169" t="s">
+        <v>1310</v>
       </c>
       <c r="B22" s="134" t="s">
-        <v>1334</v>
+        <v>1311</v>
       </c>
       <c r="C22" s="134" t="s">
         <v>1096</v>
@@ -28454,11 +28197,11 @@
       <c r="D22" s="134" t="s">
         <v>1103</v>
       </c>
-      <c r="E22" s="165" t="s">
-        <v>1335</v>
+      <c r="E22" s="164" t="s">
+        <v>1312</v>
       </c>
       <c r="F22" s="134" t="s">
-        <v>1336</v>
+        <v>1313</v>
       </c>
       <c r="G22" s="134" t="s">
         <v>838</v>
@@ -28472,19 +28215,19 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="134" t="s">
-        <v>1337</v>
+        <v>1314</v>
       </c>
       <c r="C23" s="134" t="s">
-        <v>1338</v>
+        <v>1315</v>
       </c>
       <c r="D23" s="134" t="s">
-        <v>1234</v>
-      </c>
-      <c r="E23" s="165" t="s">
-        <v>1339</v>
+        <v>1221</v>
+      </c>
+      <c r="E23" s="164" t="s">
+        <v>1316</v>
       </c>
       <c r="F23" s="134" t="s">
-        <v>1340</v>
+        <v>1317</v>
       </c>
       <c r="G23" s="134" t="s">
         <v>845</v>
@@ -28493,21 +28236,21 @@
         <v>845</v>
       </c>
       <c r="I23" s="134" t="s">
-        <v>1341</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="134" t="s">
-        <v>1342</v>
+        <v>1319</v>
       </c>
       <c r="C24" s="134" t="s">
-        <v>1343</v>
+        <v>1320</v>
       </c>
       <c r="D24" s="134" t="s">
-        <v>1217</v>
+        <v>1204</v>
       </c>
       <c r="F24" s="134" t="s">
-        <v>1344</v>
+        <v>1321</v>
       </c>
       <c r="G24" s="134" t="s">
         <v>842</v>
@@ -28516,926 +28259,926 @@
         <v>842</v>
       </c>
       <c r="I24" s="134" t="s">
-        <v>1345</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="134" t="s">
-        <v>1346</v>
+        <v>1323</v>
       </c>
       <c r="C25" s="134" t="s">
-        <v>1347</v>
+        <v>1324</v>
       </c>
       <c r="D25" s="134" t="s">
-        <v>1235</v>
+        <v>1222</v>
       </c>
       <c r="H25" s="134" t="s">
-        <v>1348</v>
+        <v>1325</v>
       </c>
       <c r="I25" s="134" t="s">
-        <v>1349</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="134" t="s">
-        <v>1350</v>
+        <v>1327</v>
       </c>
       <c r="C26" s="134" t="s">
-        <v>1351</v>
+        <v>1328</v>
       </c>
       <c r="H26" s="134" t="s">
-        <v>1352</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="134" t="s">
-        <v>1353</v>
+        <v>1330</v>
       </c>
       <c r="C27" s="134" t="s">
-        <v>1354</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="134" t="s">
-        <v>1355</v>
+        <v>1332</v>
       </c>
       <c r="C28" s="134" t="s">
-        <v>1356</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="134" t="s">
-        <v>1357</v>
+        <v>1334</v>
       </c>
       <c r="C29" s="134" t="s">
-        <v>1358</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="134" t="s">
-        <v>1359</v>
+        <v>1336</v>
       </c>
       <c r="C30" s="134" t="s">
-        <v>1360</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="134" t="s">
-        <v>1361</v>
+        <v>1338</v>
       </c>
       <c r="C31" s="134" t="s">
-        <v>1362</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="134" t="s">
-        <v>1363</v>
+        <v>1340</v>
       </c>
       <c r="C32" s="134" t="s">
-        <v>1364</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="134" t="s">
-        <v>1365</v>
+        <v>1342</v>
       </c>
       <c r="C33" s="134" t="s">
-        <v>1366</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="134" t="s">
-        <v>1367</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="134" t="s">
-        <v>1368</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="134" t="s">
-        <v>1369</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="134" t="s">
-        <v>1370</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="134" t="s">
-        <v>1371</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="134" t="s">
-        <v>1372</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="134" t="s">
-        <v>1373</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="134" t="s">
-        <v>1374</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="134" t="s">
-        <v>1375</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="134" t="s">
-        <v>1376</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="134" t="s">
-        <v>1377</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="134" t="s">
-        <v>1378</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="134" t="s">
-        <v>1379</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="134" t="s">
-        <v>1380</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="134" t="s">
-        <v>1381</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="134" t="s">
-        <v>1382</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="134" t="s">
-        <v>1383</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="134" t="s">
-        <v>1384</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="134" t="s">
-        <v>1385</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="134" t="s">
-        <v>1386</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="134" t="s">
-        <v>1387</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="134" t="s">
-        <v>1388</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="134" t="s">
-        <v>1389</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="134" t="s">
-        <v>1390</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="134" t="s">
-        <v>1391</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="134" t="s">
-        <v>1392</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="134" t="s">
-        <v>1393</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="134" t="s">
-        <v>1394</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="134" t="s">
-        <v>1395</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="134" t="s">
-        <v>1396</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="134" t="s">
-        <v>1397</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="134" t="s">
-        <v>1398</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="134" t="s">
-        <v>1399</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="134" t="s">
-        <v>1400</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="134" t="s">
-        <v>1401</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="134" t="s">
-        <v>1402</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="134" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="134" t="s">
-        <v>1403</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="134" t="s">
-        <v>1404</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="134" t="s">
-        <v>1405</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="134" t="s">
-        <v>1406</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="134" t="s">
-        <v>1407</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="134" t="s">
-        <v>1408</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="134" t="s">
-        <v>1409</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="134" t="s">
-        <v>1410</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="134" t="s">
-        <v>1411</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="134" t="s">
-        <v>1412</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="134" t="s">
-        <v>1413</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="134" t="s">
-        <v>1414</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="134" t="s">
-        <v>1415</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="134" t="s">
-        <v>1416</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="134" t="s">
-        <v>1417</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="134" t="s">
-        <v>1418</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="134" t="s">
-        <v>1419</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="134" t="s">
-        <v>1420</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="134" t="s">
-        <v>1421</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="134" t="s">
-        <v>1422</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="134" t="s">
-        <v>1423</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="134" t="s">
-        <v>1424</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="134" t="s">
-        <v>1425</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="134" t="s">
-        <v>1426</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="134" t="s">
-        <v>1427</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="134" t="s">
-        <v>1428</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="134" t="s">
-        <v>1429</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="134" t="s">
-        <v>1430</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="134" t="s">
-        <v>1431</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="134" t="s">
-        <v>1432</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="134" t="s">
-        <v>1433</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="134" t="s">
-        <v>1434</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="134" t="s">
-        <v>1435</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="134" t="s">
-        <v>1436</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="134" t="s">
-        <v>1437</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="134" t="s">
-        <v>1438</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="134" t="s">
-        <v>1439</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="134" t="s">
-        <v>1440</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="134" t="s">
-        <v>1441</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="134" t="s">
-        <v>1442</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="134" t="s">
-        <v>1443</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="134" t="s">
-        <v>1444</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="134" t="s">
-        <v>1445</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="134" t="s">
-        <v>1446</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="134" t="s">
-        <v>1447</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="134" t="s">
-        <v>1448</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="134" t="s">
-        <v>1449</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="134" t="s">
-        <v>1450</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="134" t="s">
-        <v>1451</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="134" t="s">
-        <v>1452</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="134" t="s">
-        <v>1453</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="134" t="s">
-        <v>1454</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="134" t="s">
-        <v>1455</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="134" t="s">
-        <v>1456</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="134" t="s">
-        <v>1457</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="134" t="s">
-        <v>1458</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="134" t="s">
-        <v>1459</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="134" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="134" t="s">
-        <v>1461</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="134" t="s">
-        <v>1462</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="134" t="s">
-        <v>1463</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="134" t="s">
-        <v>1464</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="134" t="s">
-        <v>1465</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="134" t="s">
-        <v>1466</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="134" t="s">
-        <v>1467</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="134" t="s">
-        <v>1468</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="134" t="s">
-        <v>1469</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="134" t="s">
-        <v>1470</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="134" t="s">
-        <v>1471</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="134" t="s">
-        <v>1472</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="134" t="s">
-        <v>1473</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="134" t="s">
-        <v>1474</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="134" t="s">
-        <v>1475</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="134" t="s">
-        <v>1476</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="134" t="s">
-        <v>1477</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="134" t="s">
-        <v>1478</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="134" t="s">
-        <v>1479</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="134" t="s">
-        <v>1480</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="134" t="s">
-        <v>1481</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="134" t="s">
-        <v>1482</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="134" t="s">
-        <v>1483</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="134" t="s">
-        <v>1484</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="134" t="s">
-        <v>1485</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="134" t="s">
-        <v>1486</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="134" t="s">
-        <v>1487</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="134" t="s">
-        <v>1488</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="134" t="s">
-        <v>1489</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="134" t="s">
-        <v>1490</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="134" t="s">
-        <v>1491</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="134" t="s">
-        <v>1492</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="134" t="s">
-        <v>1493</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="134" t="s">
-        <v>1494</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="134" t="s">
-        <v>1495</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="134" t="s">
-        <v>1496</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="134" t="s">
-        <v>1497</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="134" t="s">
-        <v>1498</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="134" t="s">
-        <v>1499</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="134" t="s">
-        <v>1500</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="134" t="s">
-        <v>1501</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="134" t="s">
-        <v>1502</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="134" t="s">
-        <v>1503</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="134" t="s">
-        <v>1504</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="134" t="s">
-        <v>1505</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="134" t="s">
-        <v>1506</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="134" t="s">
-        <v>1507</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="134" t="s">
-        <v>1508</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="134" t="s">
-        <v>1509</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="134" t="s">
-        <v>1510</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="134" t="s">
-        <v>1511</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="134" t="s">
-        <v>1512</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="134" t="s">
-        <v>1513</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="134" t="s">
-        <v>1514</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="134" t="s">
-        <v>1515</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="134" t="s">
-        <v>1516</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="134" t="s">
-        <v>1517</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="134" t="s">
-        <v>1518</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="134" t="s">
-        <v>1519</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="134" t="s">
-        <v>1520</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="134" t="s">
-        <v>1521</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="134" t="s">
-        <v>1522</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="134" t="s">
-        <v>1523</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="134" t="s">
-        <v>1524</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="134" t="s">
-        <v>1525</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="134" t="s">
-        <v>1526</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="134" t="s">
-        <v>1527</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="134" t="s">
-        <v>1528</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="134" t="s">
-        <v>1529</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="134" t="s">
-        <v>1530</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="134" t="s">
-        <v>1531</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="134" t="s">
-        <v>1532</v>
+        <v>1509</v>
       </c>
     </row>
   </sheetData>
